--- a/SO SACH - LA/SO SACH/2015/141 - 341 - 15.xlsx
+++ b/SO SACH - LA/SO SACH/2015/141 - 341 - 15.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15135" windowHeight="9300" tabRatio="858"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15135" windowHeight="9300" tabRatio="858" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="341" sheetId="20" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="334">
   <si>
     <t>Đơn vị: CÔNG TY TNHH HẢI SẢN AN LẠC</t>
   </si>
@@ -1052,6 +1052,9 @@
   </si>
   <si>
     <t>KU 1015LDS201502531</t>
+  </si>
+  <si>
+    <t>Trả gốc KU 1015LDS201100378</t>
   </si>
 </sst>
 </file>
@@ -2779,6 +2782,27 @@
     <xf numFmtId="0" fontId="40" fillId="21" borderId="26" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="30" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="26" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="30" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2788,30 +2812,27 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="26" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="30" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" xfId="54" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="26" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="30" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="29" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2824,60 +2845,45 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" xfId="54" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="29" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="21" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="26" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="21" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="26" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="21" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="26" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="21" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="26" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2888,9 +2894,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3372,7 +3375,7 @@
   </sheetPr>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
@@ -3649,11 +3652,11 @@
       </c>
       <c r="H7" s="162">
         <f t="shared" ca="1" si="0"/>
-        <v>49578</v>
+        <v>20658</v>
       </c>
       <c r="I7" s="163">
         <f t="shared" ca="1" si="1"/>
-        <v>1114761330</v>
+        <v>464495130</v>
       </c>
       <c r="J7" s="162">
         <f t="shared" ca="1" si="2"/>
@@ -3665,19 +3668,19 @@
       </c>
       <c r="L7" s="164">
         <f t="shared" ca="1" si="4"/>
-        <v>8404.0400000000009</v>
+        <v>0</v>
       </c>
       <c r="M7" s="165">
         <f t="shared" ca="1" si="5"/>
-        <v>264088406</v>
+        <v>0</v>
       </c>
       <c r="N7" s="164">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>20515.96</v>
       </c>
       <c r="O7" s="165">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>386177794</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="157" customFormat="1" ht="18" customHeight="1">
@@ -3704,11 +3707,11 @@
       </c>
       <c r="H8" s="162">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>28920</v>
       </c>
       <c r="I8" s="163">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>650266200</v>
       </c>
       <c r="J8" s="162">
         <f t="shared" ca="1" si="2"/>
@@ -3728,11 +3731,11 @@
       </c>
       <c r="N8" s="164">
         <f t="shared" ca="1" si="6"/>
-        <v>57639.38</v>
+        <v>28719.38</v>
       </c>
       <c r="O8" s="165">
         <f t="shared" ca="1" si="7"/>
-        <v>1190366038</v>
+        <v>540099838</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="157" customFormat="1" ht="18" customHeight="1">
@@ -5762,19 +5765,19 @@
       </c>
       <c r="L50" s="171">
         <f t="shared" ca="1" si="36"/>
-        <v>8404.0400000000009</v>
+        <v>0</v>
       </c>
       <c r="M50" s="172">
         <f t="shared" ca="1" si="36"/>
-        <v>264088406</v>
+        <v>0</v>
       </c>
       <c r="N50" s="171">
         <f t="shared" ca="1" si="36"/>
-        <v>1061573.77</v>
+        <v>1053169.73</v>
       </c>
       <c r="O50" s="172">
         <f t="shared" ca="1" si="36"/>
-        <v>23025524894</v>
+        <v>22761436488</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -5840,8 +5843,8 @@
   <dimension ref="A1:K90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
+      <pane ySplit="4" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5860,61 +5863,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="181" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="265" t="s">
+      <c r="A1" s="272" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="268" t="s">
+      <c r="B1" s="265" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="269"/>
-      <c r="D1" s="265" t="s">
+      <c r="C1" s="267"/>
+      <c r="D1" s="272" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="265" t="s">
+      <c r="E1" s="272" t="s">
         <v>239</v>
       </c>
-      <c r="F1" s="265" t="s">
+      <c r="F1" s="272" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="265" t="s">
+      <c r="G1" s="272" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="268" t="s">
+      <c r="H1" s="265" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="269"/>
+      <c r="I1" s="266"/>
+      <c r="J1" s="266"/>
+      <c r="K1" s="267"/>
     </row>
     <row r="2" spans="1:11" s="181" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="266"/>
-      <c r="B2" s="271" t="s">
+      <c r="A2" s="273"/>
+      <c r="B2" s="268" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="271" t="s">
+      <c r="C2" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="266"/>
-      <c r="E2" s="266"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="273" t="s">
+      <c r="D2" s="273"/>
+      <c r="E2" s="273"/>
+      <c r="F2" s="273"/>
+      <c r="G2" s="273"/>
+      <c r="H2" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="274"/>
-      <c r="J2" s="273" t="s">
+      <c r="I2" s="271"/>
+      <c r="J2" s="270" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="274"/>
+      <c r="K2" s="271"/>
     </row>
     <row r="3" spans="1:11" s="181" customFormat="1" ht="27" customHeight="1">
-      <c r="A3" s="267"/>
-      <c r="B3" s="272"/>
-      <c r="C3" s="272"/>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267"/>
-      <c r="F3" s="267"/>
-      <c r="G3" s="267"/>
+      <c r="A3" s="274"/>
+      <c r="B3" s="269"/>
+      <c r="C3" s="269"/>
+      <c r="D3" s="274"/>
+      <c r="E3" s="274"/>
+      <c r="F3" s="274"/>
+      <c r="G3" s="274"/>
       <c r="H3" s="182" t="s">
         <v>115</v>
       </c>
@@ -8315,10 +8318,10 @@
         <v>42279</v>
       </c>
       <c r="D73" s="232" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E73" s="254" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F73" s="191" t="s">
         <v>147</v>
@@ -8733,17 +8736,17 @@
     <filterColumn colId="5"/>
   </autoFilter>
   <mergeCells count="11">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="G1:G3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E42:E47 E5:E40 E52:E61 E63:E64 E66:E73 E75:E90">
@@ -8762,7 +8765,7 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H9" sqref="H9:I9"/>
     </sheetView>
   </sheetViews>
@@ -8793,13 +8796,13 @@
       <c r="C1" s="178"/>
       <c r="H1" s="178"/>
       <c r="I1" s="178"/>
-      <c r="J1" s="276" t="s">
+      <c r="J1" s="282" t="s">
         <v>241</v>
       </c>
-      <c r="K1" s="276"/>
-      <c r="L1" s="276"/>
-      <c r="M1" s="276"/>
-      <c r="N1" s="276"/>
+      <c r="K1" s="282"/>
+      <c r="L1" s="282"/>
+      <c r="M1" s="282"/>
+      <c r="N1" s="282"/>
     </row>
     <row r="2" spans="1:14" s="179" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="177" t="s">
@@ -8809,13 +8812,13 @@
       <c r="C2" s="220"/>
       <c r="H2" s="180"/>
       <c r="I2" s="180"/>
-      <c r="J2" s="277" t="s">
+      <c r="J2" s="283" t="s">
         <v>242</v>
       </c>
-      <c r="K2" s="277"/>
-      <c r="L2" s="277"/>
-      <c r="M2" s="277"/>
-      <c r="N2" s="277"/>
+      <c r="K2" s="283"/>
+      <c r="L2" s="283"/>
+      <c r="M2" s="283"/>
+      <c r="N2" s="283"/>
     </row>
     <row r="3" spans="1:14" s="179" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="220"/>
@@ -8823,11 +8826,11 @@
       <c r="C3" s="220"/>
       <c r="H3" s="180"/>
       <c r="I3" s="180"/>
-      <c r="J3" s="277"/>
-      <c r="K3" s="277"/>
-      <c r="L3" s="277"/>
-      <c r="M3" s="277"/>
-      <c r="N3" s="277"/>
+      <c r="J3" s="283"/>
+      <c r="K3" s="283"/>
+      <c r="L3" s="283"/>
+      <c r="M3" s="283"/>
+      <c r="N3" s="283"/>
     </row>
     <row r="4" spans="1:14" s="179" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="220"/>
@@ -8842,77 +8845,77 @@
       <c r="N4" s="221"/>
     </row>
     <row r="5" spans="1:14" s="181" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="278" t="s">
+      <c r="A5" s="284" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="279"/>
-      <c r="C5" s="279"/>
-      <c r="D5" s="279"/>
-      <c r="E5" s="279"/>
-      <c r="F5" s="279"/>
-      <c r="G5" s="279"/>
-      <c r="H5" s="279"/>
-      <c r="I5" s="279"/>
-      <c r="J5" s="279"/>
-      <c r="K5" s="279"/>
-      <c r="L5" s="279"/>
-      <c r="M5" s="279"/>
-      <c r="N5" s="279"/>
+      <c r="B5" s="285"/>
+      <c r="C5" s="285"/>
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="285"/>
+      <c r="G5" s="285"/>
+      <c r="H5" s="285"/>
+      <c r="I5" s="285"/>
+      <c r="J5" s="285"/>
+      <c r="K5" s="285"/>
+      <c r="L5" s="285"/>
+      <c r="M5" s="285"/>
+      <c r="N5" s="285"/>
     </row>
     <row r="6" spans="1:14" s="181" customFormat="1">
-      <c r="A6" s="275" t="s">
+      <c r="A6" s="276" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="275"/>
-      <c r="C6" s="275"/>
-      <c r="D6" s="275"/>
-      <c r="E6" s="275"/>
-      <c r="F6" s="275"/>
-      <c r="G6" s="275"/>
-      <c r="H6" s="275"/>
-      <c r="I6" s="275"/>
-      <c r="J6" s="275"/>
-      <c r="K6" s="275"/>
-      <c r="L6" s="275"/>
-      <c r="M6" s="275"/>
-      <c r="N6" s="275"/>
+      <c r="B6" s="276"/>
+      <c r="C6" s="276"/>
+      <c r="D6" s="276"/>
+      <c r="E6" s="276"/>
+      <c r="F6" s="276"/>
+      <c r="G6" s="276"/>
+      <c r="H6" s="276"/>
+      <c r="I6" s="276"/>
+      <c r="J6" s="276"/>
+      <c r="K6" s="276"/>
+      <c r="L6" s="276"/>
+      <c r="M6" s="276"/>
+      <c r="N6" s="276"/>
     </row>
     <row r="7" spans="1:14" s="181" customFormat="1">
-      <c r="A7" s="275" t="s">
+      <c r="A7" s="276" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="275"/>
-      <c r="C7" s="275"/>
-      <c r="D7" s="275"/>
-      <c r="E7" s="275"/>
-      <c r="F7" s="275"/>
-      <c r="G7" s="275"/>
-      <c r="H7" s="275"/>
-      <c r="I7" s="275"/>
-      <c r="J7" s="275"/>
-      <c r="K7" s="275"/>
-      <c r="L7" s="275"/>
-      <c r="M7" s="275"/>
-      <c r="N7" s="275"/>
+      <c r="B7" s="276"/>
+      <c r="C7" s="276"/>
+      <c r="D7" s="276"/>
+      <c r="E7" s="276"/>
+      <c r="F7" s="276"/>
+      <c r="G7" s="276"/>
+      <c r="H7" s="276"/>
+      <c r="I7" s="276"/>
+      <c r="J7" s="276"/>
+      <c r="K7" s="276"/>
+      <c r="L7" s="276"/>
+      <c r="M7" s="276"/>
+      <c r="N7" s="276"/>
     </row>
     <row r="8" spans="1:14" s="181" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="275" t="str">
+      <c r="A8" s="276" t="str">
         <f>IF(MID($H$9,4,4)="1015","Đối tượng cho vay: NH Eximbank CN Q11","Đối tượng cho vay: NH Eximbank CN Q4")</f>
         <v>Đối tượng cho vay: NH Eximbank CN Q11</v>
       </c>
-      <c r="B8" s="275"/>
-      <c r="C8" s="275"/>
-      <c r="D8" s="275"/>
-      <c r="E8" s="275"/>
-      <c r="F8" s="275"/>
-      <c r="G8" s="275"/>
-      <c r="H8" s="275"/>
-      <c r="I8" s="275"/>
-      <c r="J8" s="275"/>
-      <c r="K8" s="275"/>
-      <c r="L8" s="275"/>
-      <c r="M8" s="275"/>
-      <c r="N8" s="275"/>
+      <c r="B8" s="276"/>
+      <c r="C8" s="276"/>
+      <c r="D8" s="276"/>
+      <c r="E8" s="276"/>
+      <c r="F8" s="276"/>
+      <c r="G8" s="276"/>
+      <c r="H8" s="276"/>
+      <c r="I8" s="276"/>
+      <c r="J8" s="276"/>
+      <c r="K8" s="276"/>
+      <c r="L8" s="276"/>
+      <c r="M8" s="276"/>
+      <c r="N8" s="276"/>
     </row>
     <row r="9" spans="1:14" s="181" customFormat="1">
       <c r="A9" s="219"/>
@@ -8924,13 +8927,13 @@
       <c r="G9" s="235" t="s">
         <v>240</v>
       </c>
-      <c r="H9" s="280" t="s">
-        <v>117</v>
-      </c>
-      <c r="I9" s="280"/>
+      <c r="H9" s="275" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="275"/>
       <c r="J9" s="236" t="str">
         <f>"ngày "&amp; TEXT(VLOOKUP($H$9,'341'!$B$5:$C$49,2,0),"dd/MM/yy")</f>
-        <v>ngày 22/01/10</v>
+        <v>ngày 25/02/12</v>
       </c>
       <c r="K9" s="219"/>
       <c r="L9" s="219"/>
@@ -8938,102 +8941,102 @@
       <c r="N9" s="219"/>
     </row>
     <row r="10" spans="1:14" s="181" customFormat="1">
-      <c r="A10" s="275" t="s">
+      <c r="A10" s="276" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="275"/>
-      <c r="C10" s="275"/>
-      <c r="D10" s="275"/>
-      <c r="E10" s="275"/>
-      <c r="F10" s="275"/>
-      <c r="G10" s="275"/>
-      <c r="H10" s="275"/>
-      <c r="I10" s="275"/>
-      <c r="J10" s="275"/>
-      <c r="K10" s="275"/>
-      <c r="L10" s="275"/>
-      <c r="M10" s="275"/>
-      <c r="N10" s="275"/>
+      <c r="B10" s="276"/>
+      <c r="C10" s="276"/>
+      <c r="D10" s="276"/>
+      <c r="E10" s="276"/>
+      <c r="F10" s="276"/>
+      <c r="G10" s="276"/>
+      <c r="H10" s="276"/>
+      <c r="I10" s="276"/>
+      <c r="J10" s="276"/>
+      <c r="K10" s="276"/>
+      <c r="L10" s="276"/>
+      <c r="M10" s="276"/>
+      <c r="N10" s="276"/>
     </row>
     <row r="11" spans="1:14" s="181" customFormat="1">
-      <c r="C11" s="281"/>
-      <c r="D11" s="281"/>
-      <c r="E11" s="281"/>
-      <c r="F11" s="281"/>
-      <c r="G11" s="281"/>
-      <c r="H11" s="281"/>
-      <c r="I11" s="281"/>
-      <c r="J11" s="281"/>
-      <c r="K11" s="281"/>
-      <c r="L11" s="281"/>
-      <c r="M11" s="281"/>
-      <c r="N11" s="281"/>
+      <c r="C11" s="277"/>
+      <c r="D11" s="277"/>
+      <c r="E11" s="277"/>
+      <c r="F11" s="277"/>
+      <c r="G11" s="277"/>
+      <c r="H11" s="277"/>
+      <c r="I11" s="277"/>
+      <c r="J11" s="277"/>
+      <c r="K11" s="277"/>
+      <c r="L11" s="277"/>
+      <c r="M11" s="277"/>
+      <c r="N11" s="277"/>
     </row>
     <row r="12" spans="1:14" s="181" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A12" s="265" t="s">
+      <c r="A12" s="272" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="268" t="s">
+      <c r="B12" s="265" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="269"/>
-      <c r="D12" s="265" t="s">
+      <c r="C12" s="267"/>
+      <c r="D12" s="272" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="265" t="s">
+      <c r="E12" s="272" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="265" t="s">
+      <c r="F12" s="272" t="s">
         <v>139</v>
       </c>
-      <c r="G12" s="268" t="s">
+      <c r="G12" s="265" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="284"/>
-      <c r="I12" s="284"/>
-      <c r="J12" s="285"/>
-      <c r="K12" s="268" t="s">
+      <c r="H12" s="280"/>
+      <c r="I12" s="280"/>
+      <c r="J12" s="281"/>
+      <c r="K12" s="265" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="284"/>
-      <c r="M12" s="284"/>
-      <c r="N12" s="285"/>
+      <c r="L12" s="280"/>
+      <c r="M12" s="280"/>
+      <c r="N12" s="281"/>
     </row>
     <row r="13" spans="1:14" s="181" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="266"/>
-      <c r="B13" s="271" t="s">
+      <c r="A13" s="273"/>
+      <c r="B13" s="268" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="271" t="s">
+      <c r="C13" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="266"/>
-      <c r="E13" s="266"/>
-      <c r="F13" s="282"/>
-      <c r="G13" s="273" t="s">
+      <c r="D13" s="273"/>
+      <c r="E13" s="273"/>
+      <c r="F13" s="278"/>
+      <c r="G13" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="285"/>
-      <c r="I13" s="273" t="s">
+      <c r="H13" s="281"/>
+      <c r="I13" s="270" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="285"/>
-      <c r="K13" s="273" t="s">
+      <c r="J13" s="281"/>
+      <c r="K13" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="285"/>
-      <c r="M13" s="273" t="s">
+      <c r="L13" s="281"/>
+      <c r="M13" s="270" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="285"/>
+      <c r="N13" s="281"/>
     </row>
     <row r="14" spans="1:14" s="181" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A14" s="267"/>
-      <c r="B14" s="272"/>
-      <c r="C14" s="272"/>
-      <c r="D14" s="267"/>
-      <c r="E14" s="267"/>
-      <c r="F14" s="283"/>
+      <c r="A14" s="274"/>
+      <c r="B14" s="269"/>
+      <c r="C14" s="269"/>
+      <c r="D14" s="274"/>
+      <c r="E14" s="274"/>
+      <c r="F14" s="279"/>
       <c r="G14" s="182" t="s">
         <v>115</v>
       </c>
@@ -9126,11 +9129,11 @@
       </c>
       <c r="M16" s="187">
         <f>VLOOKUP($H$9,'341'!$B$5:$G$49,5,0)</f>
-        <v>27926</v>
+        <v>57639.38</v>
       </c>
       <c r="N16" s="188">
         <f>VLOOKUP($H$9,'341'!$B$5:$G$49,6,0)</f>
-        <v>401936849</v>
+        <v>1190366038</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="181" customFormat="1" ht="19.5" customHeight="1">
@@ -9148,7 +9151,7 @@
       </c>
       <c r="D17" s="241" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong4),"",OFFSET('TH-341'!D$1,SMALL(Dong4,ROWS($1:1)),))</f>
-        <v>Trả gốc KU 1015LDS201000102</v>
+        <v>Trả gốc KU 1015LDS201100378</v>
       </c>
       <c r="E17" s="190" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong4),"",OFFSET('TH-341'!F$1,SMALL(Dong4,ROWS($1:1)),))</f>
@@ -9160,11 +9163,11 @@
       </c>
       <c r="G17" s="239">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong4),"",OFFSET('TH-341'!H$1,SMALL(Dong4,ROWS($1:1)),))</f>
-        <v>14011</v>
+        <v>28920</v>
       </c>
       <c r="H17" s="238">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong4),"",OFFSET('TH-341'!I$1,SMALL(Dong4,ROWS($1:1)),))</f>
-        <v>315037335</v>
+        <v>650266200</v>
       </c>
       <c r="I17" s="239">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong4),"",OFFSET('TH-341'!J$1,SMALL(Dong4,ROWS($1:1)),))</f>
@@ -9184,11 +9187,11 @@
       </c>
       <c r="M17" s="162">
         <f t="shared" ref="M17" ca="1" si="2">IF(C17&lt;&gt;"",ROUND(MAX(M16+I17-G17-K16,0),2),0)</f>
-        <v>13915</v>
+        <v>28719.38</v>
       </c>
       <c r="N17" s="163">
         <f t="shared" ref="N17" ca="1" si="3">IF(C17&lt;&gt;"",MAX(N16-L16+J17-H17,0),0)</f>
-        <v>86899514</v>
+        <v>540099838</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="198" customFormat="1" ht="19.5" customHeight="1">
@@ -9396,11 +9399,11 @@
       </c>
       <c r="G22" s="253">
         <f t="shared" ref="G22:I22" ca="1" si="14">SUM(G17:G20)</f>
-        <v>14011</v>
+        <v>28920</v>
       </c>
       <c r="H22" s="201">
         <f t="shared" ca="1" si="14"/>
-        <v>315037335</v>
+        <v>650266200</v>
       </c>
       <c r="I22" s="253">
         <f t="shared" ca="1" si="14"/>
@@ -9458,11 +9461,11 @@
       </c>
       <c r="M23" s="205">
         <f ca="1">MAX(M16+I22-K16-G22,0)</f>
-        <v>13915</v>
+        <v>28719.379999999997</v>
       </c>
       <c r="N23" s="206">
         <f ca="1">MAX(N16+J22-L16-H22,0)</f>
-        <v>86899514</v>
+        <v>540099838</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="181" customFormat="1">
@@ -9479,7 +9482,7 @@
     <row r="26" spans="1:14" s="181" customFormat="1">
       <c r="C26" s="207" t="str">
         <f>"- Ngày mở sổ: "&amp;TEXT(VLOOKUP($H$9,'341'!$B$5:$C$49,2,0),"dd/MM/yy")</f>
-        <v>- Ngày mở sổ: 22/01/10</v>
+        <v>- Ngày mở sổ: 25/02/12</v>
       </c>
       <c r="E26" s="219"/>
       <c r="F26" s="219"/>
@@ -9534,6 +9537,12 @@
     <row r="44" s="240" customFormat="1"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="J2:N3"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="A7:N7"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="A10:N10"/>
     <mergeCell ref="C11:N11"/>
@@ -9550,12 +9559,6 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="M13:N13"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="J2:N3"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="A7:N7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:I9">
@@ -9642,17 +9645,17 @@
       <c r="T4" s="29"/>
     </row>
     <row r="5" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A5" s="299" t="s">
+      <c r="A5" s="300" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="299"/>
-      <c r="C5" s="299"/>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
-      <c r="G5" s="299"/>
-      <c r="H5" s="299"/>
-      <c r="I5" s="299"/>
+      <c r="B5" s="300"/>
+      <c r="C5" s="300"/>
+      <c r="D5" s="300"/>
+      <c r="E5" s="300"/>
+      <c r="F5" s="300"/>
+      <c r="G5" s="300"/>
+      <c r="H5" s="300"/>
+      <c r="I5" s="300"/>
       <c r="O5" s="29"/>
       <c r="P5" s="29"/>
       <c r="R5" s="29"/>
@@ -9660,17 +9663,17 @@
       <c r="T5" s="29"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="286" t="s">
+      <c r="A6" s="298" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="286"/>
-      <c r="C6" s="286"/>
-      <c r="D6" s="286"/>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
-      <c r="G6" s="286"/>
-      <c r="H6" s="286"/>
-      <c r="I6" s="286"/>
+      <c r="B6" s="298"/>
+      <c r="C6" s="298"/>
+      <c r="D6" s="298"/>
+      <c r="E6" s="298"/>
+      <c r="F6" s="298"/>
+      <c r="G6" s="298"/>
+      <c r="H6" s="298"/>
+      <c r="I6" s="298"/>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
       <c r="R6" s="29"/>
@@ -9678,17 +9681,17 @@
       <c r="T6" s="29"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="300" t="s">
+      <c r="A7" s="301" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="300"/>
-      <c r="C7" s="300"/>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="300"/>
-      <c r="G7" s="300"/>
-      <c r="H7" s="300"/>
-      <c r="I7" s="300"/>
+      <c r="B7" s="301"/>
+      <c r="C7" s="301"/>
+      <c r="D7" s="301"/>
+      <c r="E7" s="301"/>
+      <c r="F7" s="301"/>
+      <c r="G7" s="301"/>
+      <c r="H7" s="301"/>
+      <c r="I7" s="301"/>
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
       <c r="R7" s="29"/>
@@ -9696,17 +9699,17 @@
       <c r="T7" s="29"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="286" t="s">
+      <c r="A8" s="298" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="286"/>
-      <c r="C8" s="286"/>
-      <c r="D8" s="286"/>
-      <c r="E8" s="286"/>
-      <c r="F8" s="286"/>
-      <c r="G8" s="286"/>
-      <c r="H8" s="286"/>
-      <c r="I8" s="286"/>
+      <c r="B8" s="298"/>
+      <c r="C8" s="298"/>
+      <c r="D8" s="298"/>
+      <c r="E8" s="298"/>
+      <c r="F8" s="298"/>
+      <c r="G8" s="298"/>
+      <c r="H8" s="298"/>
+      <c r="I8" s="298"/>
       <c r="O8" s="29"/>
       <c r="P8" s="29"/>
       <c r="R8" s="29"/>
@@ -9714,17 +9717,17 @@
       <c r="T8" s="29"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="286" t="s">
+      <c r="A9" s="298" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="286"/>
-      <c r="C9" s="286"/>
-      <c r="D9" s="286"/>
-      <c r="E9" s="286"/>
-      <c r="F9" s="286"/>
-      <c r="G9" s="286"/>
-      <c r="H9" s="286"/>
-      <c r="I9" s="286"/>
+      <c r="B9" s="298"/>
+      <c r="C9" s="298"/>
+      <c r="D9" s="298"/>
+      <c r="E9" s="298"/>
+      <c r="F9" s="298"/>
+      <c r="G9" s="298"/>
+      <c r="H9" s="298"/>
+      <c r="I9" s="298"/>
       <c r="O9" s="29"/>
       <c r="P9" s="29"/>
       <c r="R9" s="29"/>
@@ -9732,15 +9735,15 @@
       <c r="T9" s="29"/>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1">
-      <c r="A10" s="301"/>
-      <c r="B10" s="301"/>
-      <c r="C10" s="301"/>
-      <c r="D10" s="301"/>
-      <c r="E10" s="301"/>
-      <c r="F10" s="301"/>
-      <c r="G10" s="301"/>
-      <c r="H10" s="301"/>
-      <c r="I10" s="301"/>
+      <c r="A10" s="302"/>
+      <c r="B10" s="302"/>
+      <c r="C10" s="302"/>
+      <c r="D10" s="302"/>
+      <c r="E10" s="302"/>
+      <c r="F10" s="302"/>
+      <c r="G10" s="302"/>
+      <c r="H10" s="302"/>
+      <c r="I10" s="302"/>
       <c r="O10" s="29"/>
       <c r="P10" s="29"/>
       <c r="R10" s="29"/>
@@ -9748,95 +9751,95 @@
       <c r="T10" s="29"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A11" s="287" t="s">
+      <c r="A11" s="295" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="288" t="s">
+      <c r="B11" s="287" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="289"/>
-      <c r="D11" s="287" t="s">
+      <c r="C11" s="288"/>
+      <c r="D11" s="295" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="287" t="s">
+      <c r="E11" s="295" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="288" t="s">
+      <c r="F11" s="287" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="289"/>
-      <c r="H11" s="288" t="s">
+      <c r="G11" s="288"/>
+      <c r="H11" s="287" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="298"/>
-      <c r="O11" s="287" t="s">
+      <c r="I11" s="299"/>
+      <c r="O11" s="295" t="s">
         <v>6</v>
       </c>
       <c r="P11" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="Q11" s="287" t="s">
+      <c r="Q11" s="295" t="s">
         <v>8</v>
       </c>
-      <c r="R11" s="287" t="s">
+      <c r="R11" s="295" t="s">
         <v>9</v>
       </c>
-      <c r="S11" s="288" t="s">
+      <c r="S11" s="287" t="s">
         <v>10</v>
       </c>
-      <c r="T11" s="289"/>
+      <c r="T11" s="288"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A12" s="287"/>
-      <c r="B12" s="290" t="s">
+      <c r="A12" s="295"/>
+      <c r="B12" s="289" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="292" t="s">
+      <c r="C12" s="291" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="287"/>
-      <c r="E12" s="287"/>
-      <c r="F12" s="292" t="s">
+      <c r="D12" s="295"/>
+      <c r="E12" s="295"/>
+      <c r="F12" s="291" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="294" t="s">
+      <c r="G12" s="293" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="292" t="s">
+      <c r="H12" s="291" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="292" t="s">
+      <c r="I12" s="291" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="287"/>
-      <c r="P12" s="290" t="s">
+      <c r="O12" s="295"/>
+      <c r="P12" s="289" t="s">
         <v>12</v>
       </c>
-      <c r="Q12" s="287"/>
-      <c r="R12" s="287"/>
-      <c r="S12" s="292" t="s">
+      <c r="Q12" s="295"/>
+      <c r="R12" s="295"/>
+      <c r="S12" s="291" t="s">
         <v>14</v>
       </c>
-      <c r="T12" s="294" t="s">
+      <c r="T12" s="293" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="18" customHeight="1">
-      <c r="A13" s="287"/>
-      <c r="B13" s="291"/>
-      <c r="C13" s="293"/>
-      <c r="D13" s="287"/>
-      <c r="E13" s="287"/>
-      <c r="F13" s="293"/>
-      <c r="G13" s="295"/>
-      <c r="H13" s="293"/>
-      <c r="I13" s="293"/>
-      <c r="O13" s="287"/>
-      <c r="P13" s="291"/>
-      <c r="Q13" s="287"/>
-      <c r="R13" s="287"/>
-      <c r="S13" s="293"/>
-      <c r="T13" s="295"/>
+      <c r="A13" s="295"/>
+      <c r="B13" s="290"/>
+      <c r="C13" s="292"/>
+      <c r="D13" s="295"/>
+      <c r="E13" s="295"/>
+      <c r="F13" s="292"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="292"/>
+      <c r="I13" s="292"/>
+      <c r="O13" s="295"/>
+      <c r="P13" s="290"/>
+      <c r="Q13" s="295"/>
+      <c r="R13" s="295"/>
+      <c r="S13" s="292"/>
+      <c r="T13" s="294"/>
     </row>
     <row r="14" spans="1:21" s="28" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="30" t="s">
@@ -17103,13 +17106,13 @@
       <c r="B210" s="28"/>
       <c r="C210" s="28"/>
       <c r="D210" s="29"/>
-      <c r="E210" s="286" t="s">
+      <c r="E210" s="298" t="s">
         <v>167</v>
       </c>
-      <c r="F210" s="286"/>
-      <c r="G210" s="286"/>
-      <c r="H210" s="286"/>
-      <c r="I210" s="286"/>
+      <c r="F210" s="298"/>
+      <c r="G210" s="298"/>
+      <c r="H210" s="298"/>
+      <c r="I210" s="298"/>
       <c r="J210" s="61"/>
       <c r="K210" s="119"/>
       <c r="L210" s="61"/>
@@ -17124,58 +17127,58 @@
       <c r="U210" s="149"/>
     </row>
     <row r="211" spans="1:21" s="1" customFormat="1">
-      <c r="A211" s="286" t="s">
+      <c r="A211" s="298" t="s">
         <v>25</v>
       </c>
-      <c r="B211" s="286"/>
-      <c r="C211" s="286"/>
-      <c r="D211" s="286"/>
-      <c r="E211" s="286" t="s">
+      <c r="B211" s="298"/>
+      <c r="C211" s="298"/>
+      <c r="D211" s="298"/>
+      <c r="E211" s="298" t="s">
         <v>26</v>
       </c>
-      <c r="F211" s="286"/>
-      <c r="G211" s="286"/>
-      <c r="H211" s="286"/>
-      <c r="I211" s="286"/>
+      <c r="F211" s="298"/>
+      <c r="G211" s="298"/>
+      <c r="H211" s="298"/>
+      <c r="I211" s="298"/>
       <c r="J211" s="61"/>
       <c r="K211" s="143"/>
       <c r="L211" s="62"/>
       <c r="M211" s="59"/>
       <c r="N211" s="59"/>
-      <c r="O211" s="302" t="s">
+      <c r="O211" s="286" t="s">
         <v>25</v>
       </c>
-      <c r="P211" s="302"/>
-      <c r="Q211" s="302"/>
+      <c r="P211" s="286"/>
+      <c r="Q211" s="286"/>
       <c r="R211" s="59"/>
       <c r="S211" s="59"/>
       <c r="T211" s="59"/>
       <c r="U211" s="149"/>
     </row>
     <row r="212" spans="1:21" s="1" customFormat="1">
-      <c r="A212" s="286" t="s">
+      <c r="A212" s="298" t="s">
         <v>27</v>
       </c>
-      <c r="B212" s="286"/>
-      <c r="C212" s="286"/>
-      <c r="D212" s="286"/>
-      <c r="E212" s="286" t="s">
+      <c r="B212" s="298"/>
+      <c r="C212" s="298"/>
+      <c r="D212" s="298"/>
+      <c r="E212" s="298" t="s">
         <v>27</v>
       </c>
-      <c r="F212" s="286"/>
-      <c r="G212" s="286"/>
-      <c r="H212" s="286"/>
-      <c r="I212" s="286"/>
+      <c r="F212" s="298"/>
+      <c r="G212" s="298"/>
+      <c r="H212" s="298"/>
+      <c r="I212" s="298"/>
       <c r="J212" s="61"/>
       <c r="K212" s="142"/>
       <c r="L212" s="61"/>
       <c r="M212" s="59"/>
       <c r="N212" s="59"/>
-      <c r="O212" s="302" t="s">
+      <c r="O212" s="286" t="s">
         <v>27</v>
       </c>
-      <c r="P212" s="302"/>
-      <c r="Q212" s="302"/>
+      <c r="P212" s="286"/>
+      <c r="Q212" s="286"/>
       <c r="R212" s="59"/>
       <c r="S212" s="59"/>
       <c r="T212" s="59"/>
@@ -17912,15 +17915,15 @@
   </sheetData>
   <autoFilter ref="A14:N206"/>
   <mergeCells count="34">
-    <mergeCell ref="O211:Q211"/>
-    <mergeCell ref="O212:Q212"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="A212:D212"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="E212:I212"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I4"/>
     <mergeCell ref="A211:D211"/>
@@ -17937,15 +17940,15 @@
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A212:D212"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="E212:I212"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="O211:Q211"/>
+    <mergeCell ref="O212:Q212"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R11:R13"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="F35 S53">
@@ -18076,17 +18079,17 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A5" s="299" t="s">
+      <c r="A5" s="300" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="299"/>
-      <c r="C5" s="299"/>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
-      <c r="G5" s="299"/>
-      <c r="H5" s="299"/>
-      <c r="I5" s="299"/>
+      <c r="B5" s="300"/>
+      <c r="C5" s="300"/>
+      <c r="D5" s="300"/>
+      <c r="E5" s="300"/>
+      <c r="F5" s="300"/>
+      <c r="G5" s="300"/>
+      <c r="H5" s="300"/>
+      <c r="I5" s="300"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="Q5" s="1"/>
@@ -18094,17 +18097,17 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="286" t="s">
+      <c r="A6" s="298" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="286"/>
-      <c r="C6" s="286"/>
-      <c r="D6" s="286"/>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
-      <c r="G6" s="286"/>
-      <c r="H6" s="286"/>
-      <c r="I6" s="286"/>
+      <c r="B6" s="298"/>
+      <c r="C6" s="298"/>
+      <c r="D6" s="298"/>
+      <c r="E6" s="298"/>
+      <c r="F6" s="298"/>
+      <c r="G6" s="298"/>
+      <c r="H6" s="298"/>
+      <c r="I6" s="298"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="Q6" s="1"/>
@@ -18112,17 +18115,17 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="300" t="s">
+      <c r="A7" s="301" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="286"/>
-      <c r="C7" s="286"/>
-      <c r="D7" s="286"/>
-      <c r="E7" s="286"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="286"/>
-      <c r="H7" s="286"/>
-      <c r="I7" s="286"/>
+      <c r="B7" s="298"/>
+      <c r="C7" s="298"/>
+      <c r="D7" s="298"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="298"/>
+      <c r="H7" s="298"/>
+      <c r="I7" s="298"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="Q7" s="1"/>
@@ -18130,19 +18133,19 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="286" t="s">
+      <c r="A8" s="298" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="286" t="s">
+      <c r="B8" s="298" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="286"/>
-      <c r="D8" s="286"/>
-      <c r="E8" s="286"/>
-      <c r="F8" s="286"/>
-      <c r="G8" s="286"/>
-      <c r="H8" s="286"/>
-      <c r="I8" s="286"/>
+      <c r="C8" s="298"/>
+      <c r="D8" s="298"/>
+      <c r="E8" s="298"/>
+      <c r="F8" s="298"/>
+      <c r="G8" s="298"/>
+      <c r="H8" s="298"/>
+      <c r="I8" s="298"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="Q8" s="1"/>
@@ -18150,17 +18153,17 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="286" t="s">
+      <c r="A9" s="298" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="300"/>
-      <c r="C9" s="300"/>
-      <c r="D9" s="300"/>
-      <c r="E9" s="300"/>
-      <c r="F9" s="300"/>
-      <c r="G9" s="300"/>
-      <c r="H9" s="300"/>
-      <c r="I9" s="300"/>
+      <c r="B9" s="301"/>
+      <c r="C9" s="301"/>
+      <c r="D9" s="301"/>
+      <c r="E9" s="301"/>
+      <c r="F9" s="301"/>
+      <c r="G9" s="301"/>
+      <c r="H9" s="301"/>
+      <c r="I9" s="301"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="Q9" s="1"/>
@@ -18184,95 +18187,95 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A11" s="287" t="s">
+      <c r="A11" s="295" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="288" t="s">
+      <c r="B11" s="287" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="289"/>
-      <c r="D11" s="287" t="s">
+      <c r="C11" s="288"/>
+      <c r="D11" s="295" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="287" t="s">
+      <c r="E11" s="295" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="288" t="s">
+      <c r="F11" s="287" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="289"/>
-      <c r="H11" s="288" t="s">
+      <c r="G11" s="288"/>
+      <c r="H11" s="287" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="298"/>
-      <c r="N11" s="288" t="s">
+      <c r="I11" s="299"/>
+      <c r="N11" s="287" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="289"/>
-      <c r="P11" s="287" t="s">
+      <c r="O11" s="288"/>
+      <c r="P11" s="295" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="287" t="s">
+      <c r="Q11" s="295" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="288" t="s">
+      <c r="R11" s="287" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="289"/>
+      <c r="S11" s="288"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A12" s="287"/>
-      <c r="B12" s="292" t="s">
+      <c r="A12" s="295"/>
+      <c r="B12" s="291" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="292" t="s">
+      <c r="C12" s="291" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="287"/>
-      <c r="E12" s="287"/>
-      <c r="F12" s="292" t="s">
+      <c r="D12" s="295"/>
+      <c r="E12" s="295"/>
+      <c r="F12" s="291" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="294" t="s">
+      <c r="G12" s="293" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="292" t="s">
+      <c r="H12" s="291" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="292" t="s">
+      <c r="I12" s="291" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="292" t="s">
+      <c r="N12" s="291" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="292" t="s">
+      <c r="O12" s="291" t="s">
         <v>13</v>
       </c>
-      <c r="P12" s="287"/>
-      <c r="Q12" s="287"/>
-      <c r="R12" s="292" t="s">
+      <c r="P12" s="295"/>
+      <c r="Q12" s="295"/>
+      <c r="R12" s="291" t="s">
         <v>14</v>
       </c>
-      <c r="S12" s="294" t="s">
+      <c r="S12" s="293" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A13" s="287"/>
-      <c r="B13" s="293"/>
-      <c r="C13" s="293"/>
-      <c r="D13" s="287"/>
-      <c r="E13" s="287"/>
-      <c r="F13" s="293"/>
-      <c r="G13" s="295"/>
-      <c r="H13" s="293"/>
-      <c r="I13" s="293"/>
-      <c r="N13" s="293"/>
-      <c r="O13" s="293"/>
-      <c r="P13" s="287"/>
-      <c r="Q13" s="287"/>
-      <c r="R13" s="293"/>
-      <c r="S13" s="295"/>
+      <c r="A13" s="295"/>
+      <c r="B13" s="292"/>
+      <c r="C13" s="292"/>
+      <c r="D13" s="295"/>
+      <c r="E13" s="295"/>
+      <c r="F13" s="292"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="292"/>
+      <c r="I13" s="292"/>
+      <c r="N13" s="292"/>
+      <c r="O13" s="292"/>
+      <c r="P13" s="295"/>
+      <c r="Q13" s="295"/>
+      <c r="R13" s="292"/>
+      <c r="S13" s="294"/>
     </row>
     <row r="14" spans="1:20" s="2" customFormat="1" ht="9.75" customHeight="1">
       <c r="A14" s="30" t="s">
@@ -23804,13 +23807,13 @@
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
       <c r="D145" s="29"/>
-      <c r="E145" s="286" t="s">
+      <c r="E145" s="298" t="s">
         <v>167</v>
       </c>
-      <c r="F145" s="286"/>
-      <c r="G145" s="286"/>
-      <c r="H145" s="286"/>
-      <c r="I145" s="286"/>
+      <c r="F145" s="298"/>
+      <c r="G145" s="298"/>
+      <c r="H145" s="298"/>
+      <c r="I145" s="298"/>
       <c r="J145" s="51"/>
       <c r="L145" s="59"/>
       <c r="M145" s="59"/>
@@ -23822,19 +23825,19 @@
       <c r="S145" s="59"/>
     </row>
     <row r="146" spans="1:19">
-      <c r="A146" s="286" t="s">
+      <c r="A146" s="298" t="s">
         <v>25</v>
       </c>
-      <c r="B146" s="286"/>
-      <c r="C146" s="286"/>
-      <c r="D146" s="286"/>
-      <c r="E146" s="286" t="s">
+      <c r="B146" s="298"/>
+      <c r="C146" s="298"/>
+      <c r="D146" s="298"/>
+      <c r="E146" s="298" t="s">
         <v>26</v>
       </c>
-      <c r="F146" s="286"/>
-      <c r="G146" s="286"/>
-      <c r="H146" s="286"/>
-      <c r="I146" s="286"/>
+      <c r="F146" s="298"/>
+      <c r="G146" s="298"/>
+      <c r="H146" s="298"/>
+      <c r="I146" s="298"/>
       <c r="J146" s="51"/>
       <c r="L146" s="59"/>
       <c r="M146" s="59"/>
@@ -23846,19 +23849,19 @@
       <c r="S146" s="59"/>
     </row>
     <row r="147" spans="1:19">
-      <c r="A147" s="286" t="s">
+      <c r="A147" s="298" t="s">
         <v>27</v>
       </c>
-      <c r="B147" s="286"/>
-      <c r="C147" s="286"/>
-      <c r="D147" s="286"/>
-      <c r="E147" s="286" t="s">
+      <c r="B147" s="298"/>
+      <c r="C147" s="298"/>
+      <c r="D147" s="298"/>
+      <c r="E147" s="298" t="s">
         <v>27</v>
       </c>
-      <c r="F147" s="286"/>
-      <c r="G147" s="286"/>
-      <c r="H147" s="286"/>
-      <c r="I147" s="286"/>
+      <c r="F147" s="298"/>
+      <c r="G147" s="298"/>
+      <c r="H147" s="298"/>
+      <c r="I147" s="298"/>
       <c r="J147" s="61"/>
       <c r="K147" s="209"/>
       <c r="L147" s="61"/>
@@ -24008,6 +24011,23 @@
   </sheetData>
   <autoFilter ref="A14:Q138"/>
   <mergeCells count="33">
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="E147:I147"/>
+    <mergeCell ref="E145:I145"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="E146:I146"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I4"/>
     <mergeCell ref="N11:O11"/>
@@ -24024,23 +24044,6 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="A11:A13"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="E147:I147"/>
-    <mergeCell ref="E145:I145"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="E146:I146"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.13" top="0.16" bottom="0.39" header="0.16" footer="0.15"/>
@@ -24110,11 +24113,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1">
-      <c r="A4" s="286" t="str">
+      <c r="A4" s="298" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong02),"","Ngày  "&amp;DAY(OFFSET('141-BH'!O$1,SMALL(Dong02,ROWS($1:1)),))&amp;"  tháng  "&amp;MONTH(OFFSET('141-BH'!O$1,SMALL(Dong02,ROWS($1:1)),))&amp;"   năm   "&amp;YEAR(OFFSET('141-BH'!O$1,SMALL(Dong02,ROWS($1:1)),)))</f>
         <v>Ngày  30  tháng  6   năm   2015</v>
       </c>
-      <c r="B4" s="286"/>
+      <c r="B4" s="298"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
     </row>
@@ -24935,11 +24938,11 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A4" s="286" t="str">
+      <c r="A4" s="298" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong04),"","Ngày  "&amp;DAY(OFFSET('141-TT'!O$1,SMALL(Dong04,ROWS($1:1)),))&amp;"  tháng  "&amp;MONTH(OFFSET('141-TT'!O$1,SMALL(Dong04,ROWS($1:1)),))&amp;"   năm   "&amp;YEAR(OFFSET('141-TT'!O$1,SMALL(Dong04,ROWS($1:1)),)))</f>
         <v>Ngày  30  tháng  6   năm   2015</v>
       </c>
-      <c r="B4" s="286"/>
+      <c r="B4" s="298"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
     </row>

--- a/SO SACH - LA/SO SACH/2015/141 - 341 - 15.xlsx
+++ b/SO SACH - LA/SO SACH/2015/141 - 341 - 15.xlsx
@@ -37,6 +37,8 @@
     <definedName name="Dong1">IF(Loai1='141-TT-TT'!$D$3,ROW(Loai1)-1,"")</definedName>
     <definedName name="Dong4">IF(Loai4='CT-341'!$H$9,ROW(Loai4)-1,"")</definedName>
     <definedName name="DSKU">'341'!$B$5:$B$49</definedName>
+    <definedName name="fghdfg">IF(Loai01="x",ROW(Loai01)-1,"")</definedName>
+    <definedName name="ghf">IF(Loai01="x",ROW(Loai01)-1,"")</definedName>
     <definedName name="kbjgj">IF(Loai01="x",ROW(Loai01)-1,"")</definedName>
     <definedName name="KUTH">'TH-341'!$E$5:$E$100</definedName>
     <definedName name="Loai">OFFSET('141-BH'!$J$15,,,COUNTA('141-BH'!$J$15:$J$40058))</definedName>
@@ -44,6 +46,7 @@
     <definedName name="Loai02">OFFSET('141-TT'!$Q$16,,,COUNTA('141-TT'!$Q$16:$R$40061))</definedName>
     <definedName name="Loai1">OFFSET('141-TT'!$J$15,,,COUNTA('141-TT'!$J$15:$J$40060))</definedName>
     <definedName name="Loai4">OFFSET('TH-341'!$E$5,,,COUNTA('TH-341'!$E$5:$E$40086))</definedName>
+    <definedName name="nbvnvb">IF(Loai01="x",ROW(Loai01)-1,"")</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'341'!$A$1:$O$12</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -51,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="349">
   <si>
     <t>Đơn vị: CÔNG TY TNHH HẢI SẢN AN LẠC</t>
   </si>
@@ -1077,6 +1080,30 @@
   </si>
   <si>
     <t>N02 &amp; N06 &amp; N19</t>
+  </si>
+  <si>
+    <t>Q11 - Tất toán KU 1015LDS201501179</t>
+  </si>
+  <si>
+    <t>N11 &amp; N21</t>
+  </si>
+  <si>
+    <t>N12 &amp; N23</t>
+  </si>
+  <si>
+    <t>N01 &amp; N13 &amp; N14 &amp; N20 &amp; N24</t>
+  </si>
+  <si>
+    <t>N02 &amp; N08 &amp; N15 &amp; N25</t>
+  </si>
+  <si>
+    <t>N03 &amp; N09 &amp; N16</t>
+  </si>
+  <si>
+    <t>N05 &amp; N17</t>
+  </si>
+  <si>
+    <t>N07 &amp; N19</t>
   </si>
 </sst>
 </file>
@@ -2050,7 +2077,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="308">
+  <cellXfs count="310">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
@@ -2780,6 +2807,18 @@
     <xf numFmtId="0" fontId="57" fillId="25" borderId="16" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="59" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="59" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="59" fillId="0" borderId="16" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="16" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="29" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2930,14 +2969,8 @@
     <xf numFmtId="0" fontId="44" fillId="25" borderId="0" xfId="58" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="59" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="59" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="59" fillId="0" borderId="16" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="79">
@@ -3079,9 +3112,9 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="15">
-          <cell r="E15">
-            <v>37807836437</v>
+        <row r="21">
+          <cell r="E21">
+            <v>25854855000</v>
           </cell>
         </row>
         <row r="54">
@@ -3089,31 +3122,31 @@
             <v>23117050188</v>
           </cell>
           <cell r="E54">
-            <v>30212070600</v>
+            <v>33761738100</v>
           </cell>
           <cell r="F54">
-            <v>28013655400</v>
+            <v>32589511291</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3407,11 +3440,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P4" sqref="P4:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.5"/>
@@ -3431,36 +3464,38 @@
     <col min="13" max="13" width="10.85546875" style="153" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" style="153" customWidth="1"/>
     <col min="15" max="15" width="13" style="173" customWidth="1"/>
-    <col min="16" max="16384" width="8" style="153"/>
+    <col min="16" max="16" width="8" style="153"/>
+    <col min="17" max="18" width="12.85546875" style="153" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8" style="153"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21.75" customHeight="1">
-      <c r="A1" s="255" t="s">
+    <row r="1" spans="1:18" ht="21.75" customHeight="1">
+      <c r="A1" s="259" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="255"/>
-      <c r="C1" s="255"/>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="255"/>
-      <c r="L1" s="255"/>
-      <c r="M1" s="255"/>
-      <c r="N1" s="255"/>
-      <c r="O1" s="255"/>
-    </row>
-    <row r="2" spans="1:15" s="156" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A2" s="258" t="s">
+      <c r="B1" s="259"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
+      <c r="J1" s="259"/>
+      <c r="K1" s="259"/>
+      <c r="L1" s="259"/>
+      <c r="M1" s="259"/>
+      <c r="N1" s="259"/>
+      <c r="O1" s="259"/>
+    </row>
+    <row r="2" spans="1:18" s="156" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A2" s="262" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="261" t="s">
+      <c r="B2" s="265" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="261" t="s">
+      <c r="C2" s="265" t="s">
         <v>233</v>
       </c>
       <c r="D2" s="154" t="s">
@@ -3482,39 +3517,39 @@
       <c r="N2" s="154"/>
       <c r="O2" s="155"/>
     </row>
-    <row r="3" spans="1:15" s="156" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A3" s="259"/>
-      <c r="B3" s="262"/>
-      <c r="C3" s="262"/>
-      <c r="D3" s="256" t="s">
+    <row r="3" spans="1:18" s="156" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A3" s="263"/>
+      <c r="B3" s="266"/>
+      <c r="C3" s="266"/>
+      <c r="D3" s="260" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="256" t="s">
+      <c r="E3" s="261"/>
+      <c r="F3" s="260" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="257"/>
-      <c r="H3" s="256" t="s">
+      <c r="G3" s="261"/>
+      <c r="H3" s="260" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="257"/>
-      <c r="J3" s="256" t="s">
+      <c r="I3" s="261"/>
+      <c r="J3" s="260" t="s">
         <v>114</v>
       </c>
-      <c r="K3" s="257"/>
-      <c r="L3" s="256" t="s">
+      <c r="K3" s="261"/>
+      <c r="L3" s="260" t="s">
         <v>113</v>
       </c>
-      <c r="M3" s="257"/>
-      <c r="N3" s="256" t="s">
+      <c r="M3" s="261"/>
+      <c r="N3" s="260" t="s">
         <v>114</v>
       </c>
-      <c r="O3" s="257"/>
-    </row>
-    <row r="4" spans="1:15" s="156" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="260"/>
-      <c r="B4" s="263"/>
-      <c r="C4" s="263"/>
+      <c r="O3" s="261"/>
+    </row>
+    <row r="4" spans="1:18" s="156" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="264"/>
+      <c r="B4" s="267"/>
+      <c r="C4" s="267"/>
       <c r="D4" s="157" t="s">
         <v>115</v>
       </c>
@@ -3552,7 +3587,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="156" customFormat="1" ht="18" customHeight="1">
+    <row r="5" spans="1:18" s="156" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="159">
         <v>1</v>
       </c>
@@ -3588,7 +3623,7 @@
       </c>
       <c r="K5" s="162">
         <f t="shared" ref="K5:K43" ca="1" si="3">SUMIF(KUTH,$B5,_TH4)</f>
-        <v>0</v>
+        <v>225979261</v>
       </c>
       <c r="L5" s="163">
         <f t="shared" ref="L5:L36" ca="1" si="4">ROUND(MAX(D5+H5-F5-J5,0),2)</f>
@@ -3604,10 +3639,12 @@
       </c>
       <c r="O5" s="164">
         <f t="shared" ref="O5:O36" ca="1" si="7">ROUND(MAX(G5+K5-E5-I5,0),2)</f>
-        <v>86899514</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="156" customFormat="1" ht="18" customHeight="1">
+        <v>312878775</v>
+      </c>
+      <c r="Q5" s="309"/>
+      <c r="R5" s="309"/>
+    </row>
+    <row r="6" spans="1:18" s="156" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="159">
         <v>2</v>
       </c>
@@ -3643,7 +3680,7 @@
       </c>
       <c r="K6" s="162">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>119788642</v>
       </c>
       <c r="L6" s="163">
         <f t="shared" ca="1" si="4"/>
@@ -3659,10 +3696,12 @@
       </c>
       <c r="O6" s="164">
         <f t="shared" ca="1" si="7"/>
-        <v>629397842</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="156" customFormat="1" ht="18" customHeight="1">
+        <v>749186484</v>
+      </c>
+      <c r="Q6" s="309"/>
+      <c r="R6" s="309"/>
+    </row>
+    <row r="7" spans="1:18" s="156" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="159">
         <v>3</v>
       </c>
@@ -3698,7 +3737,7 @@
       </c>
       <c r="K7" s="162">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>75123567</v>
       </c>
       <c r="L7" s="163">
         <f t="shared" ca="1" si="4"/>
@@ -3714,10 +3753,12 @@
       </c>
       <c r="O7" s="164">
         <f t="shared" ca="1" si="7"/>
-        <v>386177794</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="156" customFormat="1" ht="18" customHeight="1">
+        <v>461301361</v>
+      </c>
+      <c r="Q7" s="309"/>
+      <c r="R7" s="309"/>
+    </row>
+    <row r="8" spans="1:18" s="156" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="159">
         <v>4</v>
       </c>
@@ -3753,7 +3794,7 @@
       </c>
       <c r="K8" s="162">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>105655421</v>
       </c>
       <c r="L8" s="163">
         <f t="shared" ca="1" si="4"/>
@@ -3769,10 +3810,12 @@
       </c>
       <c r="O8" s="164">
         <f t="shared" ca="1" si="7"/>
-        <v>540099838</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="156" customFormat="1" ht="18" customHeight="1">
+        <v>645755259</v>
+      </c>
+      <c r="Q8" s="309"/>
+      <c r="R8" s="309"/>
+    </row>
+    <row r="9" spans="1:18" s="156" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="159">
         <v>5</v>
       </c>
@@ -3827,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="156" customFormat="1" ht="18" customHeight="1">
+    <row r="10" spans="1:18" s="156" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="159">
         <v>6</v>
       </c>
@@ -3882,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="156" customFormat="1" ht="18" customHeight="1">
+    <row r="11" spans="1:18" s="156" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="159">
         <v>7</v>
       </c>
@@ -3937,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="156" customFormat="1" ht="18" customHeight="1">
+    <row r="12" spans="1:18" s="156" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="159">
         <v>8</v>
       </c>
@@ -3992,7 +4035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="156" customFormat="1" ht="18" customHeight="1">
+    <row r="13" spans="1:18" s="156" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="159">
         <v>9</v>
       </c>
@@ -4047,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="156" customFormat="1" ht="18" customHeight="1">
+    <row r="14" spans="1:18" s="156" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="159">
         <v>10</v>
       </c>
@@ -4102,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="156" customFormat="1" ht="18" customHeight="1">
+    <row r="15" spans="1:18" s="156" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="159">
         <v>11</v>
       </c>
@@ -4157,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="156" customFormat="1" ht="18" customHeight="1">
+    <row r="16" spans="1:18" s="156" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="159">
         <v>12</v>
       </c>
@@ -5006,11 +5049,11 @@
       </c>
       <c r="H31" s="161">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>61500</v>
       </c>
       <c r="I31" s="162">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1380060000</v>
       </c>
       <c r="J31" s="161">
         <f t="shared" ca="1" si="2"/>
@@ -5018,7 +5061,7 @@
       </c>
       <c r="K31" s="162">
         <f t="shared" ca="1" si="3"/>
-        <v>1343160000</v>
+        <v>1380060000</v>
       </c>
       <c r="L31" s="163">
         <f t="shared" ca="1" si="4"/>
@@ -5030,11 +5073,11 @@
       </c>
       <c r="N31" s="163">
         <f t="shared" ca="1" si="6"/>
-        <v>61500</v>
+        <v>0</v>
       </c>
       <c r="O31" s="164">
         <f t="shared" ca="1" si="7"/>
-        <v>1343160000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="156" customFormat="1" ht="18" customHeight="1">
@@ -5783,11 +5826,11 @@
       </c>
       <c r="H50" s="170">
         <f t="shared" ca="1" si="36"/>
-        <v>1481970</v>
+        <v>1543470</v>
       </c>
       <c r="I50" s="171">
         <f t="shared" ca="1" si="36"/>
-        <v>32381678100</v>
+        <v>33761738100</v>
       </c>
       <c r="J50" s="170">
         <f t="shared" ca="1" si="36"/>
@@ -5795,7 +5838,7 @@
       </c>
       <c r="K50" s="171">
         <f t="shared" ca="1" si="36"/>
-        <v>32026064400</v>
+        <v>32589511291</v>
       </c>
       <c r="L50" s="170">
         <f t="shared" ca="1" si="36"/>
@@ -5807,11 +5850,11 @@
       </c>
       <c r="N50" s="170">
         <f t="shared" ca="1" si="36"/>
-        <v>1053169.73</v>
+        <v>991669.73</v>
       </c>
       <c r="O50" s="171">
         <f t="shared" ca="1" si="36"/>
-        <v>22761436488</v>
+        <v>21944823379</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -5821,11 +5864,11 @@
       </c>
       <c r="I52" s="173">
         <f>[1]CDPS!$E$54</f>
-        <v>30212070600</v>
+        <v>33761738100</v>
       </c>
       <c r="K52" s="173">
         <f>[1]CDPS!$F$54</f>
-        <v>28013655400</v>
+        <v>32589511291</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -5836,12 +5879,12 @@
       <c r="H54" s="250"/>
       <c r="I54" s="250">
         <f t="shared" ref="I54:K54" ca="1" si="37">I50-I52</f>
-        <v>2169607500</v>
+        <v>0</v>
       </c>
       <c r="J54" s="250"/>
       <c r="K54" s="250">
         <f t="shared" ca="1" si="37"/>
-        <v>4012409000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5877,8 +5920,8 @@
   <dimension ref="A1:K90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
+      <pane ySplit="4" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K76" sqref="K76:K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5897,61 +5940,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="180" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="264" t="s">
+      <c r="A1" s="268" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="267" t="s">
+      <c r="B1" s="271" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="268"/>
-      <c r="D1" s="264" t="s">
+      <c r="C1" s="272"/>
+      <c r="D1" s="268" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="264" t="s">
+      <c r="E1" s="268" t="s">
         <v>239</v>
       </c>
-      <c r="F1" s="264" t="s">
+      <c r="F1" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="264" t="s">
+      <c r="G1" s="268" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="267" t="s">
+      <c r="H1" s="271" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="269"/>
-      <c r="J1" s="269"/>
-      <c r="K1" s="268"/>
+      <c r="I1" s="273"/>
+      <c r="J1" s="273"/>
+      <c r="K1" s="272"/>
     </row>
     <row r="2" spans="1:11" s="180" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="265"/>
-      <c r="B2" s="270" t="s">
+      <c r="A2" s="269"/>
+      <c r="B2" s="274" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="270" t="s">
+      <c r="C2" s="274" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="265"/>
-      <c r="E2" s="265"/>
-      <c r="F2" s="265"/>
-      <c r="G2" s="265"/>
-      <c r="H2" s="272" t="s">
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="276" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="273"/>
-      <c r="J2" s="272" t="s">
+      <c r="I2" s="277"/>
+      <c r="J2" s="276" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="273"/>
+      <c r="K2" s="277"/>
     </row>
     <row r="3" spans="1:11" s="180" customFormat="1" ht="27" customHeight="1">
-      <c r="A3" s="266"/>
-      <c r="B3" s="271"/>
-      <c r="C3" s="271"/>
-      <c r="D3" s="266"/>
-      <c r="E3" s="266"/>
-      <c r="F3" s="266"/>
-      <c r="G3" s="266"/>
+      <c r="A3" s="270"/>
+      <c r="B3" s="275"/>
+      <c r="C3" s="275"/>
+      <c r="D3" s="270"/>
+      <c r="E3" s="270"/>
+      <c r="F3" s="270"/>
+      <c r="G3" s="270"/>
       <c r="H3" s="181" t="s">
         <v>115</v>
       </c>
@@ -8413,20 +8456,34 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A75" s="242" t="str">
+      <c r="A75" s="242">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="B75" s="189"/>
-      <c r="C75" s="189"/>
-      <c r="D75" s="231"/>
-      <c r="E75" s="232"/>
-      <c r="F75" s="190"/>
-      <c r="G75" s="191"/>
-      <c r="H75" s="174"/>
+        <v>11</v>
+      </c>
+      <c r="B75" s="189" t="s">
+        <v>145</v>
+      </c>
+      <c r="C75" s="189">
+        <v>42328</v>
+      </c>
+      <c r="D75" s="258" t="s">
+        <v>341</v>
+      </c>
+      <c r="E75" s="160" t="s">
+        <v>247</v>
+      </c>
+      <c r="F75" s="190" t="s">
+        <v>147</v>
+      </c>
+      <c r="G75" s="191">
+        <v>22440</v>
+      </c>
+      <c r="H75" s="174">
+        <v>61500</v>
+      </c>
       <c r="I75" s="162">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1380060000</v>
       </c>
       <c r="J75" s="174"/>
       <c r="K75" s="162">
@@ -8435,15 +8492,25 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A76" s="242" t="str">
+      <c r="A76" s="242">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="B76" s="189"/>
-      <c r="C76" s="189"/>
-      <c r="D76" s="231"/>
-      <c r="E76" s="232"/>
-      <c r="F76" s="190"/>
+        <v>10</v>
+      </c>
+      <c r="B76" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="C76" s="189">
+        <v>42279</v>
+      </c>
+      <c r="D76" s="245" t="s">
+        <v>149</v>
+      </c>
+      <c r="E76" s="160" t="s">
+        <v>117</v>
+      </c>
+      <c r="F76" s="190" t="s">
+        <v>150</v>
+      </c>
       <c r="G76" s="191"/>
       <c r="H76" s="174"/>
       <c r="I76" s="162">
@@ -8452,20 +8519,29 @@
       </c>
       <c r="J76" s="174"/>
       <c r="K76" s="162">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>225979261</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A77" s="242" t="str">
+      <c r="A77" s="242">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="B77" s="189"/>
-      <c r="C77" s="189"/>
-      <c r="D77" s="231"/>
-      <c r="E77" s="232"/>
-      <c r="F77" s="190"/>
+        <v>10</v>
+      </c>
+      <c r="B77" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" s="189">
+        <v>42279</v>
+      </c>
+      <c r="D77" s="245" t="s">
+        <v>149</v>
+      </c>
+      <c r="E77" s="232" t="s">
+        <v>118</v>
+      </c>
+      <c r="F77" s="190" t="s">
+        <v>150</v>
+      </c>
       <c r="G77" s="191"/>
       <c r="H77" s="174"/>
       <c r="I77" s="162">
@@ -8474,20 +8550,29 @@
       </c>
       <c r="J77" s="174"/>
       <c r="K77" s="162">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>119788642</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A78" s="242" t="str">
+      <c r="A78" s="242">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="B78" s="189"/>
-      <c r="C78" s="189"/>
-      <c r="D78" s="231"/>
-      <c r="E78" s="232"/>
-      <c r="F78" s="190"/>
+        <v>10</v>
+      </c>
+      <c r="B78" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" s="189">
+        <v>42279</v>
+      </c>
+      <c r="D78" s="245" t="s">
+        <v>149</v>
+      </c>
+      <c r="E78" s="232" t="s">
+        <v>119</v>
+      </c>
+      <c r="F78" s="190" t="s">
+        <v>150</v>
+      </c>
       <c r="G78" s="191"/>
       <c r="H78" s="174"/>
       <c r="I78" s="162">
@@ -8496,20 +8581,29 @@
       </c>
       <c r="J78" s="174"/>
       <c r="K78" s="162">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>75123567</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A79" s="242" t="str">
+      <c r="A79" s="242">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="B79" s="189"/>
-      <c r="C79" s="189"/>
-      <c r="D79" s="231"/>
-      <c r="E79" s="232"/>
-      <c r="F79" s="190"/>
+        <v>10</v>
+      </c>
+      <c r="B79" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="C79" s="189">
+        <v>42279</v>
+      </c>
+      <c r="D79" s="245" t="s">
+        <v>149</v>
+      </c>
+      <c r="E79" s="232" t="s">
+        <v>120</v>
+      </c>
+      <c r="F79" s="190" t="s">
+        <v>150</v>
+      </c>
       <c r="G79" s="191"/>
       <c r="H79" s="174"/>
       <c r="I79" s="162">
@@ -8518,20 +8612,29 @@
       </c>
       <c r="J79" s="174"/>
       <c r="K79" s="162">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>105655421</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A80" s="242" t="str">
+      <c r="A80" s="242">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="B80" s="189"/>
-      <c r="C80" s="189"/>
-      <c r="D80" s="231"/>
-      <c r="E80" s="232"/>
-      <c r="F80" s="190"/>
+        <v>11</v>
+      </c>
+      <c r="B80" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="C80" s="189">
+        <v>42328</v>
+      </c>
+      <c r="D80" s="245" t="s">
+        <v>149</v>
+      </c>
+      <c r="E80" s="160" t="s">
+        <v>247</v>
+      </c>
+      <c r="F80" s="190" t="s">
+        <v>150</v>
+      </c>
       <c r="G80" s="191"/>
       <c r="H80" s="174"/>
       <c r="I80" s="162">
@@ -8540,8 +8643,7 @@
       </c>
       <c r="J80" s="174"/>
       <c r="K80" s="162">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>36900000</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="21.75" customHeight="1">
@@ -8783,7 +8885,7 @@
     <mergeCell ref="F1:F3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E42:E47 E5:E40 E52:E61 E63:E64 E66:E73 E75:E90">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E42:E47 E5:E40 E52:E61 E63:E64 E66:E73 E75 E77:E90">
       <formula1>DSKU</formula1>
     </dataValidation>
   </dataValidations>
@@ -8800,7 +8902,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:I9"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8830,13 +8932,13 @@
       <c r="C1" s="177"/>
       <c r="H1" s="177"/>
       <c r="I1" s="177"/>
-      <c r="J1" s="275" t="s">
+      <c r="J1" s="279" t="s">
         <v>241</v>
       </c>
-      <c r="K1" s="275"/>
-      <c r="L1" s="275"/>
-      <c r="M1" s="275"/>
-      <c r="N1" s="275"/>
+      <c r="K1" s="279"/>
+      <c r="L1" s="279"/>
+      <c r="M1" s="279"/>
+      <c r="N1" s="279"/>
     </row>
     <row r="2" spans="1:14" s="178" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="176" t="s">
@@ -8846,13 +8948,13 @@
       <c r="C2" s="219"/>
       <c r="H2" s="179"/>
       <c r="I2" s="179"/>
-      <c r="J2" s="276" t="s">
+      <c r="J2" s="280" t="s">
         <v>242</v>
       </c>
-      <c r="K2" s="276"/>
-      <c r="L2" s="276"/>
-      <c r="M2" s="276"/>
-      <c r="N2" s="276"/>
+      <c r="K2" s="280"/>
+      <c r="L2" s="280"/>
+      <c r="M2" s="280"/>
+      <c r="N2" s="280"/>
     </row>
     <row r="3" spans="1:14" s="178" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="219"/>
@@ -8860,11 +8962,11 @@
       <c r="C3" s="219"/>
       <c r="H3" s="179"/>
       <c r="I3" s="179"/>
-      <c r="J3" s="276"/>
-      <c r="K3" s="276"/>
-      <c r="L3" s="276"/>
-      <c r="M3" s="276"/>
-      <c r="N3" s="276"/>
+      <c r="J3" s="280"/>
+      <c r="K3" s="280"/>
+      <c r="L3" s="280"/>
+      <c r="M3" s="280"/>
+      <c r="N3" s="280"/>
     </row>
     <row r="4" spans="1:14" s="178" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="219"/>
@@ -8879,77 +8981,77 @@
       <c r="N4" s="220"/>
     </row>
     <row r="5" spans="1:14" s="180" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="277" t="s">
+      <c r="A5" s="281" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="278"/>
-      <c r="C5" s="278"/>
-      <c r="D5" s="278"/>
-      <c r="E5" s="278"/>
-      <c r="F5" s="278"/>
-      <c r="G5" s="278"/>
-      <c r="H5" s="278"/>
-      <c r="I5" s="278"/>
-      <c r="J5" s="278"/>
-      <c r="K5" s="278"/>
-      <c r="L5" s="278"/>
-      <c r="M5" s="278"/>
-      <c r="N5" s="278"/>
+      <c r="B5" s="282"/>
+      <c r="C5" s="282"/>
+      <c r="D5" s="282"/>
+      <c r="E5" s="282"/>
+      <c r="F5" s="282"/>
+      <c r="G5" s="282"/>
+      <c r="H5" s="282"/>
+      <c r="I5" s="282"/>
+      <c r="J5" s="282"/>
+      <c r="K5" s="282"/>
+      <c r="L5" s="282"/>
+      <c r="M5" s="282"/>
+      <c r="N5" s="282"/>
     </row>
     <row r="6" spans="1:14" s="180" customFormat="1">
-      <c r="A6" s="274" t="s">
+      <c r="A6" s="278" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="274"/>
-      <c r="C6" s="274"/>
-      <c r="D6" s="274"/>
-      <c r="E6" s="274"/>
-      <c r="F6" s="274"/>
-      <c r="G6" s="274"/>
-      <c r="H6" s="274"/>
-      <c r="I6" s="274"/>
-      <c r="J6" s="274"/>
-      <c r="K6" s="274"/>
-      <c r="L6" s="274"/>
-      <c r="M6" s="274"/>
-      <c r="N6" s="274"/>
+      <c r="B6" s="278"/>
+      <c r="C6" s="278"/>
+      <c r="D6" s="278"/>
+      <c r="E6" s="278"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="278"/>
+      <c r="H6" s="278"/>
+      <c r="I6" s="278"/>
+      <c r="J6" s="278"/>
+      <c r="K6" s="278"/>
+      <c r="L6" s="278"/>
+      <c r="M6" s="278"/>
+      <c r="N6" s="278"/>
     </row>
     <row r="7" spans="1:14" s="180" customFormat="1">
-      <c r="A7" s="274" t="s">
+      <c r="A7" s="278" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="274"/>
-      <c r="C7" s="274"/>
-      <c r="D7" s="274"/>
-      <c r="E7" s="274"/>
-      <c r="F7" s="274"/>
-      <c r="G7" s="274"/>
-      <c r="H7" s="274"/>
-      <c r="I7" s="274"/>
-      <c r="J7" s="274"/>
-      <c r="K7" s="274"/>
-      <c r="L7" s="274"/>
-      <c r="M7" s="274"/>
-      <c r="N7" s="274"/>
+      <c r="B7" s="278"/>
+      <c r="C7" s="278"/>
+      <c r="D7" s="278"/>
+      <c r="E7" s="278"/>
+      <c r="F7" s="278"/>
+      <c r="G7" s="278"/>
+      <c r="H7" s="278"/>
+      <c r="I7" s="278"/>
+      <c r="J7" s="278"/>
+      <c r="K7" s="278"/>
+      <c r="L7" s="278"/>
+      <c r="M7" s="278"/>
+      <c r="N7" s="278"/>
     </row>
     <row r="8" spans="1:14" s="180" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="274" t="str">
+      <c r="A8" s="278" t="str">
         <f>IF(MID($H$9,4,4)="1015","Đối tượng cho vay: NH Eximbank CN Q11","Đối tượng cho vay: NH Eximbank CN Q4")</f>
         <v>Đối tượng cho vay: NH Eximbank CN Q11</v>
       </c>
-      <c r="B8" s="274"/>
-      <c r="C8" s="274"/>
-      <c r="D8" s="274"/>
-      <c r="E8" s="274"/>
-      <c r="F8" s="274"/>
-      <c r="G8" s="274"/>
-      <c r="H8" s="274"/>
-      <c r="I8" s="274"/>
-      <c r="J8" s="274"/>
-      <c r="K8" s="274"/>
-      <c r="L8" s="274"/>
-      <c r="M8" s="274"/>
-      <c r="N8" s="274"/>
+      <c r="B8" s="278"/>
+      <c r="C8" s="278"/>
+      <c r="D8" s="278"/>
+      <c r="E8" s="278"/>
+      <c r="F8" s="278"/>
+      <c r="G8" s="278"/>
+      <c r="H8" s="278"/>
+      <c r="I8" s="278"/>
+      <c r="J8" s="278"/>
+      <c r="K8" s="278"/>
+      <c r="L8" s="278"/>
+      <c r="M8" s="278"/>
+      <c r="N8" s="278"/>
     </row>
     <row r="9" spans="1:14" s="180" customFormat="1">
       <c r="A9" s="218"/>
@@ -8961,13 +9063,13 @@
       <c r="G9" s="234" t="s">
         <v>240</v>
       </c>
-      <c r="H9" s="279" t="s">
-        <v>120</v>
-      </c>
-      <c r="I9" s="279"/>
+      <c r="H9" s="283" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" s="283"/>
       <c r="J9" s="235" t="str">
         <f>"ngày "&amp; TEXT(VLOOKUP($H$9,'341'!$B$5:$C$49,2,0),"dd/MM/yy")</f>
-        <v>ngày 25/02/12</v>
+        <v>ngày 22/01/10</v>
       </c>
       <c r="K9" s="218"/>
       <c r="L9" s="218"/>
@@ -8975,102 +9077,102 @@
       <c r="N9" s="218"/>
     </row>
     <row r="10" spans="1:14" s="180" customFormat="1">
-      <c r="A10" s="274" t="s">
+      <c r="A10" s="278" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="274"/>
-      <c r="C10" s="274"/>
-      <c r="D10" s="274"/>
-      <c r="E10" s="274"/>
-      <c r="F10" s="274"/>
-      <c r="G10" s="274"/>
-      <c r="H10" s="274"/>
-      <c r="I10" s="274"/>
-      <c r="J10" s="274"/>
-      <c r="K10" s="274"/>
-      <c r="L10" s="274"/>
-      <c r="M10" s="274"/>
-      <c r="N10" s="274"/>
+      <c r="B10" s="278"/>
+      <c r="C10" s="278"/>
+      <c r="D10" s="278"/>
+      <c r="E10" s="278"/>
+      <c r="F10" s="278"/>
+      <c r="G10" s="278"/>
+      <c r="H10" s="278"/>
+      <c r="I10" s="278"/>
+      <c r="J10" s="278"/>
+      <c r="K10" s="278"/>
+      <c r="L10" s="278"/>
+      <c r="M10" s="278"/>
+      <c r="N10" s="278"/>
     </row>
     <row r="11" spans="1:14" s="180" customFormat="1">
-      <c r="C11" s="280"/>
-      <c r="D11" s="280"/>
-      <c r="E11" s="280"/>
-      <c r="F11" s="280"/>
-      <c r="G11" s="280"/>
-      <c r="H11" s="280"/>
-      <c r="I11" s="280"/>
-      <c r="J11" s="280"/>
-      <c r="K11" s="280"/>
-      <c r="L11" s="280"/>
-      <c r="M11" s="280"/>
-      <c r="N11" s="280"/>
+      <c r="C11" s="284"/>
+      <c r="D11" s="284"/>
+      <c r="E11" s="284"/>
+      <c r="F11" s="284"/>
+      <c r="G11" s="284"/>
+      <c r="H11" s="284"/>
+      <c r="I11" s="284"/>
+      <c r="J11" s="284"/>
+      <c r="K11" s="284"/>
+      <c r="L11" s="284"/>
+      <c r="M11" s="284"/>
+      <c r="N11" s="284"/>
     </row>
     <row r="12" spans="1:14" s="180" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A12" s="264" t="s">
+      <c r="A12" s="268" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="267" t="s">
+      <c r="B12" s="271" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="268"/>
-      <c r="D12" s="264" t="s">
+      <c r="C12" s="272"/>
+      <c r="D12" s="268" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="264" t="s">
+      <c r="E12" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="264" t="s">
+      <c r="F12" s="268" t="s">
         <v>139</v>
       </c>
-      <c r="G12" s="267" t="s">
+      <c r="G12" s="271" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="283"/>
-      <c r="I12" s="283"/>
-      <c r="J12" s="284"/>
-      <c r="K12" s="267" t="s">
+      <c r="H12" s="287"/>
+      <c r="I12" s="287"/>
+      <c r="J12" s="288"/>
+      <c r="K12" s="271" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="283"/>
-      <c r="M12" s="283"/>
-      <c r="N12" s="284"/>
+      <c r="L12" s="287"/>
+      <c r="M12" s="287"/>
+      <c r="N12" s="288"/>
     </row>
     <row r="13" spans="1:14" s="180" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="265"/>
-      <c r="B13" s="270" t="s">
+      <c r="A13" s="269"/>
+      <c r="B13" s="274" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="270" t="s">
+      <c r="C13" s="274" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="265"/>
-      <c r="E13" s="265"/>
-      <c r="F13" s="281"/>
-      <c r="G13" s="272" t="s">
+      <c r="D13" s="269"/>
+      <c r="E13" s="269"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="276" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="284"/>
-      <c r="I13" s="272" t="s">
+      <c r="H13" s="288"/>
+      <c r="I13" s="276" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="284"/>
-      <c r="K13" s="272" t="s">
+      <c r="J13" s="288"/>
+      <c r="K13" s="276" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="284"/>
-      <c r="M13" s="272" t="s">
+      <c r="L13" s="288"/>
+      <c r="M13" s="276" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="284"/>
+      <c r="N13" s="288"/>
     </row>
     <row r="14" spans="1:14" s="180" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A14" s="266"/>
-      <c r="B14" s="271"/>
-      <c r="C14" s="271"/>
-      <c r="D14" s="266"/>
-      <c r="E14" s="266"/>
-      <c r="F14" s="282"/>
+      <c r="A14" s="270"/>
+      <c r="B14" s="275"/>
+      <c r="C14" s="275"/>
+      <c r="D14" s="270"/>
+      <c r="E14" s="270"/>
+      <c r="F14" s="286"/>
       <c r="G14" s="181" t="s">
         <v>115</v>
       </c>
@@ -9163,11 +9265,11 @@
       </c>
       <c r="M16" s="186">
         <f>VLOOKUP($H$9,'341'!$B$5:$G$49,5,0)</f>
-        <v>57639.38</v>
+        <v>27926</v>
       </c>
       <c r="N16" s="187">
         <f>VLOOKUP($H$9,'341'!$B$5:$G$49,6,0)</f>
-        <v>1190366038</v>
+        <v>401936849</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="180" customFormat="1" ht="19.5" customHeight="1">
@@ -9185,7 +9287,7 @@
       </c>
       <c r="D17" s="240" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong4),"",OFFSET('TH-341'!D$1,SMALL(Dong4,ROWS($1:1)),))</f>
-        <v>Trả gốc KU 1015LDS201100378</v>
+        <v>Trả gốc KU 1015LDS201000102</v>
       </c>
       <c r="E17" s="189" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong4),"",OFFSET('TH-341'!F$1,SMALL(Dong4,ROWS($1:1)),))</f>
@@ -9197,11 +9299,11 @@
       </c>
       <c r="G17" s="238">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong4),"",OFFSET('TH-341'!H$1,SMALL(Dong4,ROWS($1:1)),))</f>
-        <v>28920</v>
+        <v>14011</v>
       </c>
       <c r="H17" s="237">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong4),"",OFFSET('TH-341'!I$1,SMALL(Dong4,ROWS($1:1)),))</f>
-        <v>650266200</v>
+        <v>315037335</v>
       </c>
       <c r="I17" s="238">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong4),"",OFFSET('TH-341'!J$1,SMALL(Dong4,ROWS($1:1)),))</f>
@@ -9221,53 +9323,53 @@
       </c>
       <c r="M17" s="161">
         <f t="shared" ref="M17" ca="1" si="2">IF(C17&lt;&gt;"",ROUND(MAX(M16+I17-G17-K16,0),2),0)</f>
-        <v>28719.38</v>
+        <v>13915</v>
       </c>
       <c r="N17" s="162">
         <f t="shared" ref="N17" ca="1" si="3">IF(C17&lt;&gt;"",MAX(N16-L16+J17-H17,0),0)</f>
-        <v>540099838</v>
+        <v>86899514</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="197" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A18" s="188" t="str">
+      <c r="A18" s="188">
         <f t="shared" ref="A18:A19" ca="1" si="4">IF(D18&lt;&gt;"",C18,"")</f>
-        <v/>
+        <v>42279</v>
       </c>
       <c r="B18" s="189" t="str">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong4),"",OFFSET('TH-341'!B$1,SMALL(Dong4,ROWS($1:2)),))</f>
-        <v/>
-      </c>
-      <c r="C18" s="189" t="str">
+        <v>CTGS</v>
+      </c>
+      <c r="C18" s="189">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong4),"",OFFSET('TH-341'!C$1,SMALL(Dong4,ROWS($1:2)),))</f>
-        <v/>
+        <v>42279</v>
       </c>
       <c r="D18" s="240" t="str">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong4),"",OFFSET('TH-341'!D$1,SMALL(Dong4,ROWS($1:2)),))</f>
-        <v/>
+        <v>Chênh lệch tỷ giá vay NH</v>
       </c>
       <c r="E18" s="189" t="str">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong4),"",OFFSET('TH-341'!F$1,SMALL(Dong4,ROWS($1:2)),))</f>
-        <v/>
-      </c>
-      <c r="F18" s="237" t="str">
+        <v>635</v>
+      </c>
+      <c r="F18" s="237">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong4),"",OFFSET('TH-341'!G$1,SMALL(Dong4,ROWS($1:2)),))</f>
-        <v/>
-      </c>
-      <c r="G18" s="238" t="str">
+        <v>0</v>
+      </c>
+      <c r="G18" s="238">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong4),"",OFFSET('TH-341'!H$1,SMALL(Dong4,ROWS($1:2)),))</f>
-        <v/>
-      </c>
-      <c r="H18" s="237" t="str">
+        <v>0</v>
+      </c>
+      <c r="H18" s="237">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong4),"",OFFSET('TH-341'!I$1,SMALL(Dong4,ROWS($1:2)),))</f>
-        <v/>
-      </c>
-      <c r="I18" s="238" t="str">
+        <v>0</v>
+      </c>
+      <c r="I18" s="238">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong4),"",OFFSET('TH-341'!J$1,SMALL(Dong4,ROWS($1:2)),))</f>
-        <v/>
-      </c>
-      <c r="J18" s="237" t="str">
+        <v>0</v>
+      </c>
+      <c r="J18" s="237">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong4),"",OFFSET('TH-341'!K$1,SMALL(Dong4,ROWS($1:2)),))</f>
-        <v/>
+        <v>225979261</v>
       </c>
       <c r="K18" s="161">
         <f t="shared" ref="K18:K19" ca="1" si="5">IF(C18&lt;&gt;"",ROUND(MAX(K17+G18-I18-M17,0),2),0)</f>
@@ -9279,11 +9381,11 @@
       </c>
       <c r="M18" s="161">
         <f t="shared" ref="M18:M19" ca="1" si="7">IF(C18&lt;&gt;"",ROUND(MAX(M17+I18-G18-K17,0),2),0)</f>
-        <v>0</v>
+        <v>13915</v>
       </c>
       <c r="N18" s="162">
         <f t="shared" ref="N18:N19" ca="1" si="8">IF(C18&lt;&gt;"",MAX(N17-L17+J18-H18,0),0)</f>
-        <v>0</v>
+        <v>312878775</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="197" customFormat="1" ht="19.5" customHeight="1">
@@ -9433,11 +9535,11 @@
       </c>
       <c r="G22" s="252">
         <f t="shared" ref="G22:I22" ca="1" si="14">SUM(G17:G20)</f>
-        <v>28920</v>
+        <v>14011</v>
       </c>
       <c r="H22" s="200">
         <f t="shared" ca="1" si="14"/>
-        <v>650266200</v>
+        <v>315037335</v>
       </c>
       <c r="I22" s="252">
         <f t="shared" ca="1" si="14"/>
@@ -9445,7 +9547,7 @@
       </c>
       <c r="J22" s="200">
         <f ca="1">SUM(J17:J20)</f>
-        <v>0</v>
+        <v>225979261</v>
       </c>
       <c r="K22" s="200" t="s">
         <v>23</v>
@@ -9495,11 +9597,11 @@
       </c>
       <c r="M23" s="204">
         <f ca="1">MAX(M16+I22-K16-G22,0)</f>
-        <v>28719.379999999997</v>
+        <v>13915</v>
       </c>
       <c r="N23" s="205">
         <f ca="1">MAX(N16+J22-L16-H22,0)</f>
-        <v>540099838</v>
+        <v>312878775</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="180" customFormat="1">
@@ -9516,7 +9618,7 @@
     <row r="26" spans="1:14" s="180" customFormat="1">
       <c r="C26" s="206" t="str">
         <f>"- Ngày mở sổ: "&amp;TEXT(VLOOKUP($H$9,'341'!$B$5:$C$49,2,0),"dd/MM/yy")</f>
-        <v>- Ngày mở sổ: 25/02/12</v>
+        <v>- Ngày mở sổ: 22/01/10</v>
       </c>
       <c r="E26" s="218"/>
       <c r="F26" s="218"/>
@@ -9611,9 +9713,9 @@
   <dimension ref="A2:U293"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="90" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
-      <selection pane="bottomLeft" activeCell="F92" sqref="F92"/>
+      <selection pane="bottomLeft" activeCell="K103" sqref="K103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9646,11 +9748,11 @@
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="295" t="s">
+      <c r="G2" s="299" t="s">
         <v>165</v>
       </c>
-      <c r="H2" s="295"/>
-      <c r="I2" s="295"/>
+      <c r="H2" s="299"/>
+      <c r="I2" s="299"/>
       <c r="O2" s="15" t="s">
         <v>0</v>
       </c>
@@ -9660,11 +9762,11 @@
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="296" t="s">
+      <c r="G3" s="300" t="s">
         <v>166</v>
       </c>
-      <c r="H3" s="296"/>
-      <c r="I3" s="296"/>
+      <c r="H3" s="300"/>
+      <c r="I3" s="300"/>
       <c r="O3" s="15" t="s">
         <v>1</v>
       </c>
@@ -9672,24 +9774,24 @@
     </row>
     <row r="4" spans="1:21">
       <c r="F4" s="3"/>
-      <c r="G4" s="296"/>
-      <c r="H4" s="296"/>
-      <c r="I4" s="296"/>
+      <c r="G4" s="300"/>
+      <c r="H4" s="300"/>
+      <c r="I4" s="300"/>
       <c r="S4" s="3"/>
       <c r="T4" s="29"/>
     </row>
     <row r="5" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A5" s="298" t="s">
+      <c r="A5" s="302" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="298"/>
-      <c r="C5" s="298"/>
-      <c r="D5" s="298"/>
-      <c r="E5" s="298"/>
-      <c r="F5" s="298"/>
-      <c r="G5" s="298"/>
-      <c r="H5" s="298"/>
-      <c r="I5" s="298"/>
+      <c r="B5" s="302"/>
+      <c r="C5" s="302"/>
+      <c r="D5" s="302"/>
+      <c r="E5" s="302"/>
+      <c r="F5" s="302"/>
+      <c r="G5" s="302"/>
+      <c r="H5" s="302"/>
+      <c r="I5" s="302"/>
       <c r="O5" s="29"/>
       <c r="P5" s="29"/>
       <c r="R5" s="29"/>
@@ -9697,17 +9799,17 @@
       <c r="T5" s="29"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="285" t="s">
+      <c r="A6" s="289" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="285"/>
-      <c r="C6" s="285"/>
-      <c r="D6" s="285"/>
-      <c r="E6" s="285"/>
-      <c r="F6" s="285"/>
-      <c r="G6" s="285"/>
-      <c r="H6" s="285"/>
-      <c r="I6" s="285"/>
+      <c r="B6" s="289"/>
+      <c r="C6" s="289"/>
+      <c r="D6" s="289"/>
+      <c r="E6" s="289"/>
+      <c r="F6" s="289"/>
+      <c r="G6" s="289"/>
+      <c r="H6" s="289"/>
+      <c r="I6" s="289"/>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
       <c r="R6" s="29"/>
@@ -9715,17 +9817,17 @@
       <c r="T6" s="29"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="299" t="s">
+      <c r="A7" s="303" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="299"/>
-      <c r="C7" s="299"/>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="299"/>
+      <c r="B7" s="303"/>
+      <c r="C7" s="303"/>
+      <c r="D7" s="303"/>
+      <c r="E7" s="303"/>
+      <c r="F7" s="303"/>
+      <c r="G7" s="303"/>
+      <c r="H7" s="303"/>
+      <c r="I7" s="303"/>
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
       <c r="R7" s="29"/>
@@ -9733,17 +9835,17 @@
       <c r="T7" s="29"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="285" t="s">
+      <c r="A8" s="289" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="285"/>
-      <c r="C8" s="285"/>
-      <c r="D8" s="285"/>
-      <c r="E8" s="285"/>
-      <c r="F8" s="285"/>
-      <c r="G8" s="285"/>
-      <c r="H8" s="285"/>
-      <c r="I8" s="285"/>
+      <c r="B8" s="289"/>
+      <c r="C8" s="289"/>
+      <c r="D8" s="289"/>
+      <c r="E8" s="289"/>
+      <c r="F8" s="289"/>
+      <c r="G8" s="289"/>
+      <c r="H8" s="289"/>
+      <c r="I8" s="289"/>
       <c r="O8" s="29"/>
       <c r="P8" s="29"/>
       <c r="R8" s="29"/>
@@ -9751,17 +9853,17 @@
       <c r="T8" s="29"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="285" t="s">
+      <c r="A9" s="289" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="285"/>
-      <c r="C9" s="285"/>
-      <c r="D9" s="285"/>
-      <c r="E9" s="285"/>
-      <c r="F9" s="285"/>
-      <c r="G9" s="285"/>
-      <c r="H9" s="285"/>
-      <c r="I9" s="285"/>
+      <c r="B9" s="289"/>
+      <c r="C9" s="289"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
+      <c r="I9" s="289"/>
       <c r="O9" s="29"/>
       <c r="P9" s="29"/>
       <c r="R9" s="29"/>
@@ -9769,15 +9871,15 @@
       <c r="T9" s="29"/>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1">
-      <c r="A10" s="300"/>
-      <c r="B10" s="300"/>
-      <c r="C10" s="300"/>
-      <c r="D10" s="300"/>
-      <c r="E10" s="300"/>
-      <c r="F10" s="300"/>
-      <c r="G10" s="300"/>
-      <c r="H10" s="300"/>
-      <c r="I10" s="300"/>
+      <c r="A10" s="304"/>
+      <c r="B10" s="304"/>
+      <c r="C10" s="304"/>
+      <c r="D10" s="304"/>
+      <c r="E10" s="304"/>
+      <c r="F10" s="304"/>
+      <c r="G10" s="304"/>
+      <c r="H10" s="304"/>
+      <c r="I10" s="304"/>
       <c r="O10" s="29"/>
       <c r="P10" s="29"/>
       <c r="R10" s="29"/>
@@ -9785,95 +9887,95 @@
       <c r="T10" s="29"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A11" s="286" t="s">
+      <c r="A11" s="290" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="287" t="s">
+      <c r="B11" s="291" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="288"/>
-      <c r="D11" s="286" t="s">
+      <c r="C11" s="292"/>
+      <c r="D11" s="290" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="286" t="s">
+      <c r="E11" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="287" t="s">
+      <c r="F11" s="291" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="288"/>
-      <c r="H11" s="287" t="s">
+      <c r="G11" s="292"/>
+      <c r="H11" s="291" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="297"/>
-      <c r="O11" s="286" t="s">
+      <c r="I11" s="301"/>
+      <c r="O11" s="290" t="s">
         <v>6</v>
       </c>
       <c r="P11" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="Q11" s="286" t="s">
+      <c r="Q11" s="290" t="s">
         <v>8</v>
       </c>
-      <c r="R11" s="286" t="s">
+      <c r="R11" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="S11" s="287" t="s">
+      <c r="S11" s="291" t="s">
         <v>10</v>
       </c>
-      <c r="T11" s="288"/>
+      <c r="T11" s="292"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A12" s="286"/>
-      <c r="B12" s="289" t="s">
+      <c r="A12" s="290"/>
+      <c r="B12" s="293" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="291" t="s">
+      <c r="C12" s="295" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="286"/>
-      <c r="E12" s="286"/>
-      <c r="F12" s="291" t="s">
+      <c r="D12" s="290"/>
+      <c r="E12" s="290"/>
+      <c r="F12" s="295" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="293" t="s">
+      <c r="G12" s="297" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="291" t="s">
+      <c r="H12" s="295" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="291" t="s">
+      <c r="I12" s="295" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="286"/>
-      <c r="P12" s="289" t="s">
+      <c r="O12" s="290"/>
+      <c r="P12" s="293" t="s">
         <v>12</v>
       </c>
-      <c r="Q12" s="286"/>
-      <c r="R12" s="286"/>
-      <c r="S12" s="291" t="s">
+      <c r="Q12" s="290"/>
+      <c r="R12" s="290"/>
+      <c r="S12" s="295" t="s">
         <v>14</v>
       </c>
-      <c r="T12" s="293" t="s">
+      <c r="T12" s="297" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="18" customHeight="1">
-      <c r="A13" s="286"/>
-      <c r="B13" s="290"/>
-      <c r="C13" s="292"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="286"/>
-      <c r="F13" s="292"/>
-      <c r="G13" s="294"/>
-      <c r="H13" s="292"/>
-      <c r="I13" s="292"/>
-      <c r="O13" s="286"/>
-      <c r="P13" s="290"/>
-      <c r="Q13" s="286"/>
-      <c r="R13" s="286"/>
-      <c r="S13" s="292"/>
-      <c r="T13" s="294"/>
+      <c r="A13" s="290"/>
+      <c r="B13" s="294"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="290"/>
+      <c r="E13" s="290"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="O13" s="290"/>
+      <c r="P13" s="294"/>
+      <c r="Q13" s="290"/>
+      <c r="R13" s="290"/>
+      <c r="S13" s="296"/>
+      <c r="T13" s="298"/>
     </row>
     <row r="14" spans="1:21" s="28" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="30" t="s">
@@ -9983,31 +10085,31 @@
       </c>
       <c r="O16" s="64">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong),"",OFFSET('141-BH'!A$1,SMALL(Dong,ROWS($1:1)),))</f>
-        <v>42156</v>
-      </c>
-      <c r="P16" s="64" t="str">
+        <v>42247</v>
+      </c>
+      <c r="P16" s="64">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong),"",OFFSET('141-BH'!B$1,SMALL(Dong,ROWS($1:1)),))</f>
-        <v>C01</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="102" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong),"",OFFSET('141-BH'!D$1,SMALL(Dong,ROWS($1:1)),))</f>
-        <v>Tạm ứng mua NL</v>
+        <v>Nguyễn Thị Tuyết Đang</v>
       </c>
       <c r="R16" s="64" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong),"",OFFSET('141-BH'!E$1,SMALL(Dong,ROWS($1:1)),))</f>
-        <v>111</v>
+        <v>331</v>
       </c>
       <c r="S16" s="95">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong),"",OFFSET('141-BH'!F$1,SMALL(Dong,ROWS($1:1)),))</f>
-        <v>550000000</v>
+        <v>0</v>
       </c>
       <c r="T16" s="95">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong),"",OFFSET('141-BH'!G$1,SMALL(Dong,ROWS($1:1)),))</f>
-        <v>0</v>
+        <v>205168000</v>
       </c>
       <c r="U16" s="146" t="str">
         <f ca="1">IF(IF(ROWS($1:1)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:1)),))=0,"",IF(ROWS($1:1)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:1)),)))</f>
-        <v/>
+        <v>N10 &amp; N22</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="19.5" customHeight="1">
@@ -10045,31 +10147,31 @@
       </c>
       <c r="O17" s="64">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong),"",OFFSET('141-BH'!A$1,SMALL(Dong,ROWS($1:2)),))</f>
-        <v>42179</v>
-      </c>
-      <c r="P17" s="64" t="str">
+        <v>42247</v>
+      </c>
+      <c r="P17" s="64">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong),"",OFFSET('141-BH'!B$1,SMALL(Dong,ROWS($1:2)),))</f>
-        <v>C31</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="102" t="str">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong),"",OFFSET('141-BH'!D$1,SMALL(Dong,ROWS($1:2)),))</f>
-        <v>Tạm ứng mua NL</v>
+        <v>Võ Văn Thắng</v>
       </c>
       <c r="R17" s="64" t="str">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong),"",OFFSET('141-BH'!E$1,SMALL(Dong,ROWS($1:2)),))</f>
-        <v>111</v>
+        <v>331</v>
       </c>
       <c r="S17" s="95">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong),"",OFFSET('141-BH'!F$1,SMALL(Dong,ROWS($1:2)),))</f>
-        <v>510000000</v>
+        <v>0</v>
       </c>
       <c r="T17" s="95">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong),"",OFFSET('141-BH'!G$1,SMALL(Dong,ROWS($1:2)),))</f>
-        <v>0</v>
+        <v>218560000</v>
       </c>
       <c r="U17" s="146" t="str">
         <f ca="1">IF(IF(ROWS($1:2)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:2)),))=0,"",IF(ROWS($1:2)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:2)),)))</f>
-        <v/>
+        <v>N11 &amp; N21</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="19.5" customHeight="1">
@@ -10107,7 +10209,7 @@
       </c>
       <c r="O18" s="64">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong),"",OFFSET('141-BH'!A$1,SMALL(Dong,ROWS($1:3)),))</f>
-        <v>42185</v>
+        <v>42247</v>
       </c>
       <c r="P18" s="64">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong),"",OFFSET('141-BH'!B$1,SMALL(Dong,ROWS($1:3)),))</f>
@@ -10115,7 +10217,7 @@
       </c>
       <c r="Q18" s="102" t="str">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong),"",OFFSET('141-BH'!D$1,SMALL(Dong,ROWS($1:3)),))</f>
-        <v>Lê Thị Thiện Em</v>
+        <v>Nguyễn Văn Phong</v>
       </c>
       <c r="R18" s="64" t="str">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong),"",OFFSET('141-BH'!E$1,SMALL(Dong,ROWS($1:3)),))</f>
@@ -10127,11 +10229,11 @@
       </c>
       <c r="T18" s="95">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong),"",OFFSET('141-BH'!G$1,SMALL(Dong,ROWS($1:3)),))</f>
-        <v>79068000</v>
+        <v>206032000</v>
       </c>
       <c r="U18" s="146" t="str">
         <f ca="1">IF(IF(ROWS($1:3)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:3)),))=0,"",IF(ROWS($1:3)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:3)),)))</f>
-        <v>N01</v>
+        <v>N12 &amp; N23</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="19.5" customHeight="1">
@@ -10167,33 +10269,33 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O19" s="64">
+      <c r="O19" s="64" t="str">
         <f ca="1">IF(ROWS($1:4)&gt;COUNT(Dong),"",OFFSET('141-BH'!A$1,SMALL(Dong,ROWS($1:4)),))</f>
-        <v>42185</v>
-      </c>
-      <c r="P19" s="64">
+        <v/>
+      </c>
+      <c r="P19" s="64" t="str">
         <f ca="1">IF(ROWS($1:4)&gt;COUNT(Dong),"",OFFSET('141-BH'!B$1,SMALL(Dong,ROWS($1:4)),))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="Q19" s="102" t="str">
         <f ca="1">IF(ROWS($1:4)&gt;COUNT(Dong),"",OFFSET('141-BH'!D$1,SMALL(Dong,ROWS($1:4)),))</f>
-        <v>Trần Văn An</v>
+        <v/>
       </c>
       <c r="R19" s="64" t="str">
         <f ca="1">IF(ROWS($1:4)&gt;COUNT(Dong),"",OFFSET('141-BH'!E$1,SMALL(Dong,ROWS($1:4)),))</f>
-        <v>331</v>
-      </c>
-      <c r="S19" s="95">
+        <v/>
+      </c>
+      <c r="S19" s="95" t="str">
         <f ca="1">IF(ROWS($1:4)&gt;COUNT(Dong),"",OFFSET('141-BH'!F$1,SMALL(Dong,ROWS($1:4)),))</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="95">
+        <v/>
+      </c>
+      <c r="T19" s="95" t="str">
         <f ca="1">IF(ROWS($1:4)&gt;COUNT(Dong),"",OFFSET('141-BH'!G$1,SMALL(Dong,ROWS($1:4)),))</f>
-        <v>237852500</v>
+        <v/>
       </c>
       <c r="U19" s="146" t="str">
         <f ca="1">IF(IF(ROWS($1:4)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:4)),))=0,"",IF(ROWS($1:4)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:4)),)))</f>
-        <v>N02 &amp; N14 &amp; N32</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:21" ht="19.5" customHeight="1">
@@ -10229,33 +10331,33 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O20" s="64">
+      <c r="O20" s="64" t="str">
         <f ca="1">IF(ROWS($1:5)&gt;COUNT(Dong),"",OFFSET('141-BH'!A$1,SMALL(Dong,ROWS($1:5)),))</f>
-        <v>42185</v>
-      </c>
-      <c r="P20" s="64">
+        <v/>
+      </c>
+      <c r="P20" s="64" t="str">
         <f ca="1">IF(ROWS($1:5)&gt;COUNT(Dong),"",OFFSET('141-BH'!B$1,SMALL(Dong,ROWS($1:5)),))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="Q20" s="102" t="str">
         <f ca="1">IF(ROWS($1:5)&gt;COUNT(Dong),"",OFFSET('141-BH'!D$1,SMALL(Dong,ROWS($1:5)),))</f>
-        <v>Nguyễn Thanh Bình</v>
+        <v/>
       </c>
       <c r="R20" s="64" t="str">
         <f ca="1">IF(ROWS($1:5)&gt;COUNT(Dong),"",OFFSET('141-BH'!E$1,SMALL(Dong,ROWS($1:5)),))</f>
-        <v>331</v>
-      </c>
-      <c r="S20" s="95">
+        <v/>
+      </c>
+      <c r="S20" s="95" t="str">
         <f ca="1">IF(ROWS($1:5)&gt;COUNT(Dong),"",OFFSET('141-BH'!F$1,SMALL(Dong,ROWS($1:5)),))</f>
-        <v>0</v>
-      </c>
-      <c r="T20" s="95">
+        <v/>
+      </c>
+      <c r="T20" s="95" t="str">
         <f ca="1">IF(ROWS($1:5)&gt;COUNT(Dong),"",OFFSET('141-BH'!G$1,SMALL(Dong,ROWS($1:5)),))</f>
-        <v>232886000</v>
+        <v/>
       </c>
       <c r="U20" s="146" t="str">
         <f ca="1">IF(IF(ROWS($1:5)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:5)),))=0,"",IF(ROWS($1:5)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:5)),)))</f>
-        <v>N03 &amp; N15 &amp; N33</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:21" ht="19.5" customHeight="1">
@@ -10275,7 +10377,7 @@
       <c r="E21" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="305">
+      <c r="F21" s="255">
         <v>320000000</v>
       </c>
       <c r="G21" s="20"/>
@@ -10291,33 +10393,33 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O21" s="64">
+      <c r="O21" s="64" t="str">
         <f ca="1">IF(ROWS($1:6)&gt;COUNT(Dong),"",OFFSET('141-BH'!A$1,SMALL(Dong,ROWS($1:6)),))</f>
-        <v>42185</v>
-      </c>
-      <c r="P21" s="64">
+        <v/>
+      </c>
+      <c r="P21" s="64" t="str">
         <f ca="1">IF(ROWS($1:6)&gt;COUNT(Dong),"",OFFSET('141-BH'!B$1,SMALL(Dong,ROWS($1:6)),))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="Q21" s="102" t="str">
         <f ca="1">IF(ROWS($1:6)&gt;COUNT(Dong),"",OFFSET('141-BH'!D$1,SMALL(Dong,ROWS($1:6)),))</f>
-        <v>Nguyễn Thị Hội</v>
+        <v/>
       </c>
       <c r="R21" s="64" t="str">
         <f ca="1">IF(ROWS($1:6)&gt;COUNT(Dong),"",OFFSET('141-BH'!E$1,SMALL(Dong,ROWS($1:6)),))</f>
-        <v>331</v>
-      </c>
-      <c r="S21" s="95">
+        <v/>
+      </c>
+      <c r="S21" s="95" t="str">
         <f ca="1">IF(ROWS($1:6)&gt;COUNT(Dong),"",OFFSET('141-BH'!F$1,SMALL(Dong,ROWS($1:6)),))</f>
-        <v>0</v>
-      </c>
-      <c r="T21" s="95">
+        <v/>
+      </c>
+      <c r="T21" s="95" t="str">
         <f ca="1">IF(ROWS($1:6)&gt;COUNT(Dong),"",OFFSET('141-BH'!G$1,SMALL(Dong,ROWS($1:6)),))</f>
-        <v>240316000</v>
+        <v/>
       </c>
       <c r="U21" s="146" t="str">
         <f ca="1">IF(IF(ROWS($1:6)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:6)),))=0,"",IF(ROWS($1:6)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:6)),)))</f>
-        <v>N08 &amp; N16 &amp; N34</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:21" ht="19.5" customHeight="1">
@@ -10358,33 +10460,33 @@
       <c r="K22" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="O22" s="64">
+      <c r="O22" s="64" t="str">
         <f ca="1">IF(ROWS($1:7)&gt;COUNT(Dong),"",OFFSET('141-BH'!A$1,SMALL(Dong,ROWS($1:7)),))</f>
-        <v>42185</v>
-      </c>
-      <c r="P22" s="64">
+        <v/>
+      </c>
+      <c r="P22" s="64" t="str">
         <f ca="1">IF(ROWS($1:7)&gt;COUNT(Dong),"",OFFSET('141-BH'!B$1,SMALL(Dong,ROWS($1:7)),))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="Q22" s="102" t="str">
         <f ca="1">IF(ROWS($1:7)&gt;COUNT(Dong),"",OFFSET('141-BH'!D$1,SMALL(Dong,ROWS($1:7)),))</f>
-        <v>Nguyễn Văn Hạnh</v>
+        <v/>
       </c>
       <c r="R22" s="64" t="str">
         <f ca="1">IF(ROWS($1:7)&gt;COUNT(Dong),"",OFFSET('141-BH'!E$1,SMALL(Dong,ROWS($1:7)),))</f>
-        <v>331</v>
-      </c>
-      <c r="S22" s="95">
+        <v/>
+      </c>
+      <c r="S22" s="95" t="str">
         <f ca="1">IF(ROWS($1:7)&gt;COUNT(Dong),"",OFFSET('141-BH'!F$1,SMALL(Dong,ROWS($1:7)),))</f>
-        <v>0</v>
-      </c>
-      <c r="T22" s="95">
+        <v/>
+      </c>
+      <c r="T22" s="95" t="str">
         <f ca="1">IF(ROWS($1:7)&gt;COUNT(Dong),"",OFFSET('141-BH'!G$1,SMALL(Dong,ROWS($1:7)),))</f>
-        <v>76740000</v>
+        <v/>
       </c>
       <c r="U22" s="146" t="str">
         <f ca="1">IF(IF(ROWS($1:7)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:7)),))=0,"",IF(ROWS($1:7)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:7)),)))</f>
-        <v>N09</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:21" ht="19.5" customHeight="1">
@@ -10425,33 +10527,33 @@
       <c r="K23" s="140" t="s">
         <v>203</v>
       </c>
-      <c r="O23" s="64">
+      <c r="O23" s="64" t="str">
         <f ca="1">IF(ROWS($1:8)&gt;COUNT(Dong),"",OFFSET('141-BH'!A$1,SMALL(Dong,ROWS($1:8)),))</f>
-        <v>42185</v>
-      </c>
-      <c r="P23" s="64">
+        <v/>
+      </c>
+      <c r="P23" s="64" t="str">
         <f ca="1">IF(ROWS($1:8)&gt;COUNT(Dong),"",OFFSET('141-BH'!B$1,SMALL(Dong,ROWS($1:8)),))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="Q23" s="102" t="str">
         <f ca="1">IF(ROWS($1:8)&gt;COUNT(Dong),"",OFFSET('141-BH'!D$1,SMALL(Dong,ROWS($1:8)),))</f>
-        <v>Trần Thị Thu Hiếu</v>
+        <v/>
       </c>
       <c r="R23" s="64" t="str">
         <f ca="1">IF(ROWS($1:8)&gt;COUNT(Dong),"",OFFSET('141-BH'!E$1,SMALL(Dong,ROWS($1:8)),))</f>
-        <v>331</v>
-      </c>
-      <c r="S23" s="95">
+        <v/>
+      </c>
+      <c r="S23" s="95" t="str">
         <f ca="1">IF(ROWS($1:8)&gt;COUNT(Dong),"",OFFSET('141-BH'!F$1,SMALL(Dong,ROWS($1:8)),))</f>
-        <v>0</v>
-      </c>
-      <c r="T23" s="95">
+        <v/>
+      </c>
+      <c r="T23" s="95" t="str">
         <f ca="1">IF(ROWS($1:8)&gt;COUNT(Dong),"",OFFSET('141-BH'!G$1,SMALL(Dong,ROWS($1:8)),))</f>
-        <v>95112500</v>
+        <v/>
       </c>
       <c r="U23" s="146" t="str">
         <f ca="1">IF(IF(ROWS($1:8)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:8)),))=0,"",IF(ROWS($1:8)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:8)),)))</f>
-        <v>N35</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:21" ht="19.5" customHeight="1">
@@ -10492,33 +10594,33 @@
       <c r="K24" s="140" t="s">
         <v>204</v>
       </c>
-      <c r="O24" s="64">
+      <c r="O24" s="64" t="str">
         <f ca="1">IF(ROWS($1:9)&gt;COUNT(Dong),"",OFFSET('141-BH'!A$1,SMALL(Dong,ROWS($1:9)),))</f>
-        <v>42185</v>
-      </c>
-      <c r="P24" s="64">
+        <v/>
+      </c>
+      <c r="P24" s="64" t="str">
         <f ca="1">IF(ROWS($1:9)&gt;COUNT(Dong),"",OFFSET('141-BH'!B$1,SMALL(Dong,ROWS($1:9)),))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="Q24" s="102" t="str">
         <f ca="1">IF(ROWS($1:9)&gt;COUNT(Dong),"",OFFSET('141-BH'!D$1,SMALL(Dong,ROWS($1:9)),))</f>
-        <v>Nguyễn Văn Nhân</v>
+        <v/>
       </c>
       <c r="R24" s="64" t="str">
         <f ca="1">IF(ROWS($1:9)&gt;COUNT(Dong),"",OFFSET('141-BH'!E$1,SMALL(Dong,ROWS($1:9)),))</f>
-        <v>331</v>
-      </c>
-      <c r="S24" s="95">
+        <v/>
+      </c>
+      <c r="S24" s="95" t="str">
         <f ca="1">IF(ROWS($1:9)&gt;COUNT(Dong),"",OFFSET('141-BH'!F$1,SMALL(Dong,ROWS($1:9)),))</f>
-        <v>0</v>
-      </c>
-      <c r="T24" s="95">
+        <v/>
+      </c>
+      <c r="T24" s="95" t="str">
         <f ca="1">IF(ROWS($1:9)&gt;COUNT(Dong),"",OFFSET('141-BH'!G$1,SMALL(Dong,ROWS($1:9)),))</f>
-        <v>95375000</v>
+        <v/>
       </c>
       <c r="U24" s="146" t="str">
         <f ca="1">IF(IF(ROWS($1:9)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:9)),))=0,"",IF(ROWS($1:9)&gt;COUNT(Dong),"",OFFSET('141-BH'!K$1,SMALL(Dong,ROWS($1:9)),)))</f>
-        <v>N36</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:21" ht="19.5" customHeight="1">
@@ -11394,7 +11496,7 @@
       <c r="E38" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="306">
+      <c r="F38" s="256">
         <v>620000000</v>
       </c>
       <c r="G38" s="20"/>
@@ -12276,7 +12378,7 @@
       <c r="E52" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F52" s="307">
+      <c r="F52" s="257">
         <v>300000000</v>
       </c>
       <c r="G52" s="20"/>
@@ -12316,7 +12418,7 @@
       <c r="E53" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F53" s="307">
+      <c r="F53" s="257">
         <v>320000000</v>
       </c>
       <c r="G53" s="20"/>
@@ -12650,7 +12752,7 @@
       <c r="E61" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F61" s="306">
+      <c r="F61" s="256">
         <v>400000000</v>
       </c>
       <c r="G61" s="25"/>
@@ -13071,7 +13173,7 @@
       <c r="E71" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F71" s="306">
+      <c r="F71" s="256">
         <v>350000000</v>
       </c>
       <c r="G71" s="20"/>
@@ -13581,7 +13683,7 @@
       <c r="E83" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F83" s="306">
+      <c r="F83" s="256">
         <v>510000000</v>
       </c>
       <c r="G83" s="9"/>
@@ -13905,7 +14007,7 @@
       <c r="E91" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F91" s="306">
+      <c r="F91" s="256">
         <v>250000000</v>
       </c>
       <c r="G91" s="20"/>
@@ -14064,11 +14166,13 @@
       <c r="E95" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F95" s="9"/>
+      <c r="F95" s="9">
+        <v>300000000</v>
+      </c>
       <c r="G95" s="20"/>
       <c r="H95" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>317787000</v>
       </c>
       <c r="I95" s="5">
         <f t="shared" si="18"/>
@@ -14089,7 +14193,7 @@
       <c r="A96" s="14"/>
       <c r="B96" s="24"/>
       <c r="C96" s="14">
-        <f t="shared" ref="C96" si="19">A96</f>
+        <f t="shared" ref="C96:C101" si="19">A96</f>
         <v>0</v>
       </c>
       <c r="D96" s="17" t="s">
@@ -14098,11 +14202,13 @@
       <c r="E96" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F96" s="9"/>
+      <c r="F96" s="9">
+        <v>320000000</v>
+      </c>
       <c r="G96" s="20"/>
       <c r="H96" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>637787000</v>
       </c>
       <c r="I96" s="5">
         <f t="shared" si="18"/>
@@ -14120,24 +14226,38 @@
       <c r="T96" s="61"/>
     </row>
     <row r="97" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A97" s="14"/>
+      <c r="A97" s="14">
+        <v>42247</v>
+      </c>
       <c r="B97" s="24"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="38"/>
+      <c r="C97" s="14">
+        <f t="shared" si="19"/>
+        <v>42247</v>
+      </c>
+      <c r="D97" s="248" t="s">
+        <v>46</v>
+      </c>
+      <c r="E97" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="F97" s="9"/>
-      <c r="G97" s="20"/>
+      <c r="G97" s="20">
+        <v>205168000</v>
+      </c>
       <c r="H97" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>432619000</v>
       </c>
       <c r="I97" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="J97" s="37" t="str">
+      <c r="J97" s="37">
         <f t="shared" si="13"/>
-        <v/>
+        <v>8</v>
+      </c>
+      <c r="K97" s="140" t="s">
+        <v>264</v>
       </c>
       <c r="O97" s="109"/>
       <c r="P97" s="93"/>
@@ -14147,24 +14267,38 @@
       <c r="T97" s="61"/>
     </row>
     <row r="98" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A98" s="14"/>
+      <c r="A98" s="14">
+        <v>42247</v>
+      </c>
       <c r="B98" s="24"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="38"/>
+      <c r="C98" s="14">
+        <f t="shared" si="19"/>
+        <v>42247</v>
+      </c>
+      <c r="D98" s="248" t="s">
+        <v>105</v>
+      </c>
+      <c r="E98" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="F98" s="9"/>
-      <c r="G98" s="20"/>
+      <c r="G98" s="20">
+        <v>218560000</v>
+      </c>
       <c r="H98" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>214059000</v>
       </c>
       <c r="I98" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="J98" s="37" t="str">
+      <c r="J98" s="37">
         <f t="shared" si="13"/>
-        <v/>
+        <v>8</v>
+      </c>
+      <c r="K98" s="140" t="s">
+        <v>342</v>
       </c>
       <c r="O98" s="109"/>
       <c r="P98" s="93"/>
@@ -14174,24 +14308,38 @@
       <c r="T98" s="61"/>
     </row>
     <row r="99" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A99" s="14"/>
+      <c r="A99" s="14">
+        <v>42247</v>
+      </c>
       <c r="B99" s="24"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="38"/>
+      <c r="C99" s="14">
+        <f t="shared" si="19"/>
+        <v>42247</v>
+      </c>
+      <c r="D99" s="248" t="s">
+        <v>50</v>
+      </c>
+      <c r="E99" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="F99" s="9"/>
-      <c r="G99" s="20"/>
+      <c r="G99" s="20">
+        <v>206032000</v>
+      </c>
       <c r="H99" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I99" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="J99" s="37" t="str">
+      <c r="J99" s="37">
         <f t="shared" si="13"/>
-        <v/>
+        <v>8</v>
+      </c>
+      <c r="K99" s="140" t="s">
+        <v>343</v>
       </c>
       <c r="O99" s="109"/>
       <c r="P99" s="93"/>
@@ -14203,14 +14351,17 @@
     <row r="100" spans="1:20" ht="19.5" customHeight="1">
       <c r="A100" s="14"/>
       <c r="B100" s="24"/>
-      <c r="C100" s="14"/>
+      <c r="C100" s="14">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="D100" s="17"/>
       <c r="E100" s="38"/>
       <c r="F100" s="9"/>
       <c r="G100" s="20"/>
       <c r="H100" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I100" s="5">
         <f t="shared" si="18"/>
@@ -14230,14 +14381,17 @@
     <row r="101" spans="1:20" ht="19.5" customHeight="1">
       <c r="A101" s="14"/>
       <c r="B101" s="24"/>
-      <c r="C101" s="14"/>
+      <c r="C101" s="14">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="D101" s="10"/>
       <c r="E101" s="38"/>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
       <c r="H101" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I101" s="5">
         <f t="shared" si="18"/>
@@ -14264,7 +14418,7 @@
       <c r="G102" s="20"/>
       <c r="H102" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I102" s="5">
         <f t="shared" si="18"/>
@@ -14291,7 +14445,7 @@
       <c r="G103" s="20"/>
       <c r="H103" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I103" s="5">
         <f t="shared" si="18"/>
@@ -14318,7 +14472,7 @@
       <c r="G104" s="20"/>
       <c r="H104" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I104" s="5">
         <f t="shared" si="18"/>
@@ -14345,7 +14499,7 @@
       <c r="G105" s="20"/>
       <c r="H105" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I105" s="5">
         <f t="shared" si="18"/>
@@ -14372,7 +14526,7 @@
       <c r="G106" s="20"/>
       <c r="H106" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I106" s="5">
         <f t="shared" si="18"/>
@@ -14399,7 +14553,7 @@
       <c r="G107" s="20"/>
       <c r="H107" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I107" s="5">
         <f t="shared" si="18"/>
@@ -14426,7 +14580,7 @@
       <c r="G108" s="20"/>
       <c r="H108" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I108" s="5">
         <f t="shared" si="18"/>
@@ -14453,7 +14607,7 @@
       <c r="G109" s="20"/>
       <c r="H109" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I109" s="5">
         <f t="shared" si="18"/>
@@ -14480,7 +14634,7 @@
       <c r="G110" s="20"/>
       <c r="H110" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I110" s="5">
         <f t="shared" si="18"/>
@@ -14507,7 +14661,7 @@
       <c r="G111" s="20"/>
       <c r="H111" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I111" s="5">
         <f t="shared" si="18"/>
@@ -14534,7 +14688,7 @@
       <c r="G112" s="20"/>
       <c r="H112" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I112" s="5">
         <f t="shared" si="18"/>
@@ -14561,7 +14715,7 @@
       <c r="G113" s="20"/>
       <c r="H113" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I113" s="5">
         <f t="shared" si="18"/>
@@ -14588,7 +14742,7 @@
       <c r="G114" s="20"/>
       <c r="H114" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I114" s="5">
         <f t="shared" si="18"/>
@@ -14615,7 +14769,7 @@
       <c r="G115" s="20"/>
       <c r="H115" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I115" s="5">
         <f t="shared" si="18"/>
@@ -14642,7 +14796,7 @@
       <c r="G116" s="9"/>
       <c r="H116" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I116" s="5">
         <f t="shared" si="18"/>
@@ -14669,7 +14823,7 @@
       <c r="G117" s="20"/>
       <c r="H117" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I117" s="5">
         <f t="shared" si="18"/>
@@ -14696,7 +14850,7 @@
       <c r="G118" s="20"/>
       <c r="H118" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I118" s="5">
         <f t="shared" si="18"/>
@@ -14723,7 +14877,7 @@
       <c r="G119" s="20"/>
       <c r="H119" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I119" s="5">
         <f t="shared" si="18"/>
@@ -14750,7 +14904,7 @@
       <c r="G120" s="20"/>
       <c r="H120" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I120" s="5">
         <f t="shared" si="18"/>
@@ -14777,7 +14931,7 @@
       <c r="G121" s="20"/>
       <c r="H121" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I121" s="5">
         <f t="shared" si="18"/>
@@ -14804,7 +14958,7 @@
       <c r="G122" s="20"/>
       <c r="H122" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I122" s="5">
         <f t="shared" si="18"/>
@@ -14831,7 +14985,7 @@
       <c r="G123" s="20"/>
       <c r="H123" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I123" s="5">
         <f t="shared" si="18"/>
@@ -14858,7 +15012,7 @@
       <c r="G124" s="20"/>
       <c r="H124" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I124" s="5">
         <f t="shared" si="18"/>
@@ -14885,7 +15039,7 @@
       <c r="G125" s="20"/>
       <c r="H125" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I125" s="5">
         <f t="shared" si="18"/>
@@ -14912,7 +15066,7 @@
       <c r="G126" s="20"/>
       <c r="H126" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I126" s="5">
         <f t="shared" si="18"/>
@@ -14939,7 +15093,7 @@
       <c r="G127" s="20"/>
       <c r="H127" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I127" s="5">
         <f t="shared" si="18"/>
@@ -14966,7 +15120,7 @@
       <c r="G128" s="20"/>
       <c r="H128" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I128" s="5">
         <f t="shared" si="18"/>
@@ -14993,7 +15147,7 @@
       <c r="G129" s="20"/>
       <c r="H129" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I129" s="5">
         <f t="shared" si="18"/>
@@ -15020,7 +15174,7 @@
       <c r="G130" s="20"/>
       <c r="H130" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I130" s="5">
         <f t="shared" si="18"/>
@@ -15047,7 +15201,7 @@
       <c r="G131" s="20"/>
       <c r="H131" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I131" s="5">
         <f t="shared" si="18"/>
@@ -15074,7 +15228,7 @@
       <c r="G132" s="20"/>
       <c r="H132" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I132" s="5">
         <f t="shared" si="18"/>
@@ -15101,7 +15255,7 @@
       <c r="G133" s="20"/>
       <c r="H133" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I133" s="5">
         <f t="shared" si="18"/>
@@ -15128,7 +15282,7 @@
       <c r="G134" s="20"/>
       <c r="H134" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I134" s="5">
         <f t="shared" si="18"/>
@@ -15155,7 +15309,7 @@
       <c r="G135" s="9"/>
       <c r="H135" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I135" s="5">
         <f t="shared" si="18"/>
@@ -15182,7 +15336,7 @@
       <c r="G136" s="20"/>
       <c r="H136" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I136" s="5">
         <f t="shared" si="18"/>
@@ -15209,7 +15363,7 @@
       <c r="G137" s="20"/>
       <c r="H137" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I137" s="5">
         <f t="shared" si="18"/>
@@ -15236,7 +15390,7 @@
       <c r="G138" s="20"/>
       <c r="H138" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I138" s="5">
         <f t="shared" si="18"/>
@@ -15263,7 +15417,7 @@
       <c r="G139" s="20"/>
       <c r="H139" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I139" s="5">
         <f t="shared" si="18"/>
@@ -15290,7 +15444,7 @@
       <c r="G140" s="20"/>
       <c r="H140" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I140" s="5">
         <f t="shared" si="18"/>
@@ -15317,7 +15471,7 @@
       <c r="G141" s="20"/>
       <c r="H141" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I141" s="5">
         <f t="shared" si="18"/>
@@ -15344,7 +15498,7 @@
       <c r="G142" s="20"/>
       <c r="H142" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I142" s="5">
         <f t="shared" si="18"/>
@@ -15371,7 +15525,7 @@
       <c r="G143" s="20"/>
       <c r="H143" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I143" s="5">
         <f t="shared" si="18"/>
@@ -15400,7 +15554,7 @@
       <c r="G144" s="20"/>
       <c r="H144" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I144" s="5">
         <f t="shared" si="18"/>
@@ -15427,7 +15581,7 @@
       <c r="G145" s="20"/>
       <c r="H145" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I145" s="5">
         <f t="shared" si="18"/>
@@ -15454,7 +15608,7 @@
       <c r="G146" s="20"/>
       <c r="H146" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I146" s="5">
         <f t="shared" si="18"/>
@@ -15481,7 +15635,7 @@
       <c r="G147" s="20"/>
       <c r="H147" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I147" s="5">
         <f t="shared" si="18"/>
@@ -15508,7 +15662,7 @@
       <c r="G148" s="20"/>
       <c r="H148" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I148" s="5">
         <f t="shared" si="18"/>
@@ -15535,7 +15689,7 @@
       <c r="G149" s="20"/>
       <c r="H149" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I149" s="5">
         <f t="shared" si="18"/>
@@ -15562,7 +15716,7 @@
       <c r="G150" s="20"/>
       <c r="H150" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I150" s="5">
         <f t="shared" si="18"/>
@@ -15589,7 +15743,7 @@
       <c r="G151" s="20"/>
       <c r="H151" s="5">
         <f t="shared" si="17"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I151" s="5">
         <f t="shared" si="18"/>
@@ -15618,7 +15772,7 @@
       <c r="G152" s="5"/>
       <c r="H152" s="5">
         <f t="shared" ref="H152:H202" si="21">MAX(H151+F152-I151-G152,0)</f>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I152" s="5">
         <f t="shared" ref="I152:I202" si="22">MAX(I151+G152-H151-F152,0)</f>
@@ -15645,7 +15799,7 @@
       <c r="G153" s="5"/>
       <c r="H153" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I153" s="5">
         <f t="shared" si="22"/>
@@ -15672,7 +15826,7 @@
       <c r="G154" s="20"/>
       <c r="H154" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I154" s="5">
         <f t="shared" si="22"/>
@@ -15699,7 +15853,7 @@
       <c r="G155" s="20"/>
       <c r="H155" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I155" s="5">
         <f t="shared" si="22"/>
@@ -15726,7 +15880,7 @@
       <c r="G156" s="5"/>
       <c r="H156" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I156" s="5">
         <f t="shared" si="22"/>
@@ -15753,7 +15907,7 @@
       <c r="G157" s="20"/>
       <c r="H157" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I157" s="5">
         <f t="shared" si="22"/>
@@ -15780,7 +15934,7 @@
       <c r="G158" s="20"/>
       <c r="H158" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I158" s="5">
         <f t="shared" si="22"/>
@@ -15807,7 +15961,7 @@
       <c r="G159" s="25"/>
       <c r="H159" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I159" s="5">
         <f t="shared" si="22"/>
@@ -15834,7 +15988,7 @@
       <c r="G160" s="20"/>
       <c r="H160" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I160" s="5">
         <f t="shared" si="22"/>
@@ -15861,7 +16015,7 @@
       <c r="G161" s="20"/>
       <c r="H161" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I161" s="5">
         <f t="shared" si="22"/>
@@ -15888,7 +16042,7 @@
       <c r="G162" s="20"/>
       <c r="H162" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I162" s="5">
         <f t="shared" si="22"/>
@@ -15915,7 +16069,7 @@
       <c r="G163" s="20"/>
       <c r="H163" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I163" s="5">
         <f t="shared" si="22"/>
@@ -15942,7 +16096,7 @@
       <c r="G164" s="20"/>
       <c r="H164" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I164" s="5">
         <f t="shared" si="22"/>
@@ -15969,7 +16123,7 @@
       <c r="G165" s="20"/>
       <c r="H165" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I165" s="5">
         <f t="shared" si="22"/>
@@ -15996,7 +16150,7 @@
       <c r="G166" s="20"/>
       <c r="H166" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I166" s="5">
         <f t="shared" si="22"/>
@@ -16023,7 +16177,7 @@
       <c r="G167" s="20"/>
       <c r="H167" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I167" s="5">
         <f t="shared" si="22"/>
@@ -16050,7 +16204,7 @@
       <c r="G168" s="20"/>
       <c r="H168" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I168" s="5">
         <f t="shared" si="22"/>
@@ -16077,7 +16231,7 @@
       <c r="G169" s="20"/>
       <c r="H169" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I169" s="5">
         <f t="shared" si="22"/>
@@ -16104,7 +16258,7 @@
       <c r="G170" s="20"/>
       <c r="H170" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I170" s="5">
         <f t="shared" si="22"/>
@@ -16131,7 +16285,7 @@
       <c r="G171" s="20"/>
       <c r="H171" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I171" s="5">
         <f t="shared" si="22"/>
@@ -16158,7 +16312,7 @@
       <c r="G172" s="20"/>
       <c r="H172" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I172" s="5">
         <f t="shared" si="22"/>
@@ -16185,7 +16339,7 @@
       <c r="G173" s="20"/>
       <c r="H173" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I173" s="5">
         <f t="shared" si="22"/>
@@ -16212,7 +16366,7 @@
       <c r="G174" s="20"/>
       <c r="H174" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I174" s="5">
         <f t="shared" si="22"/>
@@ -16239,7 +16393,7 @@
       <c r="G175" s="20"/>
       <c r="H175" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I175" s="5">
         <f t="shared" si="22"/>
@@ -16266,7 +16420,7 @@
       <c r="G176" s="20"/>
       <c r="H176" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I176" s="5">
         <f t="shared" si="22"/>
@@ -16293,7 +16447,7 @@
       <c r="G177" s="20"/>
       <c r="H177" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I177" s="5">
         <f t="shared" si="22"/>
@@ -16320,7 +16474,7 @@
       <c r="G178" s="20"/>
       <c r="H178" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I178" s="5">
         <f t="shared" si="22"/>
@@ -16347,7 +16501,7 @@
       <c r="G179" s="20"/>
       <c r="H179" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I179" s="5">
         <f t="shared" si="22"/>
@@ -16374,7 +16528,7 @@
       <c r="G180" s="20"/>
       <c r="H180" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I180" s="5">
         <f t="shared" si="22"/>
@@ -16401,7 +16555,7 @@
       <c r="G181" s="20"/>
       <c r="H181" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I181" s="5">
         <f t="shared" si="22"/>
@@ -16428,7 +16582,7 @@
       <c r="G182" s="20"/>
       <c r="H182" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I182" s="5">
         <f t="shared" si="22"/>
@@ -16455,7 +16609,7 @@
       <c r="G183" s="20"/>
       <c r="H183" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I183" s="5">
         <f t="shared" si="22"/>
@@ -16482,7 +16636,7 @@
       <c r="G184" s="20"/>
       <c r="H184" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I184" s="5">
         <f t="shared" si="22"/>
@@ -16509,7 +16663,7 @@
       <c r="G185" s="20"/>
       <c r="H185" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I185" s="5">
         <f t="shared" si="22"/>
@@ -16536,7 +16690,7 @@
       <c r="G186" s="20"/>
       <c r="H186" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I186" s="5">
         <f t="shared" si="22"/>
@@ -16563,7 +16717,7 @@
       <c r="G187" s="20"/>
       <c r="H187" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I187" s="5">
         <f t="shared" si="22"/>
@@ -16590,7 +16744,7 @@
       <c r="G188" s="20"/>
       <c r="H188" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I188" s="5">
         <f t="shared" si="22"/>
@@ -16617,7 +16771,7 @@
       <c r="G189" s="20"/>
       <c r="H189" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I189" s="5">
         <f t="shared" si="22"/>
@@ -16644,7 +16798,7 @@
       <c r="G190" s="20"/>
       <c r="H190" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I190" s="5">
         <f t="shared" si="22"/>
@@ -16671,7 +16825,7 @@
       <c r="G191" s="20"/>
       <c r="H191" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I191" s="5">
         <f t="shared" si="22"/>
@@ -16698,7 +16852,7 @@
       <c r="G192" s="20"/>
       <c r="H192" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I192" s="5">
         <f t="shared" si="22"/>
@@ -16725,7 +16879,7 @@
       <c r="G193" s="20"/>
       <c r="H193" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I193" s="5">
         <f t="shared" si="22"/>
@@ -16752,7 +16906,7 @@
       <c r="G194" s="20"/>
       <c r="H194" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I194" s="5">
         <f t="shared" si="22"/>
@@ -16779,7 +16933,7 @@
       <c r="G195" s="20"/>
       <c r="H195" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I195" s="5">
         <f t="shared" si="22"/>
@@ -16806,7 +16960,7 @@
       <c r="G196" s="9"/>
       <c r="H196" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I196" s="5">
         <f t="shared" si="22"/>
@@ -16833,7 +16987,7 @@
       <c r="G197" s="20"/>
       <c r="H197" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I197" s="5">
         <f t="shared" si="22"/>
@@ -16860,7 +17014,7 @@
       <c r="G198" s="16"/>
       <c r="H198" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I198" s="5">
         <f t="shared" si="22"/>
@@ -16887,7 +17041,7 @@
       <c r="G199" s="5"/>
       <c r="H199" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I199" s="5">
         <f t="shared" si="22"/>
@@ -16914,7 +17068,7 @@
       <c r="G200" s="16"/>
       <c r="H200" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I200" s="5">
         <f t="shared" si="22"/>
@@ -16941,7 +17095,7 @@
       <c r="G201" s="16"/>
       <c r="H201" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I201" s="5">
         <f t="shared" si="22"/>
@@ -16968,7 +17122,7 @@
       <c r="G202" s="16"/>
       <c r="H202" s="5">
         <f t="shared" si="21"/>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I202" s="5">
         <f t="shared" si="22"/>
@@ -17018,11 +17172,11 @@
       </c>
       <c r="F204" s="4">
         <f>SUM(F16:F203)</f>
-        <v>10220000000</v>
+        <v>10840000000</v>
       </c>
       <c r="G204" s="4">
         <f>SUM(G16:G203)</f>
-        <v>10202213000</v>
+        <v>10831973000</v>
       </c>
       <c r="H204" s="4" t="s">
         <v>23</v>
@@ -17040,11 +17194,11 @@
       </c>
       <c r="S204" s="108">
         <f ca="1">SUM(S17:S203)</f>
-        <v>510000000</v>
+        <v>0</v>
       </c>
       <c r="T204" s="108">
         <f ca="1">SUM(T17:T203)</f>
-        <v>1057350000</v>
+        <v>424592000</v>
       </c>
     </row>
     <row r="205" spans="1:21" ht="19.5" customHeight="1">
@@ -17065,7 +17219,7 @@
       </c>
       <c r="H205" s="8">
         <f>IF(H15-I15+F204-G204&gt;0,H15-I15+F204-G204,0)</f>
-        <v>17787000</v>
+        <v>8027000</v>
       </c>
       <c r="I205" s="8">
         <f>IF(I15-H15+G204-F204&gt;0,I15-H15+G204-F204,0)</f>
@@ -17089,11 +17243,11 @@
     <row r="206" spans="1:21">
       <c r="F206" s="46">
         <f>F204+'141-TT'!F140</f>
-        <v>21900000000</v>
+        <v>25690000000</v>
       </c>
       <c r="G206" s="45">
         <f>G204+'141-TT'!G140</f>
-        <v>21873795000</v>
+        <v>25674855000</v>
       </c>
       <c r="I206" s="46"/>
       <c r="K206" s="216"/>
@@ -17119,7 +17273,7 @@
       <c r="J207" s="59"/>
       <c r="K207" s="57">
         <f>H205+'141-TT'!H141</f>
-        <v>26205000</v>
+        <v>15145000</v>
       </c>
       <c r="L207" s="59"/>
       <c r="M207" s="59"/>
@@ -17162,13 +17316,13 @@
       <c r="B209" s="28"/>
       <c r="C209" s="28"/>
       <c r="D209" s="29"/>
-      <c r="E209" s="285" t="s">
+      <c r="E209" s="289" t="s">
         <v>167</v>
       </c>
-      <c r="F209" s="285"/>
-      <c r="G209" s="285"/>
-      <c r="H209" s="285"/>
-      <c r="I209" s="285"/>
+      <c r="F209" s="289"/>
+      <c r="G209" s="289"/>
+      <c r="H209" s="289"/>
+      <c r="I209" s="289"/>
       <c r="J209" s="61"/>
       <c r="K209" s="118"/>
       <c r="L209" s="61"/>
@@ -17183,58 +17337,58 @@
       <c r="U209" s="148"/>
     </row>
     <row r="210" spans="1:21" s="1" customFormat="1">
-      <c r="A210" s="285" t="s">
+      <c r="A210" s="289" t="s">
         <v>25</v>
       </c>
-      <c r="B210" s="285"/>
-      <c r="C210" s="285"/>
-      <c r="D210" s="285"/>
-      <c r="E210" s="285" t="s">
+      <c r="B210" s="289"/>
+      <c r="C210" s="289"/>
+      <c r="D210" s="289"/>
+      <c r="E210" s="289" t="s">
         <v>26</v>
       </c>
-      <c r="F210" s="285"/>
-      <c r="G210" s="285"/>
-      <c r="H210" s="285"/>
-      <c r="I210" s="285"/>
+      <c r="F210" s="289"/>
+      <c r="G210" s="289"/>
+      <c r="H210" s="289"/>
+      <c r="I210" s="289"/>
       <c r="J210" s="61"/>
       <c r="K210" s="142"/>
       <c r="L210" s="62"/>
       <c r="M210" s="59"/>
       <c r="N210" s="59"/>
-      <c r="O210" s="301" t="s">
+      <c r="O210" s="305" t="s">
         <v>25</v>
       </c>
-      <c r="P210" s="301"/>
-      <c r="Q210" s="301"/>
+      <c r="P210" s="305"/>
+      <c r="Q210" s="305"/>
       <c r="R210" s="59"/>
       <c r="S210" s="59"/>
       <c r="T210" s="59"/>
       <c r="U210" s="148"/>
     </row>
     <row r="211" spans="1:21" s="1" customFormat="1">
-      <c r="A211" s="285" t="s">
+      <c r="A211" s="289" t="s">
         <v>27</v>
       </c>
-      <c r="B211" s="285"/>
-      <c r="C211" s="285"/>
-      <c r="D211" s="285"/>
-      <c r="E211" s="285" t="s">
+      <c r="B211" s="289"/>
+      <c r="C211" s="289"/>
+      <c r="D211" s="289"/>
+      <c r="E211" s="289" t="s">
         <v>27</v>
       </c>
-      <c r="F211" s="285"/>
-      <c r="G211" s="285"/>
-      <c r="H211" s="285"/>
-      <c r="I211" s="285"/>
+      <c r="F211" s="289"/>
+      <c r="G211" s="289"/>
+      <c r="H211" s="289"/>
+      <c r="I211" s="289"/>
       <c r="J211" s="61"/>
       <c r="K211" s="141"/>
       <c r="L211" s="61"/>
       <c r="M211" s="59"/>
       <c r="N211" s="59"/>
-      <c r="O211" s="301" t="s">
+      <c r="O211" s="305" t="s">
         <v>27</v>
       </c>
-      <c r="P211" s="301"/>
-      <c r="Q211" s="301"/>
+      <c r="P211" s="305"/>
+      <c r="Q211" s="305"/>
       <c r="R211" s="59"/>
       <c r="S211" s="59"/>
       <c r="T211" s="59"/>
@@ -18028,9 +18182,9 @@
   <dimension ref="A1:U165"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K212" sqref="K212"/>
-      <selection pane="bottomLeft" activeCell="F104" sqref="F104"/>
+      <selection pane="bottomLeft" activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18084,11 +18238,11 @@
       <c r="D2" s="29"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
-      <c r="G2" s="295" t="s">
+      <c r="G2" s="299" t="s">
         <v>165</v>
       </c>
-      <c r="H2" s="295"/>
-      <c r="I2" s="295"/>
+      <c r="H2" s="299"/>
+      <c r="I2" s="299"/>
       <c r="N2" s="28"/>
       <c r="O2" s="28"/>
       <c r="P2" s="29"/>
@@ -18105,11 +18259,11 @@
       <c r="D3" s="29"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
-      <c r="G3" s="296" t="s">
+      <c r="G3" s="300" t="s">
         <v>166</v>
       </c>
-      <c r="H3" s="296"/>
-      <c r="I3" s="296"/>
+      <c r="H3" s="300"/>
+      <c r="I3" s="300"/>
       <c r="N3" s="28"/>
       <c r="O3" s="28"/>
       <c r="P3" s="29"/>
@@ -18124,9 +18278,9 @@
       <c r="D4" s="29"/>
       <c r="E4" s="28"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="296"/>
-      <c r="H4" s="296"/>
-      <c r="I4" s="296"/>
+      <c r="G4" s="300"/>
+      <c r="H4" s="300"/>
+      <c r="I4" s="300"/>
       <c r="N4" s="28"/>
       <c r="O4" s="28"/>
       <c r="P4" s="29"/>
@@ -18135,17 +18289,17 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A5" s="298" t="s">
+      <c r="A5" s="302" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="298"/>
-      <c r="C5" s="298"/>
-      <c r="D5" s="298"/>
-      <c r="E5" s="298"/>
-      <c r="F5" s="298"/>
-      <c r="G5" s="298"/>
-      <c r="H5" s="298"/>
-      <c r="I5" s="298"/>
+      <c r="B5" s="302"/>
+      <c r="C5" s="302"/>
+      <c r="D5" s="302"/>
+      <c r="E5" s="302"/>
+      <c r="F5" s="302"/>
+      <c r="G5" s="302"/>
+      <c r="H5" s="302"/>
+      <c r="I5" s="302"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="Q5" s="1"/>
@@ -18153,17 +18307,17 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="285" t="s">
+      <c r="A6" s="289" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="285"/>
-      <c r="C6" s="285"/>
-      <c r="D6" s="285"/>
-      <c r="E6" s="285"/>
-      <c r="F6" s="285"/>
-      <c r="G6" s="285"/>
-      <c r="H6" s="285"/>
-      <c r="I6" s="285"/>
+      <c r="B6" s="289"/>
+      <c r="C6" s="289"/>
+      <c r="D6" s="289"/>
+      <c r="E6" s="289"/>
+      <c r="F6" s="289"/>
+      <c r="G6" s="289"/>
+      <c r="H6" s="289"/>
+      <c r="I6" s="289"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="Q6" s="1"/>
@@ -18171,17 +18325,17 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="299" t="s">
+      <c r="A7" s="303" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="285"/>
-      <c r="C7" s="285"/>
-      <c r="D7" s="285"/>
-      <c r="E7" s="285"/>
-      <c r="F7" s="285"/>
-      <c r="G7" s="285"/>
-      <c r="H7" s="285"/>
-      <c r="I7" s="285"/>
+      <c r="B7" s="289"/>
+      <c r="C7" s="289"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
+      <c r="I7" s="289"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="Q7" s="1"/>
@@ -18189,19 +18343,19 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="285" t="s">
+      <c r="A8" s="289" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="285" t="s">
+      <c r="B8" s="289" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="285"/>
-      <c r="D8" s="285"/>
-      <c r="E8" s="285"/>
-      <c r="F8" s="285"/>
-      <c r="G8" s="285"/>
-      <c r="H8" s="285"/>
-      <c r="I8" s="285"/>
+      <c r="C8" s="289"/>
+      <c r="D8" s="289"/>
+      <c r="E8" s="289"/>
+      <c r="F8" s="289"/>
+      <c r="G8" s="289"/>
+      <c r="H8" s="289"/>
+      <c r="I8" s="289"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="Q8" s="1"/>
@@ -18209,17 +18363,17 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="285" t="s">
+      <c r="A9" s="289" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="299"/>
-      <c r="C9" s="299"/>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="299"/>
-      <c r="H9" s="299"/>
-      <c r="I9" s="299"/>
+      <c r="B9" s="303"/>
+      <c r="C9" s="303"/>
+      <c r="D9" s="303"/>
+      <c r="E9" s="303"/>
+      <c r="F9" s="303"/>
+      <c r="G9" s="303"/>
+      <c r="H9" s="303"/>
+      <c r="I9" s="303"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="Q9" s="1"/>
@@ -18229,13 +18383,13 @@
     <row r="10" spans="1:20" hidden="1">
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
-      <c r="C10" s="302"/>
-      <c r="D10" s="302"/>
-      <c r="E10" s="302"/>
-      <c r="F10" s="302"/>
-      <c r="G10" s="302"/>
-      <c r="H10" s="302"/>
-      <c r="I10" s="302"/>
+      <c r="C10" s="306"/>
+      <c r="D10" s="306"/>
+      <c r="E10" s="306"/>
+      <c r="F10" s="306"/>
+      <c r="G10" s="306"/>
+      <c r="H10" s="306"/>
+      <c r="I10" s="306"/>
       <c r="N10" s="28"/>
       <c r="O10" s="1"/>
       <c r="Q10" s="1"/>
@@ -18243,95 +18397,95 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A11" s="286" t="s">
+      <c r="A11" s="290" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="287" t="s">
+      <c r="B11" s="291" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="288"/>
-      <c r="D11" s="286" t="s">
+      <c r="C11" s="292"/>
+      <c r="D11" s="290" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="286" t="s">
+      <c r="E11" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="287" t="s">
+      <c r="F11" s="291" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="288"/>
-      <c r="H11" s="287" t="s">
+      <c r="G11" s="292"/>
+      <c r="H11" s="291" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="297"/>
-      <c r="N11" s="287" t="s">
+      <c r="I11" s="301"/>
+      <c r="N11" s="291" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="288"/>
-      <c r="P11" s="286" t="s">
+      <c r="O11" s="292"/>
+      <c r="P11" s="290" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="286" t="s">
+      <c r="Q11" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="287" t="s">
+      <c r="R11" s="291" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="288"/>
+      <c r="S11" s="292"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A12" s="286"/>
-      <c r="B12" s="291" t="s">
+      <c r="A12" s="290"/>
+      <c r="B12" s="295" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="291" t="s">
+      <c r="C12" s="295" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="286"/>
-      <c r="E12" s="286"/>
-      <c r="F12" s="291" t="s">
+      <c r="D12" s="290"/>
+      <c r="E12" s="290"/>
+      <c r="F12" s="295" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="293" t="s">
+      <c r="G12" s="297" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="291" t="s">
+      <c r="H12" s="295" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="291" t="s">
+      <c r="I12" s="295" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="291" t="s">
+      <c r="N12" s="295" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="291" t="s">
+      <c r="O12" s="295" t="s">
         <v>13</v>
       </c>
-      <c r="P12" s="286"/>
-      <c r="Q12" s="286"/>
-      <c r="R12" s="291" t="s">
+      <c r="P12" s="290"/>
+      <c r="Q12" s="290"/>
+      <c r="R12" s="295" t="s">
         <v>14</v>
       </c>
-      <c r="S12" s="293" t="s">
+      <c r="S12" s="297" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A13" s="286"/>
-      <c r="B13" s="292"/>
-      <c r="C13" s="292"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="286"/>
-      <c r="F13" s="292"/>
-      <c r="G13" s="294"/>
-      <c r="H13" s="292"/>
-      <c r="I13" s="292"/>
-      <c r="N13" s="292"/>
-      <c r="O13" s="292"/>
-      <c r="P13" s="286"/>
-      <c r="Q13" s="286"/>
-      <c r="R13" s="292"/>
-      <c r="S13" s="294"/>
+      <c r="A13" s="290"/>
+      <c r="B13" s="296"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="290"/>
+      <c r="E13" s="290"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="N13" s="296"/>
+      <c r="O13" s="296"/>
+      <c r="P13" s="290"/>
+      <c r="Q13" s="290"/>
+      <c r="R13" s="296"/>
+      <c r="S13" s="298"/>
     </row>
     <row r="14" spans="1:20" s="2" customFormat="1" ht="9.75" customHeight="1">
       <c r="A14" s="30" t="s">
@@ -18440,33 +18594,33 @@
         <v>1</v>
       </c>
       <c r="K16" s="208"/>
-      <c r="N16" s="24" t="str">
+      <c r="N16" s="24">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong1),"",OFFSET('141-TT'!B$1,SMALL(Dong1,ROWS($1:1)),))</f>
-        <v>C02</v>
+        <v>0</v>
       </c>
       <c r="O16" s="150">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong1),"",OFFSET('141-TT'!C$1,SMALL(Dong1,ROWS($1:1)),))</f>
-        <v>42156</v>
+        <v>42216</v>
       </c>
       <c r="P16" s="24" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong1),"",OFFSET('141-TT'!D$1,SMALL(Dong1,ROWS($1:1)),))</f>
-        <v>Tạm ứng mua NL</v>
+        <v>Đỗ Văn Tâm</v>
       </c>
       <c r="Q16" s="24" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong1),"",OFFSET('141-TT'!E$1,SMALL(Dong1,ROWS($1:1)),))</f>
-        <v>111</v>
+        <v>331</v>
       </c>
       <c r="R16" s="24">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong1),"",OFFSET('141-TT'!F$1,SMALL(Dong1,ROWS($1:1)),))</f>
-        <v>650000000</v>
+        <v>0</v>
       </c>
       <c r="S16" s="24">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong1),"",OFFSET('141-TT'!G$1,SMALL(Dong1,ROWS($1:1)),))</f>
-        <v>0</v>
+        <v>86130000</v>
       </c>
       <c r="T16" s="1" t="str">
         <f ca="1">IF(IF(ROWS($1:1)&gt;COUNT(Dong1),"",OFFSET('141-TT'!K$1,SMALL(Dong1,ROWS($1:1)),))=0,"",IF(ROWS($1:1)&gt;COUNT(Dong1),"",OFFSET('141-TT'!K$1,SMALL(Dong1,ROWS($1:1)),)))</f>
-        <v/>
+        <v>N15</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="17.25" customHeight="1">
@@ -18503,33 +18657,33 @@
         <v>1</v>
       </c>
       <c r="K17" s="208"/>
-      <c r="N17" s="24" t="str">
+      <c r="N17" s="24">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong1),"",OFFSET('141-TT'!B$1,SMALL(Dong1,ROWS($1:2)),))</f>
-        <v>C09</v>
+        <v>0</v>
       </c>
       <c r="O17" s="150">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong1),"",OFFSET('141-TT'!C$1,SMALL(Dong1,ROWS($1:2)),))</f>
-        <v>42158</v>
+        <v>42216</v>
       </c>
       <c r="P17" s="24" t="str">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong1),"",OFFSET('141-TT'!D$1,SMALL(Dong1,ROWS($1:2)),))</f>
-        <v>Tạm ứng mua NL</v>
+        <v>Hồ Thị Mỹ</v>
       </c>
       <c r="Q17" s="24" t="str">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong1),"",OFFSET('141-TT'!E$1,SMALL(Dong1,ROWS($1:2)),))</f>
-        <v>111</v>
+        <v>331</v>
       </c>
       <c r="R17" s="24">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong1),"",OFFSET('141-TT'!F$1,SMALL(Dong1,ROWS($1:2)),))</f>
-        <v>650000000</v>
+        <v>0</v>
       </c>
       <c r="S17" s="24">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong1),"",OFFSET('141-TT'!G$1,SMALL(Dong1,ROWS($1:2)),))</f>
-        <v>0</v>
+        <v>147515000</v>
       </c>
       <c r="T17" s="1" t="str">
         <f ca="1">IF(IF(ROWS($1:2)&gt;COUNT(Dong1),"",OFFSET('141-TT'!K$1,SMALL(Dong1,ROWS($1:2)),))=0,"",IF(ROWS($1:2)&gt;COUNT(Dong1),"",OFFSET('141-TT'!K$1,SMALL(Dong1,ROWS($1:2)),)))</f>
-        <v/>
+        <v>N16 &amp; N12</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="17.25" customHeight="1">
@@ -18566,33 +18720,33 @@
         <v>1</v>
       </c>
       <c r="K18" s="208"/>
-      <c r="N18" s="24" t="str">
+      <c r="N18" s="24">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong1),"",OFFSET('141-TT'!B$1,SMALL(Dong1,ROWS($1:3)),))</f>
-        <v>C32</v>
+        <v>0</v>
       </c>
       <c r="O18" s="150">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong1),"",OFFSET('141-TT'!C$1,SMALL(Dong1,ROWS($1:3)),))</f>
-        <v>42179</v>
+        <v>42216</v>
       </c>
       <c r="P18" s="24" t="str">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong1),"",OFFSET('141-TT'!D$1,SMALL(Dong1,ROWS($1:3)),))</f>
-        <v>Tạm ứng mua NL</v>
+        <v>Nguyễn Đức Tiến</v>
       </c>
       <c r="Q18" s="24" t="str">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong1),"",OFFSET('141-TT'!E$1,SMALL(Dong1,ROWS($1:3)),))</f>
-        <v>111</v>
+        <v>331</v>
       </c>
       <c r="R18" s="24">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong1),"",OFFSET('141-TT'!F$1,SMALL(Dong1,ROWS($1:3)),))</f>
-        <v>590000000</v>
+        <v>0</v>
       </c>
       <c r="S18" s="24">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong1),"",OFFSET('141-TT'!G$1,SMALL(Dong1,ROWS($1:3)),))</f>
-        <v>0</v>
+        <v>147725000</v>
       </c>
       <c r="T18" s="1" t="str">
         <f ca="1">IF(IF(ROWS($1:3)&gt;COUNT(Dong1),"",OFFSET('141-TT'!K$1,SMALL(Dong1,ROWS($1:3)),))=0,"",IF(ROWS($1:3)&gt;COUNT(Dong1),"",OFFSET('141-TT'!K$1,SMALL(Dong1,ROWS($1:3)),)))</f>
-        <v/>
+        <v>N18 &amp; N14</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="17.25" customHeight="1">
@@ -18635,11 +18789,11 @@
       </c>
       <c r="O19" s="150">
         <f ca="1">IF(ROWS($1:4)&gt;COUNT(Dong1),"",OFFSET('141-TT'!C$1,SMALL(Dong1,ROWS($1:4)),))</f>
-        <v>42185</v>
+        <v>42216</v>
       </c>
       <c r="P19" s="24" t="str">
         <f ca="1">IF(ROWS($1:4)&gt;COUNT(Dong1),"",OFFSET('141-TT'!D$1,SMALL(Dong1,ROWS($1:4)),))</f>
-        <v>Võ Thị Bảy</v>
+        <v>Nguyễn Thanh Vân</v>
       </c>
       <c r="Q19" s="24" t="str">
         <f ca="1">IF(ROWS($1:4)&gt;COUNT(Dong1),"",OFFSET('141-TT'!E$1,SMALL(Dong1,ROWS($1:4)),))</f>
@@ -18651,11 +18805,11 @@
       </c>
       <c r="S19" s="24">
         <f ca="1">IF(ROWS($1:4)&gt;COUNT(Dong1),"",OFFSET('141-TT'!G$1,SMALL(Dong1,ROWS($1:4)),))</f>
-        <v>142989000</v>
+        <v>235724500</v>
       </c>
       <c r="T19" s="1" t="str">
         <f ca="1">IF(IF(ROWS($1:4)&gt;COUNT(Dong1),"",OFFSET('141-TT'!K$1,SMALL(Dong1,ROWS($1:4)),))=0,"",IF(ROWS($1:4)&gt;COUNT(Dong1),"",OFFSET('141-TT'!K$1,SMALL(Dong1,ROWS($1:4)),)))</f>
-        <v>N04 &amp; N23</v>
+        <v>N03 &amp; N07 &amp; N20</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="17.25" customHeight="1">
@@ -18698,11 +18852,11 @@
       </c>
       <c r="O20" s="150">
         <f ca="1">IF(ROWS($1:5)&gt;COUNT(Dong1),"",OFFSET('141-TT'!C$1,SMALL(Dong1,ROWS($1:5)),))</f>
-        <v>42185</v>
+        <v>42216</v>
       </c>
       <c r="P20" s="24" t="str">
         <f ca="1">IF(ROWS($1:5)&gt;COUNT(Dong1),"",OFFSET('141-TT'!D$1,SMALL(Dong1,ROWS($1:5)),))</f>
-        <v>Võ Văn Bá</v>
+        <v>Nguyễn Thanh Vinh</v>
       </c>
       <c r="Q20" s="24" t="str">
         <f ca="1">IF(ROWS($1:5)&gt;COUNT(Dong1),"",OFFSET('141-TT'!E$1,SMALL(Dong1,ROWS($1:5)),))</f>
@@ -18714,11 +18868,11 @@
       </c>
       <c r="S20" s="24">
         <f ca="1">IF(ROWS($1:5)&gt;COUNT(Dong1),"",OFFSET('141-TT'!G$1,SMALL(Dong1,ROWS($1:5)),))</f>
-        <v>260935000</v>
+        <v>149449500</v>
       </c>
       <c r="T20" s="1" t="str">
         <f ca="1">IF(IF(ROWS($1:5)&gt;COUNT(Dong1),"",OFFSET('141-TT'!K$1,SMALL(Dong1,ROWS($1:5)),))=0,"",IF(ROWS($1:5)&gt;COUNT(Dong1),"",OFFSET('141-TT'!K$1,SMALL(Dong1,ROWS($1:5)),)))</f>
-        <v>N05 &amp; N24 &amp; N25</v>
+        <v>N08 &amp; N04</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="17.25" customHeight="1">
@@ -18763,11 +18917,11 @@
       </c>
       <c r="O21" s="150">
         <f ca="1">IF(ROWS($1:6)&gt;COUNT(Dong1),"",OFFSET('141-TT'!C$1,SMALL(Dong1,ROWS($1:6)),))</f>
-        <v>42185</v>
+        <v>42216</v>
       </c>
       <c r="P21" s="24" t="str">
         <f ca="1">IF(ROWS($1:6)&gt;COUNT(Dong1),"",OFFSET('141-TT'!D$1,SMALL(Dong1,ROWS($1:6)),))</f>
-        <v>Nguyễn Thanh Vân</v>
+        <v>Phạm Thị Ngọc</v>
       </c>
       <c r="Q21" s="24" t="str">
         <f ca="1">IF(ROWS($1:6)&gt;COUNT(Dong1),"",OFFSET('141-TT'!E$1,SMALL(Dong1,ROWS($1:6)),))</f>
@@ -18779,11 +18933,11 @@
       </c>
       <c r="S21" s="24">
         <f ca="1">IF(ROWS($1:6)&gt;COUNT(Dong1),"",OFFSET('141-TT'!G$1,SMALL(Dong1,ROWS($1:6)),))</f>
-        <v>246919000</v>
+        <v>158411500</v>
       </c>
       <c r="T21" s="1" t="str">
         <f ca="1">IF(IF(ROWS($1:6)&gt;COUNT(Dong1),"",OFFSET('141-TT'!K$1,SMALL(Dong1,ROWS($1:6)),))=0,"",IF(ROWS($1:6)&gt;COUNT(Dong1),"",OFFSET('141-TT'!K$1,SMALL(Dong1,ROWS($1:6)),)))</f>
-        <v>N06 &amp; N26 &amp; N28</v>
+        <v>N17 &amp; N13</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="17.25" customHeight="1">
@@ -18828,11 +18982,11 @@
       </c>
       <c r="O22" s="150">
         <f ca="1">IF(ROWS($1:7)&gt;COUNT(Dong1),"",OFFSET('141-TT'!C$1,SMALL(Dong1,ROWS($1:7)),))</f>
-        <v>42185</v>
+        <v>42216</v>
       </c>
       <c r="P22" s="24" t="str">
         <f ca="1">IF(ROWS($1:7)&gt;COUNT(Dong1),"",OFFSET('141-TT'!D$1,SMALL(Dong1,ROWS($1:7)),))</f>
-        <v>Nguyễn Thanh Vinh</v>
+        <v>Võ Thị Bảy</v>
       </c>
       <c r="Q22" s="24" t="str">
         <f ca="1">IF(ROWS($1:7)&gt;COUNT(Dong1),"",OFFSET('141-TT'!E$1,SMALL(Dong1,ROWS($1:7)),))</f>
@@ -18844,11 +18998,11 @@
       </c>
       <c r="S22" s="24">
         <f ca="1">IF(ROWS($1:7)&gt;COUNT(Dong1),"",OFFSET('141-TT'!G$1,SMALL(Dong1,ROWS($1:7)),))</f>
-        <v>268324000</v>
+        <v>150486000</v>
       </c>
       <c r="T22" s="1" t="str">
         <f ca="1">IF(IF(ROWS($1:7)&gt;COUNT(Dong1),"",OFFSET('141-TT'!K$1,SMALL(Dong1,ROWS($1:7)),))=0,"",IF(ROWS($1:7)&gt;COUNT(Dong1),"",OFFSET('141-TT'!K$1,SMALL(Dong1,ROWS($1:7)),)))</f>
-        <v>N07 &amp; N27 &amp; N29</v>
+        <v>N01 &amp; N05</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="17.25" customHeight="1">
@@ -18893,11 +19047,11 @@
       </c>
       <c r="O23" s="150">
         <f ca="1">IF(ROWS($1:8)&gt;COUNT(Dong1),"",OFFSET('141-TT'!C$1,SMALL(Dong1,ROWS($1:8)),))</f>
-        <v>42185</v>
+        <v>42216</v>
       </c>
       <c r="P23" s="24" t="str">
         <f ca="1">IF(ROWS($1:8)&gt;COUNT(Dong1),"",OFFSET('141-TT'!D$1,SMALL(Dong1,ROWS($1:8)),))</f>
-        <v>Hồ Thị Mỹ</v>
+        <v>Võ Văn Bá</v>
       </c>
       <c r="Q23" s="24" t="str">
         <f ca="1">IF(ROWS($1:8)&gt;COUNT(Dong1),"",OFFSET('141-TT'!E$1,SMALL(Dong1,ROWS($1:8)),))</f>
@@ -18909,11 +19063,11 @@
       </c>
       <c r="S23" s="24">
         <f ca="1">IF(ROWS($1:8)&gt;COUNT(Dong1),"",OFFSET('141-TT'!G$1,SMALL(Dong1,ROWS($1:8)),))</f>
-        <v>221650000</v>
+        <v>219808500</v>
       </c>
       <c r="T23" s="1" t="str">
         <f ca="1">IF(IF(ROWS($1:8)&gt;COUNT(Dong1),"",OFFSET('141-TT'!K$1,SMALL(Dong1,ROWS($1:8)),))=0,"",IF(ROWS($1:8)&gt;COUNT(Dong1),"",OFFSET('141-TT'!K$1,SMALL(Dong1,ROWS($1:8)),)))</f>
-        <v>N10 &amp; N18 &amp; N30</v>
+        <v>N02 &amp; N06 &amp; N19</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="17.25" customHeight="1">
@@ -18952,33 +19106,33 @@
       <c r="K24" s="208" t="s">
         <v>184</v>
       </c>
-      <c r="N24" s="24">
+      <c r="N24" s="24" t="str">
         <f ca="1">IF(ROWS($1:9)&gt;COUNT(Dong1),"",OFFSET('141-TT'!B$1,SMALL(Dong1,ROWS($1:9)),))</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="150">
+        <v/>
+      </c>
+      <c r="O24" s="150" t="str">
         <f ca="1">IF(ROWS($1:9)&gt;COUNT(Dong1),"",OFFSET('141-TT'!C$1,SMALL(Dong1,ROWS($1:9)),))</f>
-        <v>42185</v>
+        <v/>
       </c>
       <c r="P24" s="24" t="str">
         <f ca="1">IF(ROWS($1:9)&gt;COUNT(Dong1),"",OFFSET('141-TT'!D$1,SMALL(Dong1,ROWS($1:9)),))</f>
-        <v>Phạm Thị Ngọc</v>
+        <v/>
       </c>
       <c r="Q24" s="24" t="str">
         <f ca="1">IF(ROWS($1:9)&gt;COUNT(Dong1),"",OFFSET('141-TT'!E$1,SMALL(Dong1,ROWS($1:9)),))</f>
-        <v>331</v>
-      </c>
-      <c r="R24" s="24">
+        <v/>
+      </c>
+      <c r="R24" s="24" t="str">
         <f ca="1">IF(ROWS($1:9)&gt;COUNT(Dong1),"",OFFSET('141-TT'!F$1,SMALL(Dong1,ROWS($1:9)),))</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="24">
+        <v/>
+      </c>
+      <c r="S24" s="24" t="str">
         <f ca="1">IF(ROWS($1:9)&gt;COUNT(Dong1),"",OFFSET('141-TT'!G$1,SMALL(Dong1,ROWS($1:9)),))</f>
-        <v>212465000</v>
+        <v/>
       </c>
       <c r="T24" s="1" t="str">
         <f ca="1">IF(IF(ROWS($1:9)&gt;COUNT(Dong1),"",OFFSET('141-TT'!K$1,SMALL(Dong1,ROWS($1:9)),))=0,"",IF(ROWS($1:9)&gt;COUNT(Dong1),"",OFFSET('141-TT'!K$1,SMALL(Dong1,ROWS($1:9)),)))</f>
-        <v>N11 &amp; N19 &amp; N31</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:20" ht="17.25" customHeight="1">
@@ -19017,33 +19171,33 @@
       <c r="K25" s="208" t="s">
         <v>197</v>
       </c>
-      <c r="N25" s="24">
+      <c r="N25" s="24" t="str">
         <f ca="1">IF(ROWS($1:10)&gt;COUNT(Dong1),"",OFFSET('141-TT'!B$1,SMALL(Dong1,ROWS($1:10)),))</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="150">
+        <v/>
+      </c>
+      <c r="O25" s="150" t="str">
         <f ca="1">IF(ROWS($1:10)&gt;COUNT(Dong1),"",OFFSET('141-TT'!C$1,SMALL(Dong1,ROWS($1:10)),))</f>
-        <v>42185</v>
+        <v/>
       </c>
       <c r="P25" s="24" t="str">
         <f ca="1">IF(ROWS($1:10)&gt;COUNT(Dong1),"",OFFSET('141-TT'!D$1,SMALL(Dong1,ROWS($1:10)),))</f>
-        <v>Nguyễn Đức Tiến</v>
+        <v/>
       </c>
       <c r="Q25" s="24" t="str">
         <f ca="1">IF(ROWS($1:10)&gt;COUNT(Dong1),"",OFFSET('141-TT'!E$1,SMALL(Dong1,ROWS($1:10)),))</f>
-        <v>331</v>
-      </c>
-      <c r="R25" s="24">
+        <v/>
+      </c>
+      <c r="R25" s="24" t="str">
         <f ca="1">IF(ROWS($1:10)&gt;COUNT(Dong1),"",OFFSET('141-TT'!F$1,SMALL(Dong1,ROWS($1:10)),))</f>
-        <v>0</v>
-      </c>
-      <c r="S25" s="24">
+        <v/>
+      </c>
+      <c r="S25" s="24" t="str">
         <f ca="1">IF(ROWS($1:10)&gt;COUNT(Dong1),"",OFFSET('141-TT'!G$1,SMALL(Dong1,ROWS($1:10)),))</f>
-        <v>147246000</v>
+        <v/>
       </c>
       <c r="T25" s="1" t="str">
         <f ca="1">IF(IF(ROWS($1:10)&gt;COUNT(Dong1),"",OFFSET('141-TT'!K$1,SMALL(Dong1,ROWS($1:10)),))=0,"",IF(ROWS($1:10)&gt;COUNT(Dong1),"",OFFSET('141-TT'!K$1,SMALL(Dong1,ROWS($1:10)),)))</f>
-        <v>N12 &amp; N20</v>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:20" ht="17.25" customHeight="1">
@@ -19082,33 +19236,33 @@
       <c r="K26" s="208" t="s">
         <v>198</v>
       </c>
-      <c r="N26" s="24">
+      <c r="N26" s="24" t="str">
         <f ca="1">IF(ROWS($1:11)&gt;COUNT(Dong1),"",OFFSET('141-TT'!B$1,SMALL(Dong1,ROWS($1:11)),))</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="150">
+        <v/>
+      </c>
+      <c r="O26" s="150" t="str">
         <f ca="1">IF(ROWS($1:11)&gt;COUNT(Dong1),"",OFFSET('141-TT'!C$1,SMALL(Dong1,ROWS($1:11)),))</f>
-        <v>42185</v>
+        <v/>
       </c>
       <c r="P26" s="24" t="str">
         <f ca="1">IF(ROWS($1:11)&gt;COUNT(Dong1),"",OFFSET('141-TT'!D$1,SMALL(Dong1,ROWS($1:11)),))</f>
-        <v>Đỗ Văn Tâm</v>
+        <v/>
       </c>
       <c r="Q26" s="24" t="str">
         <f ca="1">IF(ROWS($1:11)&gt;COUNT(Dong1),"",OFFSET('141-TT'!E$1,SMALL(Dong1,ROWS($1:11)),))</f>
-        <v>331</v>
-      </c>
-      <c r="R26" s="24">
+        <v/>
+      </c>
+      <c r="R26" s="24" t="str">
         <f ca="1">IF(ROWS($1:11)&gt;COUNT(Dong1),"",OFFSET('141-TT'!F$1,SMALL(Dong1,ROWS($1:11)),))</f>
-        <v>0</v>
-      </c>
-      <c r="S26" s="24">
+        <v/>
+      </c>
+      <c r="S26" s="24" t="str">
         <f ca="1">IF(ROWS($1:11)&gt;COUNT(Dong1),"",OFFSET('141-TT'!G$1,SMALL(Dong1,ROWS($1:11)),))</f>
-        <v>141130000</v>
+        <v/>
       </c>
       <c r="T26" s="1" t="str">
         <f ca="1">IF(IF(ROWS($1:11)&gt;COUNT(Dong1),"",OFFSET('141-TT'!K$1,SMALL(Dong1,ROWS($1:11)),))=0,"",IF(ROWS($1:11)&gt;COUNT(Dong1),"",OFFSET('141-TT'!K$1,SMALL(Dong1,ROWS($1:11)),)))</f>
-        <v>N13 &amp; N21</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:20" ht="17.25" customHeight="1">
@@ -19147,33 +19301,33 @@
       <c r="K27" s="208" t="s">
         <v>179</v>
       </c>
-      <c r="N27" s="24">
+      <c r="N27" s="24" t="str">
         <f ca="1">IF(ROWS($1:12)&gt;COUNT(Dong1),"",OFFSET('141-TT'!B$1,SMALL(Dong1,ROWS($1:12)),))</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="150">
+        <v/>
+      </c>
+      <c r="O27" s="150" t="str">
         <f ca="1">IF(ROWS($1:12)&gt;COUNT(Dong1),"",OFFSET('141-TT'!C$1,SMALL(Dong1,ROWS($1:12)),))</f>
-        <v>42185</v>
+        <v/>
       </c>
       <c r="P27" s="24" t="str">
         <f ca="1">IF(ROWS($1:12)&gt;COUNT(Dong1),"",OFFSET('141-TT'!D$1,SMALL(Dong1,ROWS($1:12)),))</f>
-        <v>Trương Văn Minh</v>
+        <v/>
       </c>
       <c r="Q27" s="24" t="str">
         <f ca="1">IF(ROWS($1:12)&gt;COUNT(Dong1),"",OFFSET('141-TT'!E$1,SMALL(Dong1,ROWS($1:12)),))</f>
-        <v>331</v>
-      </c>
-      <c r="R27" s="24">
+        <v/>
+      </c>
+      <c r="R27" s="24" t="str">
         <f ca="1">IF(ROWS($1:12)&gt;COUNT(Dong1),"",OFFSET('141-TT'!F$1,SMALL(Dong1,ROWS($1:12)),))</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="24">
+        <v/>
+      </c>
+      <c r="S27" s="24" t="str">
         <f ca="1">IF(ROWS($1:12)&gt;COUNT(Dong1),"",OFFSET('141-TT'!G$1,SMALL(Dong1,ROWS($1:12)),))</f>
-        <v>148742000</v>
+        <v/>
       </c>
       <c r="T27" s="1" t="str">
         <f ca="1">IF(IF(ROWS($1:12)&gt;COUNT(Dong1),"",OFFSET('141-TT'!K$1,SMALL(Dong1,ROWS($1:12)),))=0,"",IF(ROWS($1:12)&gt;COUNT(Dong1),"",OFFSET('141-TT'!K$1,SMALL(Dong1,ROWS($1:12)),)))</f>
-        <v>N17 &amp; N22</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:20" ht="17.25" customHeight="1">
@@ -19212,33 +19366,33 @@
       <c r="K28" s="208" t="s">
         <v>188</v>
       </c>
-      <c r="N28" s="24">
+      <c r="N28" s="24" t="str">
         <f ca="1">IF(ROWS($1:13)&gt;COUNT(Dong1),"",OFFSET('141-TT'!B$1,SMALL(Dong1,ROWS($1:13)),))</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="150">
+        <v/>
+      </c>
+      <c r="O28" s="150" t="str">
         <f ca="1">IF(ROWS($1:13)&gt;COUNT(Dong1),"",OFFSET('141-TT'!C$1,SMALL(Dong1,ROWS($1:13)),))</f>
-        <v>42185</v>
+        <v/>
       </c>
       <c r="P28" s="24" t="str">
         <f ca="1">IF(ROWS($1:13)&gt;COUNT(Dong1),"",OFFSET('141-TT'!D$1,SMALL(Dong1,ROWS($1:13)),))</f>
-        <v>Nguyễn Thị Kim Vân</v>
+        <v/>
       </c>
       <c r="Q28" s="24" t="str">
         <f ca="1">IF(ROWS($1:13)&gt;COUNT(Dong1),"",OFFSET('141-TT'!E$1,SMALL(Dong1,ROWS($1:13)),))</f>
-        <v>331</v>
-      </c>
-      <c r="R28" s="24">
+        <v/>
+      </c>
+      <c r="R28" s="24" t="str">
         <f ca="1">IF(ROWS($1:13)&gt;COUNT(Dong1),"",OFFSET('141-TT'!F$1,SMALL(Dong1,ROWS($1:13)),))</f>
-        <v>0</v>
-      </c>
-      <c r="S28" s="24">
+        <v/>
+      </c>
+      <c r="S28" s="24" t="str">
         <f ca="1">IF(ROWS($1:13)&gt;COUNT(Dong1),"",OFFSET('141-TT'!G$1,SMALL(Dong1,ROWS($1:13)),))</f>
-        <v>100275000</v>
+        <v/>
       </c>
       <c r="T28" s="1" t="str">
         <f ca="1">IF(IF(ROWS($1:13)&gt;COUNT(Dong1),"",OFFSET('141-TT'!K$1,SMALL(Dong1,ROWS($1:13)),))=0,"",IF(ROWS($1:13)&gt;COUNT(Dong1),"",OFFSET('141-TT'!K$1,SMALL(Dong1,ROWS($1:13)),)))</f>
-        <v>N37</v>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:20" ht="17.25" customHeight="1">
@@ -19837,7 +19991,7 @@
       <c r="E38" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="306">
+      <c r="F38" s="256">
         <v>520000000</v>
       </c>
       <c r="G38" s="20"/>
@@ -20632,7 +20786,7 @@
       <c r="E51" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F51" s="306">
+      <c r="F51" s="256">
         <v>550000000</v>
       </c>
       <c r="G51" s="20"/>
@@ -20673,7 +20827,7 @@
       <c r="E52" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F52" s="306">
+      <c r="F52" s="256">
         <v>570000000</v>
       </c>
       <c r="G52" s="20"/>
@@ -21272,7 +21426,7 @@
       <c r="E66" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F66" s="306">
+      <c r="F66" s="256">
         <v>420000000</v>
       </c>
       <c r="G66" s="20"/>
@@ -21612,7 +21766,7 @@
       <c r="E74" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F74" s="306">
+      <c r="F74" s="256">
         <v>530000000</v>
       </c>
       <c r="G74" s="58"/>
@@ -22122,7 +22276,7 @@
       <c r="E86" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F86" s="306">
+      <c r="F86" s="256">
         <v>590000000</v>
       </c>
       <c r="G86" s="9"/>
@@ -22166,11 +22320,11 @@
         <v>142989000</v>
       </c>
       <c r="H87" s="5">
-        <f t="shared" ref="H87:H99" si="16">MAX(H86+F87-G87-I86,0)</f>
+        <f t="shared" ref="H87:H98" si="16">MAX(H86+F87-G87-I86,0)</f>
         <v>1751354000</v>
       </c>
       <c r="I87" s="5">
-        <f t="shared" ref="I87:I99" si="17">MAX(I86+G87-F87-H86,0)</f>
+        <f t="shared" ref="I87:I98" si="17">MAX(I86+G87-F87-H86,0)</f>
         <v>0</v>
       </c>
       <c r="J87" s="37">
@@ -22569,7 +22723,7 @@
       <c r="E97" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F97" s="306">
+      <c r="F97" s="256">
         <v>450000000</v>
       </c>
       <c r="G97" s="20"/>
@@ -22606,7 +22760,7 @@
       <c r="E98" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F98" s="306">
+      <c r="F98" s="256">
         <v>450000000</v>
       </c>
       <c r="G98" s="20"/>
@@ -22643,7 +22797,7 @@
       <c r="E99" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F99" s="306">
+      <c r="F99" s="256">
         <v>400000000</v>
       </c>
       <c r="G99" s="9"/>
@@ -22998,14 +23152,23 @@
     <row r="108" spans="1:19" ht="17.25" customHeight="1">
       <c r="A108" s="14"/>
       <c r="B108" s="24"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="9"/>
+      <c r="C108" s="11">
+        <f t="shared" ref="C108:C118" si="20">A108</f>
+        <v>0</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E108" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F108" s="9">
+        <v>500000000</v>
+      </c>
       <c r="G108" s="25"/>
       <c r="H108" s="5">
         <f t="shared" si="18"/>
-        <v>8418000</v>
+        <v>508418000</v>
       </c>
       <c r="I108" s="5">
         <f t="shared" si="19"/>
@@ -23026,14 +23189,23 @@
     <row r="109" spans="1:19" ht="17.25" customHeight="1">
       <c r="A109" s="14"/>
       <c r="B109" s="24"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="9"/>
+      <c r="C109" s="11">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E109" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F109" s="9">
+        <v>500000000</v>
+      </c>
       <c r="G109" s="25"/>
       <c r="H109" s="5">
         <f t="shared" si="18"/>
-        <v>8418000</v>
+        <v>1008418000</v>
       </c>
       <c r="I109" s="5">
         <f t="shared" si="19"/>
@@ -23054,14 +23226,23 @@
     <row r="110" spans="1:19" ht="17.25" customHeight="1">
       <c r="A110" s="14"/>
       <c r="B110" s="24"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="9"/>
+      <c r="C110" s="11">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E110" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F110" s="9">
+        <v>450000000</v>
+      </c>
       <c r="G110" s="25"/>
       <c r="H110" s="5">
         <f t="shared" si="18"/>
-        <v>8418000</v>
+        <v>1458418000</v>
       </c>
       <c r="I110" s="5">
         <f t="shared" si="19"/>
@@ -23080,26 +23261,39 @@
       <c r="S110" s="61"/>
     </row>
     <row r="111" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A111" s="14"/>
+      <c r="A111" s="14">
+        <v>42247</v>
+      </c>
       <c r="B111" s="24"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="12"/>
+      <c r="C111" s="11">
+        <f t="shared" si="20"/>
+        <v>42247</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="F111" s="9"/>
-      <c r="G111" s="25"/>
+      <c r="G111" s="25">
+        <v>371864000</v>
+      </c>
       <c r="H111" s="5">
         <f t="shared" si="18"/>
-        <v>8418000</v>
+        <v>1086554000</v>
       </c>
       <c r="I111" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J111" s="37" t="str">
+      <c r="J111" s="37">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K111" s="208"/>
+        <v>8</v>
+      </c>
+      <c r="K111" s="208" t="s">
+        <v>344</v>
+      </c>
       <c r="N111" s="93"/>
       <c r="O111" s="51"/>
       <c r="P111" s="54"/>
@@ -23108,26 +23302,39 @@
       <c r="S111" s="61"/>
     </row>
     <row r="112" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A112" s="14"/>
+      <c r="A112" s="14">
+        <v>42247</v>
+      </c>
       <c r="B112" s="24"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="12"/>
+      <c r="C112" s="11">
+        <f t="shared" si="20"/>
+        <v>42247</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="F112" s="9"/>
-      <c r="G112" s="20"/>
+      <c r="G112" s="20">
+        <v>309327000</v>
+      </c>
       <c r="H112" s="5">
         <f t="shared" si="18"/>
-        <v>8418000</v>
+        <v>777227000</v>
       </c>
       <c r="I112" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J112" s="37" t="str">
+      <c r="J112" s="37">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K112" s="208"/>
+        <v>8</v>
+      </c>
+      <c r="K112" s="208" t="s">
+        <v>345</v>
+      </c>
       <c r="N112" s="93"/>
       <c r="O112" s="51"/>
       <c r="P112" s="54"/>
@@ -23136,26 +23343,39 @@
       <c r="S112" s="61"/>
     </row>
     <row r="113" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A113" s="14"/>
+      <c r="A113" s="14">
+        <v>42247</v>
+      </c>
       <c r="B113" s="24"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="12"/>
+      <c r="C113" s="11">
+        <f t="shared" si="20"/>
+        <v>42247</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="F113" s="9"/>
-      <c r="G113" s="20"/>
+      <c r="G113" s="20">
+        <v>234002000</v>
+      </c>
       <c r="H113" s="5">
         <f t="shared" si="18"/>
-        <v>8418000</v>
+        <v>543225000</v>
       </c>
       <c r="I113" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J113" s="37" t="str">
-        <f t="shared" ref="J113:J130" si="20">IF(A113&lt;&gt;"",MONTH(A113),"")</f>
-        <v/>
-      </c>
-      <c r="K113" s="208"/>
+      <c r="J113" s="37">
+        <f t="shared" ref="J113:J130" si="21">IF(A113&lt;&gt;"",MONTH(A113),"")</f>
+        <v>8</v>
+      </c>
+      <c r="K113" s="208" t="s">
+        <v>346</v>
+      </c>
       <c r="N113" s="93"/>
       <c r="O113" s="51"/>
       <c r="P113" s="54"/>
@@ -23164,26 +23384,39 @@
       <c r="S113" s="61"/>
     </row>
     <row r="114" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A114" s="14"/>
+      <c r="A114" s="14">
+        <v>42247</v>
+      </c>
       <c r="B114" s="24"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="17"/>
-      <c r="E114" s="12"/>
+      <c r="C114" s="11">
+        <f t="shared" si="20"/>
+        <v>42247</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="F114" s="9"/>
-      <c r="G114" s="20"/>
+      <c r="G114" s="20">
+        <v>84893000</v>
+      </c>
       <c r="H114" s="5">
         <f t="shared" si="18"/>
-        <v>8418000</v>
+        <v>458332000</v>
       </c>
       <c r="I114" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J114" s="37" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="K114" s="208"/>
+      <c r="J114" s="37">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="K114" s="208" t="s">
+        <v>212</v>
+      </c>
       <c r="N114" s="93"/>
       <c r="O114" s="51"/>
       <c r="P114" s="54"/>
@@ -23192,24 +23425,38 @@
       <c r="S114" s="61"/>
     </row>
     <row r="115" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A115" s="14"/>
+      <c r="A115" s="14">
+        <v>42247</v>
+      </c>
       <c r="B115" s="24"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="17"/>
-      <c r="E115" s="38"/>
+      <c r="C115" s="11">
+        <f t="shared" si="20"/>
+        <v>42247</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="F115" s="55"/>
-      <c r="G115" s="5"/>
+      <c r="G115" s="5">
+        <v>150868500</v>
+      </c>
       <c r="H115" s="5">
         <f t="shared" si="18"/>
-        <v>8418000</v>
+        <v>307463500</v>
       </c>
       <c r="I115" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J115" s="37" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+      <c r="J115" s="37">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="K115" s="207" t="s">
+        <v>347</v>
       </c>
       <c r="N115" s="93"/>
       <c r="O115" s="51"/>
@@ -23219,24 +23466,38 @@
       <c r="S115" s="62"/>
     </row>
     <row r="116" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A116" s="14"/>
+      <c r="A116" s="14">
+        <v>42247</v>
+      </c>
       <c r="B116" s="24"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="17"/>
-      <c r="E116" s="38"/>
+      <c r="C116" s="11">
+        <f t="shared" si="20"/>
+        <v>42247</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="F116" s="55"/>
-      <c r="G116" s="5"/>
+      <c r="G116" s="5">
+        <v>144486000</v>
+      </c>
       <c r="H116" s="5">
-        <f t="shared" ref="H101:H138" si="21">MAX(H115+F116-G116-I115,0)</f>
-        <v>8418000</v>
+        <f t="shared" ref="H116:H138" si="22">MAX(H115+F116-G116-I115,0)</f>
+        <v>162977500</v>
       </c>
       <c r="I116" s="5">
-        <f t="shared" ref="I101:I138" si="22">MAX(I115+G116-F116-H115,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J116" s="37" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" ref="I116:I138" si="23">MAX(I115+G116-F116-H115,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J116" s="37">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="K116" s="207" t="s">
+        <v>223</v>
       </c>
       <c r="N116" s="93"/>
       <c r="O116" s="51"/>
@@ -23246,26 +23507,39 @@
       <c r="S116" s="62"/>
     </row>
     <row r="117" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A117" s="14"/>
+      <c r="A117" s="14">
+        <v>42247</v>
+      </c>
       <c r="B117" s="24"/>
-      <c r="C117" s="11"/>
-      <c r="D117" s="17"/>
-      <c r="E117" s="12"/>
+      <c r="C117" s="11">
+        <f t="shared" si="20"/>
+        <v>42247</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="F117" s="9"/>
-      <c r="G117" s="20"/>
+      <c r="G117" s="20">
+        <v>146659500</v>
+      </c>
       <c r="H117" s="5">
+        <f t="shared" si="22"/>
+        <v>16318000</v>
+      </c>
+      <c r="I117" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="37">
         <f t="shared" si="21"/>
-        <v>8418000</v>
-      </c>
-      <c r="I117" s="5">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J117" s="37" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="K117" s="210"/>
+        <v>8</v>
+      </c>
+      <c r="K117" s="210" t="s">
+        <v>348</v>
+      </c>
       <c r="N117" s="93"/>
       <c r="O117" s="51"/>
       <c r="P117" s="54"/>
@@ -23276,21 +23550,30 @@
     <row r="118" spans="1:19" ht="17.25" customHeight="1">
       <c r="A118" s="14"/>
       <c r="B118" s="24"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="17"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="9"/>
+      <c r="C118" s="11">
+        <f t="shared" ref="C118:C128" si="24">A118</f>
+        <v>0</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E118" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F118" s="9">
+        <v>600000000</v>
+      </c>
       <c r="G118" s="20"/>
       <c r="H118" s="5">
+        <f t="shared" si="22"/>
+        <v>616318000</v>
+      </c>
+      <c r="I118" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J118" s="37" t="str">
         <f t="shared" si="21"/>
-        <v>8418000</v>
-      </c>
-      <c r="I118" s="5">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J118" s="37" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K118" s="208"/>
@@ -23304,21 +23587,30 @@
     <row r="119" spans="1:19" ht="17.25" customHeight="1">
       <c r="A119" s="14"/>
       <c r="B119" s="24"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="9"/>
+      <c r="C119" s="11">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E119" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F119" s="9">
+        <v>600000000</v>
+      </c>
       <c r="G119" s="20"/>
       <c r="H119" s="5">
+        <f t="shared" si="22"/>
+        <v>1216318000</v>
+      </c>
+      <c r="I119" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J119" s="37" t="str">
         <f t="shared" si="21"/>
-        <v>8418000</v>
-      </c>
-      <c r="I119" s="5">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J119" s="37" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K119" s="208"/>
@@ -23332,21 +23624,30 @@
     <row r="120" spans="1:19" ht="17.25" customHeight="1">
       <c r="A120" s="14"/>
       <c r="B120" s="24"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="17"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="9"/>
+      <c r="C120" s="11">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E120" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F120" s="9">
+        <v>520000000</v>
+      </c>
       <c r="G120" s="20"/>
       <c r="H120" s="5">
+        <f t="shared" si="22"/>
+        <v>1736318000</v>
+      </c>
+      <c r="I120" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J120" s="37" t="str">
         <f t="shared" si="21"/>
-        <v>8418000</v>
-      </c>
-      <c r="I120" s="5">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J120" s="37" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K120" s="208"/>
@@ -23358,26 +23659,39 @@
       <c r="S120" s="61"/>
     </row>
     <row r="121" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A121" s="14"/>
+      <c r="A121" s="11">
+        <v>42277</v>
+      </c>
       <c r="B121" s="24"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="12"/>
+      <c r="C121" s="11">
+        <f t="shared" si="24"/>
+        <v>42277</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="F121" s="9"/>
-      <c r="G121" s="20"/>
+      <c r="G121" s="20">
+        <v>428046200</v>
+      </c>
       <c r="H121" s="5">
+        <f t="shared" si="22"/>
+        <v>1308271800</v>
+      </c>
+      <c r="I121" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J121" s="37">
         <f t="shared" si="21"/>
-        <v>8418000</v>
-      </c>
-      <c r="I121" s="5">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J121" s="37" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="K121" s="208"/>
+        <v>9</v>
+      </c>
+      <c r="K121" s="208" t="s">
+        <v>344</v>
+      </c>
       <c r="N121" s="93"/>
       <c r="O121" s="51"/>
       <c r="P121" s="54"/>
@@ -23386,26 +23700,39 @@
       <c r="S121" s="61"/>
     </row>
     <row r="122" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A122" s="14"/>
+      <c r="A122" s="11">
+        <v>42277</v>
+      </c>
       <c r="B122" s="24"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="12"/>
+      <c r="C122" s="11">
+        <f t="shared" si="24"/>
+        <v>42277</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="F122" s="9"/>
-      <c r="G122" s="20"/>
+      <c r="G122" s="20">
+        <v>345593600</v>
+      </c>
       <c r="H122" s="5">
+        <f t="shared" si="22"/>
+        <v>962678200</v>
+      </c>
+      <c r="I122" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J122" s="37">
         <f t="shared" si="21"/>
-        <v>8418000</v>
-      </c>
-      <c r="I122" s="5">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J122" s="37" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="K122" s="208"/>
+        <v>9</v>
+      </c>
+      <c r="K122" s="208" t="s">
+        <v>345</v>
+      </c>
       <c r="N122" s="93"/>
       <c r="O122" s="51"/>
       <c r="P122" s="54"/>
@@ -23414,26 +23741,39 @@
       <c r="S122" s="61"/>
     </row>
     <row r="123" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A123" s="14"/>
+      <c r="A123" s="11">
+        <v>42277</v>
+      </c>
       <c r="B123" s="24"/>
-      <c r="C123" s="11"/>
-      <c r="D123" s="17"/>
-      <c r="E123" s="12"/>
+      <c r="C123" s="11">
+        <f t="shared" si="24"/>
+        <v>42277</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="F123" s="9"/>
-      <c r="G123" s="20"/>
+      <c r="G123" s="20">
+        <v>272658000</v>
+      </c>
       <c r="H123" s="5">
+        <f t="shared" si="22"/>
+        <v>690020200</v>
+      </c>
+      <c r="I123" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J123" s="37">
         <f t="shared" si="21"/>
-        <v>8418000</v>
-      </c>
-      <c r="I123" s="5">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J123" s="37" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="K123" s="208"/>
+        <v>9</v>
+      </c>
+      <c r="K123" s="208" t="s">
+        <v>346</v>
+      </c>
       <c r="N123" s="93"/>
       <c r="O123" s="51"/>
       <c r="P123" s="54"/>
@@ -23442,26 +23782,39 @@
       <c r="S123" s="61"/>
     </row>
     <row r="124" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A124" s="14"/>
+      <c r="A124" s="11">
+        <v>42277</v>
+      </c>
       <c r="B124" s="24"/>
-      <c r="C124" s="11"/>
-      <c r="D124" s="17"/>
-      <c r="E124" s="12"/>
+      <c r="C124" s="11">
+        <f t="shared" si="24"/>
+        <v>42277</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="F124" s="9"/>
-      <c r="G124" s="20"/>
+      <c r="G124" s="20">
+        <v>119922000</v>
+      </c>
       <c r="H124" s="5">
+        <f t="shared" si="22"/>
+        <v>570098200</v>
+      </c>
+      <c r="I124" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="37">
         <f t="shared" si="21"/>
-        <v>8418000</v>
-      </c>
-      <c r="I124" s="5">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J124" s="37" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="K124" s="208"/>
+        <v>9</v>
+      </c>
+      <c r="K124" s="207" t="s">
+        <v>347</v>
+      </c>
       <c r="N124" s="93"/>
       <c r="O124" s="51"/>
       <c r="P124" s="54"/>
@@ -23470,26 +23823,39 @@
       <c r="S124" s="61"/>
     </row>
     <row r="125" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A125" s="14"/>
+      <c r="A125" s="11">
+        <v>42277</v>
+      </c>
       <c r="B125" s="24"/>
-      <c r="C125" s="11"/>
-      <c r="D125" s="17"/>
-      <c r="E125" s="38"/>
+      <c r="C125" s="11">
+        <f t="shared" si="24"/>
+        <v>42277</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="F125" s="55"/>
-      <c r="G125" s="20"/>
+      <c r="G125" s="20">
+        <v>188908000</v>
+      </c>
       <c r="H125" s="5">
+        <f t="shared" si="22"/>
+        <v>381190200</v>
+      </c>
+      <c r="I125" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J125" s="37">
         <f t="shared" si="21"/>
-        <v>8418000</v>
-      </c>
-      <c r="I125" s="5">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J125" s="37" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="K125" s="212"/>
+        <v>9</v>
+      </c>
+      <c r="K125" s="207" t="s">
+        <v>223</v>
+      </c>
       <c r="N125" s="93"/>
       <c r="O125" s="51"/>
       <c r="P125" s="54"/>
@@ -23498,26 +23864,39 @@
       <c r="S125" s="61"/>
     </row>
     <row r="126" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A126" s="14"/>
+      <c r="A126" s="11">
+        <v>42277</v>
+      </c>
       <c r="B126" s="24"/>
-      <c r="C126" s="11"/>
-      <c r="D126" s="17"/>
-      <c r="E126" s="38"/>
+      <c r="C126" s="11">
+        <f t="shared" si="24"/>
+        <v>42277</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="F126" s="55"/>
-      <c r="G126" s="20"/>
+      <c r="G126" s="20">
+        <v>203054800</v>
+      </c>
       <c r="H126" s="5">
+        <f t="shared" si="22"/>
+        <v>178135400</v>
+      </c>
+      <c r="I126" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J126" s="37">
         <f t="shared" si="21"/>
-        <v>8418000</v>
-      </c>
-      <c r="I126" s="5">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J126" s="37" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="K126" s="212"/>
+        <v>9</v>
+      </c>
+      <c r="K126" s="210" t="s">
+        <v>348</v>
+      </c>
       <c r="N126" s="93"/>
       <c r="O126" s="51"/>
       <c r="P126" s="54"/>
@@ -23526,24 +23905,35 @@
       <c r="S126" s="61"/>
     </row>
     <row r="127" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A127" s="14"/>
+      <c r="A127" s="11">
+        <v>42277</v>
+      </c>
       <c r="B127" s="24"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="17"/>
-      <c r="E127" s="38"/>
+      <c r="C127" s="11">
+        <f t="shared" si="24"/>
+        <v>42277</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="F127" s="55"/>
-      <c r="G127" s="20"/>
+      <c r="G127" s="20">
+        <v>171017400</v>
+      </c>
       <c r="H127" s="5">
+        <f t="shared" si="22"/>
+        <v>7118000</v>
+      </c>
+      <c r="I127" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J127" s="37">
         <f t="shared" si="21"/>
-        <v>8418000</v>
-      </c>
-      <c r="I127" s="5">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J127" s="37" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="K127" s="212"/>
       <c r="N127" s="93"/>
@@ -23556,21 +23946,24 @@
     <row r="128" spans="1:19" ht="17.25" customHeight="1">
       <c r="A128" s="14"/>
       <c r="B128" s="24"/>
-      <c r="C128" s="11"/>
+      <c r="C128" s="11">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="D128" s="17"/>
       <c r="E128" s="38"/>
       <c r="F128" s="55"/>
       <c r="G128" s="20"/>
       <c r="H128" s="5">
+        <f t="shared" si="22"/>
+        <v>7118000</v>
+      </c>
+      <c r="I128" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J128" s="37" t="str">
         <f t="shared" si="21"/>
-        <v>8418000</v>
-      </c>
-      <c r="I128" s="5">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J128" s="37" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K128" s="212"/>
@@ -23590,15 +23983,15 @@
       <c r="F129" s="9"/>
       <c r="G129" s="20"/>
       <c r="H129" s="5">
+        <f t="shared" si="22"/>
+        <v>7118000</v>
+      </c>
+      <c r="I129" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J129" s="37" t="str">
         <f t="shared" si="21"/>
-        <v>8418000</v>
-      </c>
-      <c r="I129" s="5">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J129" s="37" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K129" s="208"/>
@@ -23618,15 +24011,15 @@
       <c r="F130" s="9"/>
       <c r="G130" s="20"/>
       <c r="H130" s="5">
+        <f t="shared" si="22"/>
+        <v>7118000</v>
+      </c>
+      <c r="I130" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J130" s="37" t="str">
         <f t="shared" si="21"/>
-        <v>8418000</v>
-      </c>
-      <c r="I130" s="5">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J130" s="37" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K130" s="208"/>
@@ -23646,15 +24039,15 @@
       <c r="F131" s="9"/>
       <c r="G131" s="20"/>
       <c r="H131" s="5">
-        <f t="shared" si="21"/>
-        <v>8418000</v>
+        <f t="shared" si="22"/>
+        <v>7118000</v>
       </c>
       <c r="I131" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J131" s="37" t="str">
-        <f t="shared" ref="J131:J141" si="23">IF(A131&lt;&gt;"",MONTH(A131),"")</f>
+        <f t="shared" ref="J131:J141" si="25">IF(A131&lt;&gt;"",MONTH(A131),"")</f>
         <v/>
       </c>
       <c r="K131" s="208"/>
@@ -23674,15 +24067,15 @@
       <c r="F132" s="9"/>
       <c r="G132" s="20"/>
       <c r="H132" s="5">
-        <f t="shared" si="21"/>
-        <v>8418000</v>
+        <f t="shared" si="22"/>
+        <v>7118000</v>
       </c>
       <c r="I132" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J132" s="37" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K132" s="208"/>
@@ -23702,15 +24095,15 @@
       <c r="F133" s="9"/>
       <c r="G133" s="20"/>
       <c r="H133" s="5">
-        <f t="shared" si="21"/>
-        <v>8418000</v>
+        <f t="shared" si="22"/>
+        <v>7118000</v>
       </c>
       <c r="I133" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J133" s="37" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K133" s="208"/>
@@ -23730,15 +24123,15 @@
       <c r="F134" s="60"/>
       <c r="G134" s="20"/>
       <c r="H134" s="5">
-        <f t="shared" si="21"/>
-        <v>8418000</v>
+        <f t="shared" si="22"/>
+        <v>7118000</v>
       </c>
       <c r="I134" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J134" s="37" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K134" s="213"/>
@@ -23758,15 +24151,15 @@
       <c r="F135" s="60"/>
       <c r="G135" s="20"/>
       <c r="H135" s="5">
-        <f t="shared" si="21"/>
-        <v>8418000</v>
+        <f t="shared" si="22"/>
+        <v>7118000</v>
       </c>
       <c r="I135" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J135" s="37" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K135" s="213"/>
@@ -23786,15 +24179,15 @@
       <c r="F136" s="60"/>
       <c r="G136" s="20"/>
       <c r="H136" s="5">
-        <f t="shared" si="21"/>
-        <v>8418000</v>
+        <f t="shared" si="22"/>
+        <v>7118000</v>
       </c>
       <c r="I136" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J136" s="37" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="N136" s="51"/>
@@ -23813,15 +24206,15 @@
       <c r="F137" s="60"/>
       <c r="G137" s="20"/>
       <c r="H137" s="5">
-        <f t="shared" si="21"/>
-        <v>8418000</v>
+        <f t="shared" si="22"/>
+        <v>7118000</v>
       </c>
       <c r="I137" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J137" s="37" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="N137" s="51"/>
@@ -23840,15 +24233,15 @@
       <c r="F138" s="60"/>
       <c r="G138" s="20"/>
       <c r="H138" s="5">
-        <f t="shared" si="21"/>
-        <v>8418000</v>
+        <f t="shared" si="22"/>
+        <v>7118000</v>
       </c>
       <c r="I138" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J138" s="37" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="N138" s="51"/>
@@ -23869,7 +24262,7 @@
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
       <c r="J139" s="37" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="N139" s="19"/>
@@ -23891,11 +24284,11 @@
       </c>
       <c r="F140" s="7">
         <f>SUM(F16:F139)</f>
-        <v>11680000000</v>
+        <v>14850000000</v>
       </c>
       <c r="G140" s="7">
         <f>SUM(G16:G139)</f>
-        <v>11671582000</v>
+        <v>14842882000</v>
       </c>
       <c r="H140" s="7" t="s">
         <v>23</v>
@@ -23904,7 +24297,7 @@
         <v>23</v>
       </c>
       <c r="J140" s="37" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="N140" s="19"/>
@@ -23932,14 +24325,14 @@
       </c>
       <c r="H141" s="8">
         <f>IF(H15-I15+F140-G140&gt;0,H15-I15+F140-G140,0)</f>
-        <v>8418000</v>
+        <v>7118000</v>
       </c>
       <c r="I141" s="8">
         <f>IF(I15-H15+G140-F140&gt;0,I15-H15+G140-F140,0)</f>
         <v>0</v>
       </c>
       <c r="J141" s="37" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="N141" s="19"/>
@@ -24010,13 +24403,13 @@
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
       <c r="D145" s="29"/>
-      <c r="E145" s="285" t="s">
+      <c r="E145" s="289" t="s">
         <v>167</v>
       </c>
-      <c r="F145" s="285"/>
-      <c r="G145" s="285"/>
-      <c r="H145" s="285"/>
-      <c r="I145" s="285"/>
+      <c r="F145" s="289"/>
+      <c r="G145" s="289"/>
+      <c r="H145" s="289"/>
+      <c r="I145" s="289"/>
       <c r="J145" s="51"/>
       <c r="L145" s="59"/>
       <c r="M145" s="59"/>
@@ -24028,19 +24421,19 @@
       <c r="S145" s="59"/>
     </row>
     <row r="146" spans="1:19">
-      <c r="A146" s="285" t="s">
+      <c r="A146" s="289" t="s">
         <v>25</v>
       </c>
-      <c r="B146" s="285"/>
-      <c r="C146" s="285"/>
-      <c r="D146" s="285"/>
-      <c r="E146" s="285" t="s">
+      <c r="B146" s="289"/>
+      <c r="C146" s="289"/>
+      <c r="D146" s="289"/>
+      <c r="E146" s="289" t="s">
         <v>26</v>
       </c>
-      <c r="F146" s="285"/>
-      <c r="G146" s="285"/>
-      <c r="H146" s="285"/>
-      <c r="I146" s="285"/>
+      <c r="F146" s="289"/>
+      <c r="G146" s="289"/>
+      <c r="H146" s="289"/>
+      <c r="I146" s="289"/>
       <c r="J146" s="51"/>
       <c r="L146" s="59"/>
       <c r="M146" s="59"/>
@@ -24052,19 +24445,19 @@
       <c r="S146" s="59"/>
     </row>
     <row r="147" spans="1:19">
-      <c r="A147" s="285" t="s">
+      <c r="A147" s="289" t="s">
         <v>27</v>
       </c>
-      <c r="B147" s="285"/>
-      <c r="C147" s="285"/>
-      <c r="D147" s="285"/>
-      <c r="E147" s="285" t="s">
+      <c r="B147" s="289"/>
+      <c r="C147" s="289"/>
+      <c r="D147" s="289"/>
+      <c r="E147" s="289" t="s">
         <v>27</v>
       </c>
-      <c r="F147" s="285"/>
-      <c r="G147" s="285"/>
-      <c r="H147" s="285"/>
-      <c r="I147" s="285"/>
+      <c r="F147" s="289"/>
+      <c r="G147" s="289"/>
+      <c r="H147" s="289"/>
+      <c r="I147" s="289"/>
       <c r="J147" s="61"/>
       <c r="K147" s="208"/>
       <c r="L147" s="61"/>
@@ -24267,7 +24660,7 @@
     <sheetView topLeftCell="A2" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -24307,38 +24700,38 @@
       <c r="G2" s="125"/>
     </row>
     <row r="3" spans="1:7" ht="24" customHeight="1">
-      <c r="A3" s="303" t="s">
+      <c r="A3" s="307" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="303"/>
+      <c r="B3" s="307"/>
       <c r="D3" s="94">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1">
-      <c r="A4" s="285" t="str">
+      <c r="A4" s="289" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong02),"","Ngày  "&amp;DAY(OFFSET('141-BH'!O$1,SMALL(Dong02,ROWS($1:1)),))&amp;"  tháng  "&amp;MONTH(OFFSET('141-BH'!O$1,SMALL(Dong02,ROWS($1:1)),))&amp;"   năm   "&amp;YEAR(OFFSET('141-BH'!O$1,SMALL(Dong02,ROWS($1:1)),)))</f>
-        <v>Ngày  30  tháng  6   năm   2015</v>
-      </c>
-      <c r="B4" s="285"/>
+        <v>Ngày  31  tháng  8   năm   2015</v>
+      </c>
+      <c r="B4" s="289"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
     </row>
     <row r="5" spans="1:7" ht="12" customHeight="1">
-      <c r="A5" s="304"/>
+      <c r="A5" s="308"/>
       <c r="B5" s="69" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong02),"","Số:   "&amp;OFFSET('141-BH'!P$1,SMALL(Dong02,ROWS($1:1)),))</f>
         <v>Số:   0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12" customHeight="1">
-      <c r="A6" s="304"/>
+      <c r="A6" s="308"/>
       <c r="B6" s="69" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12" customHeight="1">
-      <c r="A7" s="304"/>
+      <c r="A7" s="308"/>
       <c r="B7" s="69" t="s">
         <v>78</v>
       </c>
@@ -24385,7 +24778,7 @@
       </c>
       <c r="B13" s="76">
         <f ca="1">B14+B15</f>
-        <v>1065137000</v>
+        <v>17787000</v>
       </c>
       <c r="C13" s="83"/>
       <c r="D13" s="83"/>
@@ -24399,7 +24792,7 @@
       </c>
       <c r="B14" s="78">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dau),"",OFFSET('141-BH'!H$1,SMALL(Dau,COUNT(Dau)),))</f>
-        <v>5137000</v>
+        <v>17787000</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" customHeight="1">
@@ -24408,17 +24801,17 @@
       </c>
       <c r="B15" s="78">
         <f ca="1">SUM(B16:B22)</f>
-        <v>1060000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="82" customFormat="1" ht="18.75" customHeight="1">
       <c r="A16" s="79" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong01),"","- Phiếu chi số: ........"&amp;OFFSET('141-BH'!P$1,SMALL(Dong01,ROWS($1:1)),)&amp;".....ngày...."&amp;DAY(OFFSET('141-BH'!O$1,SMALL(Dong01,ROWS($1:1)),))&amp;"/"&amp;MONTH(OFFSET('141-BH'!O$1,SMALL(Dong01,ROWS($1:1)),))&amp;"/"&amp;YEAR(OFFSET('141-BH'!O$1,SMALL(Dong01,ROWS($1:1)),)))</f>
-        <v>- Phiếu chi số: ........C01.....ngày....1/6/2015</v>
-      </c>
-      <c r="B16" s="80">
+        <v/>
+      </c>
+      <c r="B16" s="80" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong01),"",OFFSET('141-BH'!S$1,SMALL(Dong01,ROWS($1:1)),))</f>
-        <v>550000000</v>
+        <v/>
       </c>
       <c r="C16" s="128"/>
       <c r="D16" s="129"/>
@@ -24429,11 +24822,11 @@
     <row r="17" spans="1:7" s="82" customFormat="1" ht="18.75" customHeight="1">
       <c r="A17" s="79" t="str">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong01),"","- Phiếu chi số: ........"&amp;OFFSET('141-BH'!P$1,SMALL(Dong01,ROWS($1:2)),)&amp;".....ngày...."&amp;DAY(OFFSET('141-BH'!O$1,SMALL(Dong01,ROWS($1:2)),))&amp;"/"&amp;MONTH(OFFSET('141-BH'!O$1,SMALL(Dong01,ROWS($1:2)),))&amp;"/"&amp;YEAR(OFFSET('141-BH'!O$1,SMALL(Dong01,ROWS($1:2)),)))</f>
-        <v>- Phiếu chi số: ........C31.....ngày....24/6/2015</v>
-      </c>
-      <c r="B17" s="80">
+        <v/>
+      </c>
+      <c r="B17" s="80" t="str">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong01),"",OFFSET('141-BH'!S$1,SMALL(Dong01,ROWS($1:2)),))</f>
-        <v>510000000</v>
+        <v/>
       </c>
       <c r="C17" s="128"/>
       <c r="D17" s="129"/>
@@ -24522,7 +24915,7 @@
       </c>
       <c r="B23" s="76">
         <f ca="1">SUM(B24:B37)</f>
-        <v>1057350000</v>
+        <v>629760000</v>
       </c>
       <c r="C23" s="81"/>
       <c r="D23" s="132"/>
@@ -24533,11 +24926,11 @@
     <row r="24" spans="1:7" s="82" customFormat="1" ht="18.75" customHeight="1">
       <c r="A24" s="84" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong02),"","- "&amp;OFFSET('141-BH'!Q$1,SMALL(Dong02,ROWS($1:1)),)&amp;" - PNK số: " &amp;OFFSET('141-BH'!U$1,SMALL(Dong02,ROWS($1:1)),)&amp; " Tháng "&amp;$D$3&amp;"/2015")</f>
-        <v>- Lê Thị Thiện Em - PNK số: N01 Tháng 6/2015</v>
+        <v>- Nguyễn Thị Tuyết Đang - PNK số: N10 &amp; N22 Tháng 8/2015</v>
       </c>
       <c r="B24" s="85">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong02),"",OFFSET('141-BH'!T$1,SMALL(Dong02,ROWS($1:1)),))</f>
-        <v>79068000</v>
+        <v>205168000</v>
       </c>
       <c r="C24" s="133"/>
       <c r="D24" s="134"/>
@@ -24548,11 +24941,11 @@
     <row r="25" spans="1:7" s="82" customFormat="1" ht="18.75" customHeight="1">
       <c r="A25" s="84" t="str">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong02),"","- "&amp;OFFSET('141-BH'!Q$1,SMALL(Dong02,ROWS($1:2)),)&amp;" - PNK số: " &amp;OFFSET('141-BH'!U$1,SMALL(Dong02,ROWS($1:2)),)&amp; " Tháng "&amp;$D$3&amp;"/2015")</f>
-        <v>- Trần Văn An - PNK số: N02 &amp; N14 &amp; N32 Tháng 6/2015</v>
+        <v>- Võ Văn Thắng - PNK số: N11 &amp; N21 Tháng 8/2015</v>
       </c>
       <c r="B25" s="85">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong02),"",OFFSET('141-BH'!T$1,SMALL(Dong02,ROWS($1:2)),))</f>
-        <v>237852500</v>
+        <v>218560000</v>
       </c>
       <c r="C25" s="136"/>
       <c r="D25" s="137"/>
@@ -24563,11 +24956,11 @@
     <row r="26" spans="1:7" s="82" customFormat="1" ht="18.75" customHeight="1">
       <c r="A26" s="84" t="str">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong02),"","- "&amp;OFFSET('141-BH'!Q$1,SMALL(Dong02,ROWS($1:3)),)&amp;" - PNK số: " &amp;OFFSET('141-BH'!U$1,SMALL(Dong02,ROWS($1:3)),)&amp; " Tháng "&amp;$D$3&amp;"/2015")</f>
-        <v>- Nguyễn Thanh Bình - PNK số: N03 &amp; N15 &amp; N33 Tháng 6/2015</v>
+        <v>- Nguyễn Văn Phong - PNK số: N12 &amp; N23 Tháng 8/2015</v>
       </c>
       <c r="B26" s="85">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong02),"",OFFSET('141-BH'!T$1,SMALL(Dong02,ROWS($1:3)),))</f>
-        <v>232886000</v>
+        <v>206032000</v>
       </c>
       <c r="C26" s="138"/>
       <c r="D26" s="137"/>
@@ -24578,11 +24971,11 @@
     <row r="27" spans="1:7" s="82" customFormat="1" ht="18.75" customHeight="1">
       <c r="A27" s="84" t="str">
         <f ca="1">IF(ROWS($1:4)&gt;COUNT(Dong02),"","- "&amp;OFFSET('141-BH'!Q$1,SMALL(Dong02,ROWS($1:4)),)&amp;" - PNK số: " &amp;OFFSET('141-BH'!U$1,SMALL(Dong02,ROWS($1:4)),)&amp; " Tháng "&amp;$D$3&amp;"/2015")</f>
-        <v>- Nguyễn Thị Hội - PNK số: N08 &amp; N16 &amp; N34 Tháng 6/2015</v>
-      </c>
-      <c r="B27" s="85">
+        <v/>
+      </c>
+      <c r="B27" s="85" t="str">
         <f ca="1">IF(ROWS($1:4)&gt;COUNT(Dong02),"",OFFSET('141-BH'!T$1,SMALL(Dong02,ROWS($1:4)),))</f>
-        <v>240316000</v>
+        <v/>
       </c>
       <c r="C27" s="51"/>
       <c r="D27" s="137"/>
@@ -24593,11 +24986,11 @@
     <row r="28" spans="1:7" s="82" customFormat="1" ht="18.75" customHeight="1">
       <c r="A28" s="84" t="str">
         <f ca="1">IF(ROWS($1:5)&gt;COUNT(Dong02),"","- "&amp;OFFSET('141-BH'!Q$1,SMALL(Dong02,ROWS($1:5)),)&amp;" - PNK số: " &amp;OFFSET('141-BH'!U$1,SMALL(Dong02,ROWS($1:5)),)&amp; " Tháng "&amp;$D$3&amp;"/2015")</f>
-        <v>- Nguyễn Văn Hạnh - PNK số: N09 Tháng 6/2015</v>
-      </c>
-      <c r="B28" s="85">
+        <v/>
+      </c>
+      <c r="B28" s="85" t="str">
         <f ca="1">IF(ROWS($1:5)&gt;COUNT(Dong02),"",OFFSET('141-BH'!T$1,SMALL(Dong02,ROWS($1:5)),))</f>
-        <v>76740000</v>
+        <v/>
       </c>
       <c r="C28" s="92"/>
       <c r="D28" s="134"/>
@@ -24608,11 +25001,11 @@
     <row r="29" spans="1:7" s="82" customFormat="1" ht="18.75" customHeight="1">
       <c r="A29" s="84" t="str">
         <f ca="1">IF(ROWS($1:6)&gt;COUNT(Dong02),"","- "&amp;OFFSET('141-BH'!Q$1,SMALL(Dong02,ROWS($1:6)),)&amp;" - PNK số: " &amp;OFFSET('141-BH'!U$1,SMALL(Dong02,ROWS($1:6)),)&amp; " Tháng "&amp;$D$3&amp;"/2015")</f>
-        <v>- Trần Thị Thu Hiếu - PNK số: N35 Tháng 6/2015</v>
-      </c>
-      <c r="B29" s="85">
+        <v/>
+      </c>
+      <c r="B29" s="85" t="str">
         <f ca="1">IF(ROWS($1:6)&gt;COUNT(Dong02),"",OFFSET('141-BH'!T$1,SMALL(Dong02,ROWS($1:6)),))</f>
-        <v>95112500</v>
+        <v/>
       </c>
       <c r="C29" s="92"/>
       <c r="D29" s="137"/>
@@ -24623,11 +25016,11 @@
     <row r="30" spans="1:7" s="82" customFormat="1" ht="18.75" customHeight="1">
       <c r="A30" s="84" t="str">
         <f ca="1">IF(ROWS($1:7)&gt;COUNT(Dong02),"","- "&amp;OFFSET('141-BH'!Q$1,SMALL(Dong02,ROWS($1:7)),)&amp;" - PNK số: " &amp;OFFSET('141-BH'!U$1,SMALL(Dong02,ROWS($1:7)),)&amp; " Tháng "&amp;$D$3&amp;"/2015")</f>
-        <v>- Nguyễn Văn Nhân - PNK số: N36 Tháng 6/2015</v>
-      </c>
-      <c r="B30" s="85">
+        <v/>
+      </c>
+      <c r="B30" s="85" t="str">
         <f ca="1">IF(ROWS($1:7)&gt;COUNT(Dong02),"",OFFSET('141-BH'!T$1,SMALL(Dong02,ROWS($1:7)),))</f>
-        <v>95375000</v>
+        <v/>
       </c>
       <c r="C30" s="51"/>
       <c r="D30" s="137"/>
@@ -24746,7 +25139,7 @@
       </c>
       <c r="B38" s="76">
         <f ca="1">B13-B23</f>
-        <v>7787000</v>
+        <v>-611973000</v>
       </c>
       <c r="C38" s="137"/>
       <c r="D38" s="139"/>
@@ -24760,7 +25153,7 @@
       </c>
       <c r="B39" s="78">
         <f ca="1">B38</f>
-        <v>7787000</v>
+        <v>-611973000</v>
       </c>
       <c r="C39" s="137"/>
       <c r="D39" s="139"/>
@@ -25132,38 +25525,38 @@
       <c r="K2" s="125"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A3" s="303" t="s">
+      <c r="A3" s="307" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="303"/>
+      <c r="B3" s="307"/>
       <c r="D3" s="94">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A4" s="285" t="str">
+      <c r="A4" s="289" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong04),"","Ngày  "&amp;DAY(OFFSET('141-TT'!O$1,SMALL(Dong04,ROWS($1:1)),))&amp;"  tháng  "&amp;MONTH(OFFSET('141-TT'!O$1,SMALL(Dong04,ROWS($1:1)),))&amp;"   năm   "&amp;YEAR(OFFSET('141-TT'!O$1,SMALL(Dong04,ROWS($1:1)),)))</f>
-        <v>Ngày  30  tháng  6   năm   2015</v>
-      </c>
-      <c r="B4" s="285"/>
+        <v>Ngày  31  tháng  7   năm   2015</v>
+      </c>
+      <c r="B4" s="289"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A5" s="304"/>
+      <c r="A5" s="308"/>
       <c r="B5" s="69" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong04),"","Số:   "&amp;OFFSET('141-TT'!N$1,SMALL(Dong04,ROWS($1:1)),))</f>
         <v>Số:   0</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A6" s="304"/>
+      <c r="A6" s="308"/>
       <c r="B6" s="69" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A7" s="304"/>
+      <c r="A7" s="308"/>
       <c r="B7" s="69" t="s">
         <v>78</v>
       </c>
@@ -25214,7 +25607,7 @@
       </c>
       <c r="B13" s="76">
         <f ca="1">B14+B15</f>
-        <v>1894343000</v>
+        <v>3668000</v>
       </c>
       <c r="C13" s="83"/>
       <c r="D13" s="83"/>
@@ -25232,7 +25625,7 @@
       </c>
       <c r="B14" s="78">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(_Dau1),"",OFFSET('141-TT'!H$1,SMALL(_Dau1,COUNT(_Dau1)),))</f>
-        <v>4343000</v>
+        <v>3668000</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="20.25" customHeight="1">
@@ -25241,17 +25634,17 @@
       </c>
       <c r="B15" s="78">
         <f ca="1">SUM(B16:B22)</f>
-        <v>1890000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="82" customFormat="1" ht="20.25" customHeight="1">
       <c r="A16" s="79" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong03),"","- Phiếu chi số: ........"&amp;OFFSET('141-TT'!N$1,SMALL(Dong03,ROWS($1:1)),)&amp;".....ngày...."&amp;DAY(OFFSET('141-TT'!O$1,SMALL(Dong03,ROWS($1:1)),))&amp;"/"&amp;MONTH(OFFSET('141-TT'!O$1,SMALL(Dong03,ROWS($1:1)),))&amp;"/"&amp;YEAR(OFFSET('141-TT'!O$1,SMALL(Dong03,ROWS($1:1)),)))</f>
-        <v>- Phiếu chi số: ........C02.....ngày....1/6/2015</v>
-      </c>
-      <c r="B16" s="80">
+        <v/>
+      </c>
+      <c r="B16" s="80" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong03),"",OFFSET('141-TT'!R$1,SMALL(Dong03,ROWS($1:1)),))</f>
-        <v>650000000</v>
+        <v/>
       </c>
       <c r="C16" s="128"/>
       <c r="D16" s="152"/>
@@ -25266,11 +25659,11 @@
     <row r="17" spans="1:11" s="82" customFormat="1" ht="20.25" customHeight="1">
       <c r="A17" s="79" t="str">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong03),"","- Phiếu chi số: ........"&amp;OFFSET('141-TT'!N$1,SMALL(Dong03,ROWS($1:2)),)&amp;".....ngày...."&amp;DAY(OFFSET('141-TT'!O$1,SMALL(Dong03,ROWS($1:2)),))&amp;"/"&amp;MONTH(OFFSET('141-TT'!O$1,SMALL(Dong03,ROWS($1:2)),))&amp;"/"&amp;YEAR(OFFSET('141-TT'!O$1,SMALL(Dong03,ROWS($1:2)),)))</f>
-        <v>- Phiếu chi số: ........C09.....ngày....3/6/2015</v>
-      </c>
-      <c r="B17" s="80">
+        <v/>
+      </c>
+      <c r="B17" s="80" t="str">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong03),"",OFFSET('141-TT'!R$1,SMALL(Dong03,ROWS($1:2)),))</f>
-        <v>650000000</v>
+        <v/>
       </c>
       <c r="C17" s="128"/>
       <c r="D17" s="152"/>
@@ -25285,11 +25678,11 @@
     <row r="18" spans="1:11" s="82" customFormat="1" ht="20.25" customHeight="1">
       <c r="A18" s="79" t="str">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong03),"","- Phiếu chi số: ........"&amp;OFFSET('141-TT'!N$1,SMALL(Dong03,ROWS($1:3)),)&amp;".....ngày...."&amp;DAY(OFFSET('141-TT'!O$1,SMALL(Dong03,ROWS($1:3)),))&amp;"/"&amp;MONTH(OFFSET('141-TT'!O$1,SMALL(Dong03,ROWS($1:3)),))&amp;"/"&amp;YEAR(OFFSET('141-TT'!O$1,SMALL(Dong03,ROWS($1:3)),)))</f>
-        <v>- Phiếu chi số: ........C32.....ngày....24/6/2015</v>
-      </c>
-      <c r="B18" s="80">
+        <v/>
+      </c>
+      <c r="B18" s="80" t="str">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong03),"",OFFSET('141-TT'!R$1,SMALL(Dong03,ROWS($1:3)),))</f>
-        <v>590000000</v>
+        <v/>
       </c>
       <c r="C18" s="132"/>
       <c r="D18" s="132"/>
@@ -25383,7 +25776,7 @@
       </c>
       <c r="B23" s="76">
         <f ca="1">SUM(B24:B41)</f>
-        <v>1890675000</v>
+        <v>1295250000</v>
       </c>
       <c r="C23" s="81"/>
       <c r="D23" s="132"/>
@@ -25398,11 +25791,11 @@
     <row r="24" spans="1:11" s="82" customFormat="1" ht="20.25" customHeight="1">
       <c r="A24" s="84" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong04),"","- "&amp;OFFSET('141-TT'!P$1,SMALL(Dong04,ROWS($1:1)),)&amp;" - PNK số: " &amp;OFFSET('141-TT'!T$1,SMALL(Dong04,ROWS($1:1)),)&amp; " Tháng "&amp;$D$3&amp;"/2015")</f>
-        <v>- Võ Thị Bảy - PNK số: N04 &amp; N23 Tháng 6/2015</v>
+        <v>- Đỗ Văn Tâm - PNK số: N15 Tháng 7/2015</v>
       </c>
       <c r="B24" s="85">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong04),"",OFFSET('141-TT'!S$1,SMALL(Dong04,ROWS($1:1)),))</f>
-        <v>142989000</v>
+        <v>86130000</v>
       </c>
       <c r="C24" s="128"/>
       <c r="D24" s="59"/>
@@ -25417,11 +25810,11 @@
     <row r="25" spans="1:11" s="82" customFormat="1" ht="20.25" customHeight="1">
       <c r="A25" s="84" t="str">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong04),"","- "&amp;OFFSET('141-TT'!P$1,SMALL(Dong04,ROWS($1:2)),)&amp;" - PNK số: " &amp;OFFSET('141-TT'!T$1,SMALL(Dong04,ROWS($1:2)),)&amp; " Tháng "&amp;$D$3&amp;"/2015")</f>
-        <v>- Võ Văn Bá - PNK số: N05 &amp; N24 &amp; N25 Tháng 6/2015</v>
+        <v>- Hồ Thị Mỹ - PNK số: N16 &amp; N12 Tháng 7/2015</v>
       </c>
       <c r="B25" s="85">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong04),"",OFFSET('141-TT'!S$1,SMALL(Dong04,ROWS($1:2)),))</f>
-        <v>260935000</v>
+        <v>147515000</v>
       </c>
       <c r="C25" s="92"/>
       <c r="D25" s="59"/>
@@ -25436,11 +25829,11 @@
     <row r="26" spans="1:11" s="82" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="84" t="str">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong04),"","- "&amp;OFFSET('141-TT'!P$1,SMALL(Dong04,ROWS($1:3)),)&amp;" - PNK số: " &amp;OFFSET('141-TT'!T$1,SMALL(Dong04,ROWS($1:3)),)&amp; " Tháng "&amp;$D$3&amp;"/2015")</f>
-        <v>- Nguyễn Thanh Vân - PNK số: N06 &amp; N26 &amp; N28 Tháng 6/2015</v>
+        <v>- Nguyễn Đức Tiến - PNK số: N18 &amp; N14 Tháng 7/2015</v>
       </c>
       <c r="B26" s="85">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong04),"",OFFSET('141-TT'!S$1,SMALL(Dong04,ROWS($1:3)),))</f>
-        <v>246919000</v>
+        <v>147725000</v>
       </c>
       <c r="C26" s="92"/>
       <c r="D26" s="59"/>
@@ -25455,11 +25848,11 @@
     <row r="27" spans="1:11" s="82" customFormat="1" ht="20.25" customHeight="1">
       <c r="A27" s="84" t="str">
         <f ca="1">IF(ROWS($1:4)&gt;COUNT(Dong04),"","- "&amp;OFFSET('141-TT'!P$1,SMALL(Dong04,ROWS($1:4)),)&amp;" - PNK số: " &amp;OFFSET('141-TT'!T$1,SMALL(Dong04,ROWS($1:4)),)&amp; " Tháng "&amp;$D$3&amp;"/2015")</f>
-        <v>- Nguyễn Thanh Vinh - PNK số: N07 &amp; N27 &amp; N29 Tháng 6/2015</v>
+        <v>- Nguyễn Thanh Vân - PNK số: N03 &amp; N07 &amp; N20 Tháng 7/2015</v>
       </c>
       <c r="B27" s="85">
         <f ca="1">IF(ROWS($1:4)&gt;COUNT(Dong04),"",OFFSET('141-TT'!S$1,SMALL(Dong04,ROWS($1:4)),))</f>
-        <v>268324000</v>
+        <v>235724500</v>
       </c>
       <c r="C27" s="92"/>
       <c r="D27" s="59"/>
@@ -25474,11 +25867,11 @@
     <row r="28" spans="1:11" s="82" customFormat="1" ht="20.25" customHeight="1">
       <c r="A28" s="84" t="str">
         <f ca="1">IF(ROWS($1:5)&gt;COUNT(Dong04),"","- "&amp;OFFSET('141-TT'!P$1,SMALL(Dong04,ROWS($1:5)),)&amp;" - PNK số: " &amp;OFFSET('141-TT'!T$1,SMALL(Dong04,ROWS($1:5)),)&amp; " Tháng "&amp;$D$3&amp;"/2015")</f>
-        <v>- Hồ Thị Mỹ - PNK số: N10 &amp; N18 &amp; N30 Tháng 6/2015</v>
+        <v>- Nguyễn Thanh Vinh - PNK số: N08 &amp; N04 Tháng 7/2015</v>
       </c>
       <c r="B28" s="85">
         <f ca="1">IF(ROWS($1:5)&gt;COUNT(Dong04),"",OFFSET('141-TT'!S$1,SMALL(Dong04,ROWS($1:5)),))</f>
-        <v>221650000</v>
+        <v>149449500</v>
       </c>
       <c r="C28" s="92"/>
       <c r="D28" s="59"/>
@@ -25493,11 +25886,11 @@
     <row r="29" spans="1:11" s="82" customFormat="1" ht="20.25" customHeight="1">
       <c r="A29" s="84" t="str">
         <f ca="1">IF(ROWS($1:6)&gt;COUNT(Dong04),"","- "&amp;OFFSET('141-TT'!P$1,SMALL(Dong04,ROWS($1:6)),)&amp;" - PNK số: " &amp;OFFSET('141-TT'!T$1,SMALL(Dong04,ROWS($1:6)),)&amp; " Tháng "&amp;$D$3&amp;"/2015")</f>
-        <v>- Phạm Thị Ngọc - PNK số: N11 &amp; N19 &amp; N31 Tháng 6/2015</v>
+        <v>- Phạm Thị Ngọc - PNK số: N17 &amp; N13 Tháng 7/2015</v>
       </c>
       <c r="B29" s="85">
         <f ca="1">IF(ROWS($1:6)&gt;COUNT(Dong04),"",OFFSET('141-TT'!S$1,SMALL(Dong04,ROWS($1:6)),))</f>
-        <v>212465000</v>
+        <v>158411500</v>
       </c>
       <c r="C29" s="92"/>
       <c r="D29" s="59"/>
@@ -25512,11 +25905,11 @@
     <row r="30" spans="1:11" s="82" customFormat="1" ht="20.25" customHeight="1">
       <c r="A30" s="84" t="str">
         <f ca="1">IF(ROWS($1:7)&gt;COUNT(Dong04),"","- "&amp;OFFSET('141-TT'!P$1,SMALL(Dong04,ROWS($1:7)),)&amp;" - PNK số: " &amp;OFFSET('141-TT'!T$1,SMALL(Dong04,ROWS($1:7)),)&amp; " Tháng "&amp;$D$3&amp;"/2015")</f>
-        <v>- Nguyễn Đức Tiến - PNK số: N12 &amp; N20 Tháng 6/2015</v>
+        <v>- Võ Thị Bảy - PNK số: N01 &amp; N05 Tháng 7/2015</v>
       </c>
       <c r="B30" s="85">
         <f ca="1">IF(ROWS($1:7)&gt;COUNT(Dong04),"",OFFSET('141-TT'!S$1,SMALL(Dong04,ROWS($1:7)),))</f>
-        <v>147246000</v>
+        <v>150486000</v>
       </c>
       <c r="C30" s="92"/>
       <c r="D30" s="59"/>
@@ -25531,11 +25924,11 @@
     <row r="31" spans="1:11" s="82" customFormat="1" ht="20.25" customHeight="1">
       <c r="A31" s="84" t="str">
         <f ca="1">IF(ROWS($1:8)&gt;COUNT(Dong04),"","- "&amp;OFFSET('141-TT'!P$1,SMALL(Dong04,ROWS($1:8)),)&amp;" - PNK số: " &amp;OFFSET('141-TT'!T$1,SMALL(Dong04,ROWS($1:8)),)&amp; " Tháng "&amp;$D$3&amp;"/2015")</f>
-        <v>- Đỗ Văn Tâm - PNK số: N13 &amp; N21 Tháng 6/2015</v>
+        <v>- Võ Văn Bá - PNK số: N02 &amp; N06 &amp; N19 Tháng 7/2015</v>
       </c>
       <c r="B31" s="85">
         <f ca="1">IF(ROWS($1:8)&gt;COUNT(Dong04),"",OFFSET('141-TT'!S$1,SMALL(Dong04,ROWS($1:8)),))</f>
-        <v>141130000</v>
+        <v>219808500</v>
       </c>
       <c r="C31" s="92"/>
       <c r="D31" s="59"/>
@@ -25550,11 +25943,11 @@
     <row r="32" spans="1:11" s="82" customFormat="1" ht="20.25" customHeight="1">
       <c r="A32" s="84" t="str">
         <f ca="1">IF(ROWS($1:9)&gt;COUNT(Dong04),"","- "&amp;OFFSET('141-TT'!P$1,SMALL(Dong04,ROWS($1:9)),)&amp;" - PNK số: " &amp;OFFSET('141-TT'!T$1,SMALL(Dong04,ROWS($1:9)),)&amp; " Tháng "&amp;$D$3&amp;"/2015")</f>
-        <v>- Trương Văn Minh - PNK số: N17 &amp; N22 Tháng 6/2015</v>
-      </c>
-      <c r="B32" s="85">
+        <v/>
+      </c>
+      <c r="B32" s="85" t="str">
         <f ca="1">IF(ROWS($1:9)&gt;COUNT(Dong04),"",OFFSET('141-TT'!S$1,SMALL(Dong04,ROWS($1:9)),))</f>
-        <v>148742000</v>
+        <v/>
       </c>
       <c r="C32" s="92"/>
       <c r="D32" s="59"/>
@@ -25569,11 +25962,11 @@
     <row r="33" spans="1:11" s="82" customFormat="1" ht="20.25" customHeight="1">
       <c r="A33" s="84" t="str">
         <f ca="1">IF(ROWS($1:10)&gt;COUNT(Dong04),"","- "&amp;OFFSET('141-TT'!P$1,SMALL(Dong04,ROWS($1:10)),)&amp;" - PNK số: " &amp;OFFSET('141-TT'!T$1,SMALL(Dong04,ROWS($1:10)),)&amp; " Tháng "&amp;$D$3&amp;"/2015")</f>
-        <v>- Nguyễn Thị Kim Vân - PNK số: N37 Tháng 6/2015</v>
-      </c>
-      <c r="B33" s="85">
+        <v/>
+      </c>
+      <c r="B33" s="85" t="str">
         <f ca="1">IF(ROWS($1:10)&gt;COUNT(Dong04),"",OFFSET('141-TT'!S$1,SMALL(Dong04,ROWS($1:10)),))</f>
-        <v>100275000</v>
+        <v/>
       </c>
       <c r="C33" s="92"/>
       <c r="D33" s="59"/>
@@ -25743,7 +26136,7 @@
       </c>
       <c r="B42" s="76">
         <f ca="1">B13-B23</f>
-        <v>3668000</v>
+        <v>-1291582000</v>
       </c>
       <c r="C42" s="137"/>
       <c r="D42" s="139"/>
@@ -25761,7 +26154,7 @@
       </c>
       <c r="B43" s="78">
         <f ca="1">B42</f>
-        <v>3668000</v>
+        <v>-1291582000</v>
       </c>
       <c r="C43" s="137"/>
       <c r="D43" s="139"/>

--- a/SO SACH - LA/SO SACH/2015/141 - 341 - 15.xlsx
+++ b/SO SACH - LA/SO SACH/2015/141 - 341 - 15.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15135" windowHeight="9300" tabRatio="858" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15135" windowHeight="9300" tabRatio="858"/>
   </bookViews>
   <sheets>
     <sheet name="341" sheetId="20" r:id="rId1"/>
@@ -40,12 +40,12 @@
     <definedName name="fghdfg">IF(Loai01="x",ROW(Loai01)-1,"")</definedName>
     <definedName name="ghf">IF(Loai01="x",ROW(Loai01)-1,"")</definedName>
     <definedName name="kbjgj">IF(Loai01="x",ROW(Loai01)-1,"")</definedName>
-    <definedName name="KUTH">'TH-341'!$E$5:$E$100</definedName>
+    <definedName name="KUTH">'TH-341'!$E$5:$E$119</definedName>
     <definedName name="Loai">OFFSET('141-BH'!$J$15,,,COUNTA('141-BH'!$J$15:$J$40058))</definedName>
     <definedName name="Loai01">OFFSET('141-BH'!$R$16,,,COUNTA('141-BH'!$R$16:$R$40058))</definedName>
     <definedName name="Loai02">OFFSET('141-TT'!$Q$16,,,COUNTA('141-TT'!$Q$16:$R$40061))</definedName>
     <definedName name="Loai1">OFFSET('141-TT'!$J$15,,,COUNTA('141-TT'!$J$15:$J$40060))</definedName>
-    <definedName name="Loai4">OFFSET('TH-341'!$E$5,,,COUNTA('TH-341'!$E$5:$E$40086))</definedName>
+    <definedName name="Loai4">OFFSET('TH-341'!$E$5,,,COUNTA('TH-341'!$E$5:$E$40105))</definedName>
     <definedName name="nbvnvb">IF(Loai01="x",ROW(Loai01)-1,"")</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'341'!$A$1:$O$12</definedName>
   </definedNames>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="359">
   <si>
     <t>Đơn vị: CÔNG TY TNHH HẢI SẢN AN LẠC</t>
   </si>
@@ -1104,6 +1104,36 @@
   </si>
   <si>
     <t>N07 &amp; N19</t>
+  </si>
+  <si>
+    <t>BTĐC</t>
+  </si>
+  <si>
+    <t>4211</t>
+  </si>
+  <si>
+    <t>CLTG vay KU 1015LDS201000102 (2010-2014)</t>
+  </si>
+  <si>
+    <t>CLTG vay KU  1015LDS201100376 (2012-2014)</t>
+  </si>
+  <si>
+    <t>CLTG vay KU 1015LDS201100378 (2012-2014)</t>
+  </si>
+  <si>
+    <t>CLTG vay KU 1015LDS201100377 (2012-2014)</t>
+  </si>
+  <si>
+    <t>CLTG vay KU 1015LDS201000102 (2015)</t>
+  </si>
+  <si>
+    <t>CLTG vay KU  1015LDS201100376 (2015)</t>
+  </si>
+  <si>
+    <t>CLTG vay KU 1015LDS201100377 (2015)</t>
+  </si>
+  <si>
+    <t>CLTG vay KU 1015LDS201100378 (2015)</t>
   </si>
 </sst>
 </file>
@@ -2077,7 +2107,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="310">
+  <cellXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
@@ -2819,6 +2849,9 @@
     <xf numFmtId="164" fontId="41" fillId="0" borderId="16" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="29" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2846,6 +2879,27 @@
     <xf numFmtId="0" fontId="40" fillId="21" borderId="26" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="30" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="26" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="30" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2855,30 +2909,27 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="26" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="30" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" xfId="54" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="26" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="30" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="29" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2891,60 +2942,45 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" xfId="54" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="29" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="21" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="26" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="21" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="26" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="21" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="26" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="21" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="26" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2957,9 +2993,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2969,7 +3002,7 @@
     <xf numFmtId="0" fontId="44" fillId="25" borderId="0" xfId="58" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3112,11 +3145,6 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="21">
-          <cell r="E21">
-            <v>25854855000</v>
-          </cell>
-        </row>
         <row r="54">
           <cell r="D54">
             <v>23117050188</v>
@@ -3442,20 +3470,22 @@
   </sheetPr>
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P4" sqref="P4:R9"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="P10" sqref="P10:P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="153" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" style="153" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="153" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="153" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="153" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="153" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="153" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="153" customWidth="1"/>
+    <col min="4" max="4" width="9" style="153" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="153" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="153" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="153" customWidth="1"/>
     <col min="8" max="8" width="11.140625" style="153" customWidth="1"/>
     <col min="9" max="9" width="14.140625" style="173" customWidth="1"/>
     <col min="10" max="10" width="11" style="153" customWidth="1"/>
@@ -3464,38 +3494,38 @@
     <col min="13" max="13" width="10.85546875" style="153" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" style="153" customWidth="1"/>
     <col min="15" max="15" width="13" style="173" customWidth="1"/>
-    <col min="16" max="16" width="8" style="153"/>
+    <col min="16" max="16" width="13.7109375" style="153" customWidth="1"/>
     <col min="17" max="18" width="12.85546875" style="153" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8" style="153"/>
+    <col min="19" max="16384" width="9.140625" style="153"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21.75" customHeight="1">
-      <c r="A1" s="259" t="s">
+      <c r="A1" s="260" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="259"/>
-      <c r="C1" s="259"/>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="259"/>
-      <c r="H1" s="259"/>
-      <c r="I1" s="259"/>
-      <c r="J1" s="259"/>
-      <c r="K1" s="259"/>
-      <c r="L1" s="259"/>
-      <c r="M1" s="259"/>
-      <c r="N1" s="259"/>
-      <c r="O1" s="259"/>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="260"/>
+      <c r="J1" s="260"/>
+      <c r="K1" s="260"/>
+      <c r="L1" s="260"/>
+      <c r="M1" s="260"/>
+      <c r="N1" s="260"/>
+      <c r="O1" s="260"/>
     </row>
     <row r="2" spans="1:18" s="156" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A2" s="262" t="s">
+      <c r="A2" s="263" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="265" t="s">
+      <c r="B2" s="266" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="265" t="s">
+      <c r="C2" s="266" t="s">
         <v>233</v>
       </c>
       <c r="D2" s="154" t="s">
@@ -3518,38 +3548,38 @@
       <c r="O2" s="155"/>
     </row>
     <row r="3" spans="1:18" s="156" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A3" s="263"/>
-      <c r="B3" s="266"/>
-      <c r="C3" s="266"/>
-      <c r="D3" s="260" t="s">
+      <c r="A3" s="264"/>
+      <c r="B3" s="267"/>
+      <c r="C3" s="267"/>
+      <c r="D3" s="261" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="261"/>
-      <c r="F3" s="260" t="s">
+      <c r="E3" s="262"/>
+      <c r="F3" s="261" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="261"/>
-      <c r="H3" s="260" t="s">
+      <c r="G3" s="262"/>
+      <c r="H3" s="261" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="261"/>
-      <c r="J3" s="260" t="s">
+      <c r="I3" s="262"/>
+      <c r="J3" s="261" t="s">
         <v>114</v>
       </c>
-      <c r="K3" s="261"/>
-      <c r="L3" s="260" t="s">
+      <c r="K3" s="262"/>
+      <c r="L3" s="261" t="s">
         <v>113</v>
       </c>
-      <c r="M3" s="261"/>
-      <c r="N3" s="260" t="s">
+      <c r="M3" s="262"/>
+      <c r="N3" s="261" t="s">
         <v>114</v>
       </c>
-      <c r="O3" s="261"/>
+      <c r="O3" s="262"/>
     </row>
     <row r="4" spans="1:18" s="156" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="264"/>
-      <c r="B4" s="267"/>
-      <c r="C4" s="267"/>
+      <c r="A4" s="265"/>
+      <c r="B4" s="268"/>
+      <c r="C4" s="268"/>
       <c r="D4" s="157" t="s">
         <v>115</v>
       </c>
@@ -3585,6 +3615,12 @@
       </c>
       <c r="O4" s="158" t="s">
         <v>116</v>
+      </c>
+      <c r="P4" s="310">
+        <v>21230</v>
+      </c>
+      <c r="Q4" s="310">
+        <v>22485</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="156" customFormat="1" ht="18" customHeight="1">
@@ -3641,8 +3677,17 @@
         <f t="shared" ref="O5:O36" ca="1" si="7">ROUND(MAX(G5+K5-E5-I5,0),2)</f>
         <v>312878775</v>
       </c>
-      <c r="Q5" s="309"/>
-      <c r="R5" s="309"/>
+      <c r="P5" s="310">
+        <v>592868980</v>
+      </c>
+      <c r="Q5" s="310">
+        <f ca="1">ROUND(N5*$Q$4,0)</f>
+        <v>312878775</v>
+      </c>
+      <c r="R5" s="259">
+        <f ca="1">Q5-O5</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:18" s="156" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="159">
@@ -3698,8 +3743,17 @@
         <f t="shared" ca="1" si="7"/>
         <v>749186484</v>
       </c>
-      <c r="Q6" s="309"/>
-      <c r="R6" s="309"/>
+      <c r="P6" s="310">
+        <v>1406071180</v>
+      </c>
+      <c r="Q6" s="310">
+        <f t="shared" ref="Q6:Q8" ca="1" si="8">ROUND(N6*$Q$4,0)</f>
+        <v>749186484</v>
+      </c>
+      <c r="R6" s="259">
+        <f t="shared" ref="R6:R8" ca="1" si="9">Q6-O6</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:18" s="156" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="159">
@@ -3755,8 +3809,17 @@
         <f t="shared" ca="1" si="7"/>
         <v>461301361</v>
       </c>
-      <c r="Q7" s="309"/>
-      <c r="R7" s="309"/>
+      <c r="P7" s="310">
+        <v>874123171</v>
+      </c>
+      <c r="Q7" s="310">
+        <f t="shared" ca="1" si="8"/>
+        <v>461301361</v>
+      </c>
+      <c r="R7" s="259">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:18" s="156" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="159">
@@ -3812,8 +3875,17 @@
         <f t="shared" ca="1" si="7"/>
         <v>645755259</v>
       </c>
-      <c r="Q8" s="309"/>
-      <c r="R8" s="309"/>
+      <c r="P8" s="310">
+        <v>1223684037</v>
+      </c>
+      <c r="Q8" s="310">
+        <f t="shared" ca="1" si="8"/>
+        <v>645755259</v>
+      </c>
+      <c r="R8" s="259">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:18" s="156" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="159">
@@ -4679,19 +4751,19 @@
         <v>2009275000</v>
       </c>
       <c r="L24" s="163">
-        <f t="shared" ref="L24" ca="1" si="8">ROUND(MAX(D24+H24-F24-J24,0),2)</f>
+        <f t="shared" ref="L24" ca="1" si="10">ROUND(MAX(D24+H24-F24-J24,0),2)</f>
         <v>0</v>
       </c>
       <c r="M24" s="164">
-        <f t="shared" ref="M24" ca="1" si="9">ROUND(MAX(E24+I24-G24-K24,0),2)</f>
+        <f t="shared" ref="M24" ca="1" si="11">ROUND(MAX(E24+I24-G24-K24,0),2)</f>
         <v>0</v>
       </c>
       <c r="N24" s="163">
-        <f t="shared" ref="N24" ca="1" si="10">ROUND(MAX(F24+J24-D24-H24,0),2)</f>
+        <f t="shared" ref="N24" ca="1" si="12">ROUND(MAX(F24+J24-D24-H24,0),2)</f>
         <v>0</v>
       </c>
       <c r="O24" s="164">
-        <f t="shared" ref="O24" ca="1" si="11">ROUND(MAX(G24+K24-E24-I24,0),2)</f>
+        <f t="shared" ref="O24" ca="1" si="13">ROUND(MAX(G24+K24-E24-I24,0),2)</f>
         <v>0</v>
       </c>
     </row>
@@ -5394,19 +5466,19 @@
         <v>2117025000</v>
       </c>
       <c r="L37" s="163">
-        <f t="shared" ref="L37" ca="1" si="12">ROUND(MAX(D37+H37-F37-J37,0),2)</f>
+        <f t="shared" ref="L37" ca="1" si="14">ROUND(MAX(D37+H37-F37-J37,0),2)</f>
         <v>0</v>
       </c>
       <c r="M37" s="164">
-        <f t="shared" ref="M37" ca="1" si="13">ROUND(MAX(E37+I37-G37-K37,0),2)</f>
+        <f t="shared" ref="M37" ca="1" si="15">ROUND(MAX(E37+I37-G37-K37,0),2)</f>
         <v>0</v>
       </c>
       <c r="N37" s="163">
-        <f t="shared" ref="N37" ca="1" si="14">ROUND(MAX(F37+J37-D37-H37,0),2)</f>
+        <f t="shared" ref="N37" ca="1" si="16">ROUND(MAX(F37+J37-D37-H37,0),2)</f>
         <v>97000</v>
       </c>
       <c r="O37" s="164">
-        <f t="shared" ref="O37" ca="1" si="15">ROUND(MAX(G37+K37-E37-I37,0),2)</f>
+        <f t="shared" ref="O37" ca="1" si="17">ROUND(MAX(G37+K37-E37-I37,0),2)</f>
         <v>2117025000</v>
       </c>
     </row>
@@ -5449,19 +5521,19 @@
         <v>1842950000</v>
       </c>
       <c r="L38" s="163">
-        <f t="shared" ref="L38" ca="1" si="16">ROUND(MAX(D38+H38-F38-J38,0),2)</f>
+        <f t="shared" ref="L38" ca="1" si="18">ROUND(MAX(D38+H38-F38-J38,0),2)</f>
         <v>0</v>
       </c>
       <c r="M38" s="164">
-        <f t="shared" ref="M38" ca="1" si="17">ROUND(MAX(E38+I38-G38-K38,0),2)</f>
+        <f t="shared" ref="M38" ca="1" si="19">ROUND(MAX(E38+I38-G38-K38,0),2)</f>
         <v>0</v>
       </c>
       <c r="N38" s="163">
-        <f t="shared" ref="N38" ca="1" si="18">ROUND(MAX(F38+J38-D38-H38,0),2)</f>
+        <f t="shared" ref="N38" ca="1" si="20">ROUND(MAX(F38+J38-D38-H38,0),2)</f>
         <v>82000</v>
       </c>
       <c r="O38" s="164">
-        <f t="shared" ref="O38" ca="1" si="19">ROUND(MAX(G38+K38-E38-I38,0),2)</f>
+        <f t="shared" ref="O38" ca="1" si="21">ROUND(MAX(G38+K38-E38-I38,0),2)</f>
         <v>1842950000</v>
       </c>
     </row>
@@ -5504,19 +5576,19 @@
         <v>1154784000</v>
       </c>
       <c r="L39" s="163">
-        <f t="shared" ref="L39" ca="1" si="20">ROUND(MAX(D39+H39-F39-J39,0),2)</f>
+        <f t="shared" ref="L39" ca="1" si="22">ROUND(MAX(D39+H39-F39-J39,0),2)</f>
         <v>0</v>
       </c>
       <c r="M39" s="164">
-        <f t="shared" ref="M39" ca="1" si="21">ROUND(MAX(E39+I39-G39-K39,0),2)</f>
+        <f t="shared" ref="M39" ca="1" si="23">ROUND(MAX(E39+I39-G39-K39,0),2)</f>
         <v>0</v>
       </c>
       <c r="N39" s="163">
-        <f t="shared" ref="N39" ca="1" si="22">ROUND(MAX(F39+J39-D39-H39,0),2)</f>
+        <f t="shared" ref="N39" ca="1" si="24">ROUND(MAX(F39+J39-D39-H39,0),2)</f>
         <v>52300</v>
       </c>
       <c r="O39" s="164">
-        <f t="shared" ref="O39" ca="1" si="23">ROUND(MAX(G39+K39-E39-I39,0),2)</f>
+        <f t="shared" ref="O39" ca="1" si="25">ROUND(MAX(G39+K39-E39-I39,0),2)</f>
         <v>1154784000</v>
       </c>
     </row>
@@ -5549,19 +5621,19 @@
         <v>899520000</v>
       </c>
       <c r="L40" s="163">
-        <f t="shared" ref="L40:L41" ca="1" si="24">ROUND(MAX(D40+H40-F40-J40,0),2)</f>
+        <f t="shared" ref="L40:L41" ca="1" si="26">ROUND(MAX(D40+H40-F40-J40,0),2)</f>
         <v>0</v>
       </c>
       <c r="M40" s="164">
-        <f t="shared" ref="M40:M41" ca="1" si="25">ROUND(MAX(E40+I40-G40-K40,0),2)</f>
+        <f t="shared" ref="M40:M41" ca="1" si="27">ROUND(MAX(E40+I40-G40-K40,0),2)</f>
         <v>0</v>
       </c>
       <c r="N40" s="163">
-        <f t="shared" ref="N40:N41" ca="1" si="26">ROUND(MAX(F40+J40-D40-H40,0),2)</f>
+        <f t="shared" ref="N40:N41" ca="1" si="28">ROUND(MAX(F40+J40-D40-H40,0),2)</f>
         <v>40000</v>
       </c>
       <c r="O40" s="164">
-        <f t="shared" ref="O40:O41" ca="1" si="27">ROUND(MAX(G40+K40-E40-I40,0),2)</f>
+        <f t="shared" ref="O40:O41" ca="1" si="29">ROUND(MAX(G40+K40-E40-I40,0),2)</f>
         <v>899520000</v>
       </c>
     </row>
@@ -5594,19 +5666,19 @@
         <v>1124250000</v>
       </c>
       <c r="L41" s="163">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="M41" s="164">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="N41" s="163">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>50000</v>
       </c>
       <c r="O41" s="164">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>1124250000</v>
       </c>
     </row>
@@ -5639,19 +5711,19 @@
         <v>2011244000</v>
       </c>
       <c r="L42" s="163">
-        <f t="shared" ref="L42" ca="1" si="28">ROUND(MAX(D42+H42-F42-J42,0),2)</f>
+        <f t="shared" ref="L42" ca="1" si="30">ROUND(MAX(D42+H42-F42-J42,0),2)</f>
         <v>0</v>
       </c>
       <c r="M42" s="164">
-        <f t="shared" ref="M42" ca="1" si="29">ROUND(MAX(E42+I42-G42-K42,0),2)</f>
+        <f t="shared" ref="M42" ca="1" si="31">ROUND(MAX(E42+I42-G42-K42,0),2)</f>
         <v>0</v>
       </c>
       <c r="N42" s="163">
-        <f t="shared" ref="N42" ca="1" si="30">ROUND(MAX(F42+J42-D42-H42,0),2)</f>
+        <f t="shared" ref="N42" ca="1" si="32">ROUND(MAX(F42+J42-D42-H42,0),2)</f>
         <v>89500</v>
       </c>
       <c r="O42" s="164">
-        <f t="shared" ref="O42" ca="1" si="31">ROUND(MAX(G42+K42-E42-I42,0),2)</f>
+        <f t="shared" ref="O42" ca="1" si="33">ROUND(MAX(G42+K42-E42-I42,0),2)</f>
         <v>2011244000</v>
       </c>
     </row>
@@ -5684,19 +5756,19 @@
         <v>2001165000</v>
       </c>
       <c r="L43" s="163">
-        <f t="shared" ref="L43" ca="1" si="32">ROUND(MAX(D43+H43-F43-J43,0),2)</f>
+        <f t="shared" ref="L43" ca="1" si="34">ROUND(MAX(D43+H43-F43-J43,0),2)</f>
         <v>0</v>
       </c>
       <c r="M43" s="164">
-        <f t="shared" ref="M43" ca="1" si="33">ROUND(MAX(E43+I43-G43-K43,0),2)</f>
+        <f t="shared" ref="M43" ca="1" si="35">ROUND(MAX(E43+I43-G43-K43,0),2)</f>
         <v>0</v>
       </c>
       <c r="N43" s="163">
-        <f t="shared" ref="N43" ca="1" si="34">ROUND(MAX(F43+J43-D43-H43,0),2)</f>
+        <f t="shared" ref="N43" ca="1" si="36">ROUND(MAX(F43+J43-D43-H43,0),2)</f>
         <v>89000</v>
       </c>
       <c r="O43" s="164">
-        <f t="shared" ref="O43" ca="1" si="35">ROUND(MAX(G43+K43-E43-I43,0),2)</f>
+        <f t="shared" ref="O43" ca="1" si="37">ROUND(MAX(G43+K43-E43-I43,0),2)</f>
         <v>2001165000</v>
       </c>
     </row>
@@ -5809,51 +5881,51 @@
       </c>
       <c r="C50" s="169"/>
       <c r="D50" s="170">
-        <f t="shared" ref="D50:O50" si="36">SUM(D5:D49)</f>
+        <f t="shared" ref="D50:O50" si="38">SUM(D5:D49)</f>
         <v>0</v>
       </c>
       <c r="E50" s="171">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="F50" s="170">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1099639.73</v>
       </c>
       <c r="G50" s="171">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>23117050188</v>
       </c>
       <c r="H50" s="170">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="38"/>
         <v>1543470</v>
       </c>
       <c r="I50" s="171">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="38"/>
         <v>33761738100</v>
       </c>
       <c r="J50" s="170">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="38"/>
         <v>1435500</v>
       </c>
       <c r="K50" s="171">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="38"/>
         <v>32589511291</v>
       </c>
       <c r="L50" s="170">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="38"/>
         <v>0</v>
       </c>
       <c r="M50" s="171">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="38"/>
         <v>0</v>
       </c>
       <c r="N50" s="170">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="38"/>
         <v>991669.73</v>
       </c>
       <c r="O50" s="171">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="38"/>
         <v>21944823379</v>
       </c>
     </row>
@@ -5878,12 +5950,12 @@
       </c>
       <c r="H54" s="250"/>
       <c r="I54" s="250">
-        <f t="shared" ref="I54:K54" ca="1" si="37">I50-I52</f>
+        <f t="shared" ref="I54:K54" ca="1" si="39">I50-I52</f>
         <v>0</v>
       </c>
       <c r="J54" s="250"/>
       <c r="K54" s="250">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -5917,11 +5989,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K76" sqref="K76:K79"/>
+      <pane ySplit="4" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K77" sqref="K77:K84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5940,61 +6012,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="180" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="276" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="271" t="s">
+      <c r="B1" s="269" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="272"/>
-      <c r="D1" s="268" t="s">
+      <c r="C1" s="271"/>
+      <c r="D1" s="276" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="268" t="s">
+      <c r="E1" s="276" t="s">
         <v>239</v>
       </c>
-      <c r="F1" s="268" t="s">
+      <c r="F1" s="276" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="268" t="s">
+      <c r="G1" s="276" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="271" t="s">
+      <c r="H1" s="269" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="273"/>
-      <c r="J1" s="273"/>
-      <c r="K1" s="272"/>
+      <c r="I1" s="270"/>
+      <c r="J1" s="270"/>
+      <c r="K1" s="271"/>
     </row>
     <row r="2" spans="1:11" s="180" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="269"/>
-      <c r="B2" s="274" t="s">
+      <c r="A2" s="277"/>
+      <c r="B2" s="272" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="274" t="s">
+      <c r="C2" s="272" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="269"/>
-      <c r="H2" s="276" t="s">
+      <c r="D2" s="277"/>
+      <c r="E2" s="277"/>
+      <c r="F2" s="277"/>
+      <c r="G2" s="277"/>
+      <c r="H2" s="274" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="277"/>
-      <c r="J2" s="276" t="s">
+      <c r="I2" s="275"/>
+      <c r="J2" s="274" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="277"/>
+      <c r="K2" s="275"/>
     </row>
     <row r="3" spans="1:11" s="180" customFormat="1" ht="27" customHeight="1">
-      <c r="A3" s="270"/>
-      <c r="B3" s="275"/>
-      <c r="C3" s="275"/>
-      <c r="D3" s="270"/>
-      <c r="E3" s="270"/>
-      <c r="F3" s="270"/>
-      <c r="G3" s="270"/>
+      <c r="A3" s="278"/>
+      <c r="B3" s="273"/>
+      <c r="C3" s="273"/>
+      <c r="D3" s="278"/>
+      <c r="E3" s="278"/>
+      <c r="F3" s="278"/>
+      <c r="G3" s="278"/>
       <c r="H3" s="181" t="s">
         <v>115</v>
       </c>
@@ -8349,7 +8421,7 @@
     </row>
     <row r="72" spans="1:11" ht="21.75" customHeight="1">
       <c r="A72" s="242">
-        <f t="shared" ref="A72:A90" si="21">IF(C72&lt;&gt;"",MONTH(C72),"")</f>
+        <f t="shared" ref="A72:A109" si="21">IF(C72&lt;&gt;"",MONTH(C72),"")</f>
         <v>10</v>
       </c>
       <c r="B72" s="189" t="s">
@@ -8374,12 +8446,12 @@
         <v>20658</v>
       </c>
       <c r="I72" s="162">
-        <f t="shared" ref="I72:I90" si="22">G72*H72</f>
+        <f t="shared" ref="I72:I109" si="22">G72*H72</f>
         <v>464495130</v>
       </c>
       <c r="J72" s="174"/>
       <c r="K72" s="162">
-        <f t="shared" ref="K72:K90" si="23">G72*J72</f>
+        <f t="shared" ref="K72:K109" si="23">G72*J72</f>
         <v>0</v>
       </c>
     </row>
@@ -8493,20 +8565,20 @@
     </row>
     <row r="76" spans="1:11" ht="21.75" customHeight="1">
       <c r="A76" s="242">
-        <f t="shared" si="21"/>
-        <v>10</v>
+        <f>IF(C76&lt;&gt;"",MONTH(C76),"")</f>
+        <v>11</v>
       </c>
       <c r="B76" s="189" t="s">
         <v>148</v>
       </c>
       <c r="C76" s="189">
-        <v>42279</v>
+        <v>42328</v>
       </c>
       <c r="D76" s="245" t="s">
         <v>149</v>
       </c>
       <c r="E76" s="160" t="s">
-        <v>117</v>
+        <v>247</v>
       </c>
       <c r="F76" s="190" t="s">
         <v>150</v>
@@ -8514,12 +8586,12 @@
       <c r="G76" s="191"/>
       <c r="H76" s="174"/>
       <c r="I76" s="162">
-        <f t="shared" si="22"/>
+        <f>G76*H76</f>
         <v>0</v>
       </c>
       <c r="J76" s="174"/>
       <c r="K76" s="162">
-        <v>225979261</v>
+        <v>36900000</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="21.75" customHeight="1">
@@ -8534,10 +8606,10 @@
         <v>42279</v>
       </c>
       <c r="D77" s="245" t="s">
-        <v>149</v>
-      </c>
-      <c r="E77" s="232" t="s">
-        <v>118</v>
+        <v>355</v>
+      </c>
+      <c r="E77" s="160" t="s">
+        <v>117</v>
       </c>
       <c r="F77" s="190" t="s">
         <v>150</v>
@@ -8550,7 +8622,7 @@
       </c>
       <c r="J77" s="174"/>
       <c r="K77" s="162">
-        <v>119788642</v>
+        <v>35047130</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="21.75" customHeight="1">
@@ -8565,10 +8637,10 @@
         <v>42279</v>
       </c>
       <c r="D78" s="245" t="s">
-        <v>149</v>
+        <v>356</v>
       </c>
       <c r="E78" s="232" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F78" s="190" t="s">
         <v>150</v>
@@ -8581,7 +8653,7 @@
       </c>
       <c r="J78" s="174"/>
       <c r="K78" s="162">
-        <v>75123567</v>
+        <v>82924139</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="21.75" customHeight="1">
@@ -8596,10 +8668,10 @@
         <v>42279</v>
       </c>
       <c r="D79" s="245" t="s">
-        <v>149</v>
+        <v>357</v>
       </c>
       <c r="E79" s="232" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F79" s="190" t="s">
         <v>150</v>
@@ -8612,25 +8684,25 @@
       </c>
       <c r="J79" s="174"/>
       <c r="K79" s="162">
-        <v>105655421</v>
+        <v>51673320</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="21.75" customHeight="1">
       <c r="A80" s="242">
         <f t="shared" si="21"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B80" s="189" t="s">
         <v>148</v>
       </c>
       <c r="C80" s="189">
-        <v>42328</v>
+        <v>42279</v>
       </c>
       <c r="D80" s="245" t="s">
-        <v>149</v>
-      </c>
-      <c r="E80" s="160" t="s">
-        <v>247</v>
+        <v>358</v>
+      </c>
+      <c r="E80" s="232" t="s">
+        <v>120</v>
       </c>
       <c r="F80" s="190" t="s">
         <v>150</v>
@@ -8643,19 +8715,29 @@
       </c>
       <c r="J80" s="174"/>
       <c r="K80" s="162">
-        <v>36900000</v>
+        <v>72337422</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A81" s="242" t="str">
+      <c r="A81" s="242">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="B81" s="189"/>
-      <c r="C81" s="189"/>
-      <c r="D81" s="231"/>
-      <c r="E81" s="232"/>
-      <c r="F81" s="190"/>
+        <v>10</v>
+      </c>
+      <c r="B81" s="189" t="s">
+        <v>349</v>
+      </c>
+      <c r="C81" s="189">
+        <v>42279</v>
+      </c>
+      <c r="D81" s="245" t="s">
+        <v>351</v>
+      </c>
+      <c r="E81" s="160" t="s">
+        <v>117</v>
+      </c>
+      <c r="F81" s="190" t="s">
+        <v>350</v>
+      </c>
       <c r="G81" s="191"/>
       <c r="H81" s="174"/>
       <c r="I81" s="162">
@@ -8664,20 +8746,29 @@
       </c>
       <c r="J81" s="174"/>
       <c r="K81" s="162">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>190932131</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A82" s="242" t="str">
+      <c r="A82" s="242">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="B82" s="189"/>
-      <c r="C82" s="189"/>
-      <c r="D82" s="231"/>
-      <c r="E82" s="232"/>
-      <c r="F82" s="190"/>
+        <v>10</v>
+      </c>
+      <c r="B82" s="189" t="s">
+        <v>349</v>
+      </c>
+      <c r="C82" s="189">
+        <v>42279</v>
+      </c>
+      <c r="D82" s="245" t="s">
+        <v>352</v>
+      </c>
+      <c r="E82" s="232" t="s">
+        <v>118</v>
+      </c>
+      <c r="F82" s="190" t="s">
+        <v>350</v>
+      </c>
       <c r="G82" s="191"/>
       <c r="H82" s="174"/>
       <c r="I82" s="162">
@@ -8686,20 +8777,29 @@
       </c>
       <c r="J82" s="174"/>
       <c r="K82" s="162">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>36864503</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A83" s="242" t="str">
+      <c r="A83" s="242">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="B83" s="189"/>
-      <c r="C83" s="189"/>
-      <c r="D83" s="231"/>
-      <c r="E83" s="232"/>
-      <c r="F83" s="190"/>
+        <v>10</v>
+      </c>
+      <c r="B83" s="189" t="s">
+        <v>349</v>
+      </c>
+      <c r="C83" s="189">
+        <v>42279</v>
+      </c>
+      <c r="D83" s="245" t="s">
+        <v>354</v>
+      </c>
+      <c r="E83" s="232" t="s">
+        <v>119</v>
+      </c>
+      <c r="F83" s="190" t="s">
+        <v>350</v>
+      </c>
       <c r="G83" s="191"/>
       <c r="H83" s="174"/>
       <c r="I83" s="162">
@@ -8708,20 +8808,29 @@
       </c>
       <c r="J83" s="174"/>
       <c r="K83" s="162">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>23450247</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A84" s="242" t="str">
+      <c r="A84" s="242">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="B84" s="189"/>
-      <c r="C84" s="189"/>
-      <c r="D84" s="231"/>
-      <c r="E84" s="232"/>
-      <c r="F84" s="190"/>
+        <v>10</v>
+      </c>
+      <c r="B84" s="189" t="s">
+        <v>349</v>
+      </c>
+      <c r="C84" s="189">
+        <v>42279</v>
+      </c>
+      <c r="D84" s="245" t="s">
+        <v>353</v>
+      </c>
+      <c r="E84" s="232" t="s">
+        <v>120</v>
+      </c>
+      <c r="F84" s="190" t="s">
+        <v>350</v>
+      </c>
       <c r="G84" s="191"/>
       <c r="H84" s="174"/>
       <c r="I84" s="162">
@@ -8730,8 +8839,7 @@
       </c>
       <c r="J84" s="174"/>
       <c r="K84" s="162">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>33317999</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="21.75" customHeight="1">
@@ -8741,8 +8849,8 @@
       </c>
       <c r="B85" s="189"/>
       <c r="C85" s="189"/>
-      <c r="D85" s="231"/>
-      <c r="E85" s="232"/>
+      <c r="D85" s="245"/>
+      <c r="E85" s="160"/>
       <c r="F85" s="190"/>
       <c r="G85" s="191"/>
       <c r="H85" s="174"/>
@@ -8758,111 +8866,529 @@
     </row>
     <row r="86" spans="1:11" ht="21.75" customHeight="1">
       <c r="A86" s="242" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="A86:A109" si="24">IF(C86&lt;&gt;"",MONTH(C86),"")</f>
         <v/>
       </c>
       <c r="B86" s="189"/>
       <c r="C86" s="189"/>
-      <c r="D86" s="231"/>
-      <c r="E86" s="232"/>
+      <c r="D86" s="245"/>
+      <c r="E86" s="160"/>
       <c r="F86" s="190"/>
       <c r="G86" s="191"/>
       <c r="H86" s="174"/>
       <c r="I86" s="162">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="I86:I109" si="25">G86*H86</f>
         <v>0</v>
       </c>
       <c r="J86" s="174"/>
       <c r="K86" s="162">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="K86:K109" si="26">G86*J86</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="21.75" customHeight="1">
       <c r="A87" s="242" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="B87" s="189"/>
       <c r="C87" s="189"/>
-      <c r="D87" s="231"/>
-      <c r="E87" s="232"/>
+      <c r="D87" s="245"/>
+      <c r="E87" s="160"/>
       <c r="F87" s="190"/>
       <c r="G87" s="191"/>
       <c r="H87" s="174"/>
       <c r="I87" s="162">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J87" s="174"/>
       <c r="K87" s="162">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="21.75" customHeight="1">
       <c r="A88" s="242" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="B88" s="189"/>
       <c r="C88" s="189"/>
-      <c r="D88" s="231"/>
-      <c r="E88" s="232"/>
+      <c r="D88" s="245"/>
+      <c r="E88" s="160"/>
       <c r="F88" s="190"/>
       <c r="G88" s="191"/>
       <c r="H88" s="174"/>
       <c r="I88" s="162">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J88" s="174"/>
       <c r="K88" s="162">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="21.75" customHeight="1">
       <c r="A89" s="242" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="B89" s="189"/>
       <c r="C89" s="189"/>
-      <c r="D89" s="231"/>
-      <c r="E89" s="232"/>
+      <c r="D89" s="245"/>
+      <c r="E89" s="160"/>
       <c r="F89" s="190"/>
       <c r="G89" s="191"/>
       <c r="H89" s="174"/>
       <c r="I89" s="162">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J89" s="174"/>
       <c r="K89" s="162">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="21.75" customHeight="1">
       <c r="A90" s="242" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="B90" s="189"/>
       <c r="C90" s="189"/>
-      <c r="D90" s="231"/>
-      <c r="E90" s="232"/>
+      <c r="D90" s="245"/>
+      <c r="E90" s="160"/>
       <c r="F90" s="190"/>
       <c r="G90" s="191"/>
       <c r="H90" s="174"/>
       <c r="I90" s="162">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J90" s="174"/>
       <c r="K90" s="162">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="21.75" customHeight="1">
+      <c r="A91" s="242" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="B91" s="189"/>
+      <c r="C91" s="189"/>
+      <c r="D91" s="245"/>
+      <c r="E91" s="160"/>
+      <c r="F91" s="190"/>
+      <c r="G91" s="191"/>
+      <c r="H91" s="174"/>
+      <c r="I91" s="162">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="174"/>
+      <c r="K91" s="162">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="21.75" customHeight="1">
+      <c r="A92" s="242" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="B92" s="189"/>
+      <c r="C92" s="189"/>
+      <c r="D92" s="245"/>
+      <c r="E92" s="160"/>
+      <c r="F92" s="190"/>
+      <c r="G92" s="191"/>
+      <c r="H92" s="174"/>
+      <c r="I92" s="162">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="174"/>
+      <c r="K92" s="162">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="21.75" customHeight="1">
+      <c r="A93" s="242" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="B93" s="189"/>
+      <c r="C93" s="189"/>
+      <c r="D93" s="245"/>
+      <c r="E93" s="160"/>
+      <c r="F93" s="190"/>
+      <c r="G93" s="191"/>
+      <c r="H93" s="174"/>
+      <c r="I93" s="162">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="174"/>
+      <c r="K93" s="162">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="21.75" customHeight="1">
+      <c r="A94" s="242" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="B94" s="189"/>
+      <c r="C94" s="189"/>
+      <c r="D94" s="245"/>
+      <c r="E94" s="160"/>
+      <c r="F94" s="190"/>
+      <c r="G94" s="191"/>
+      <c r="H94" s="174"/>
+      <c r="I94" s="162">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="174"/>
+      <c r="K94" s="162">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="21.75" customHeight="1">
+      <c r="A95" s="242" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="B95" s="189"/>
+      <c r="C95" s="189"/>
+      <c r="D95" s="245"/>
+      <c r="E95" s="160"/>
+      <c r="F95" s="190"/>
+      <c r="G95" s="191"/>
+      <c r="H95" s="174"/>
+      <c r="I95" s="162">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="174"/>
+      <c r="K95" s="162">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="21.75" customHeight="1">
+      <c r="A96" s="242" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="B96" s="189"/>
+      <c r="C96" s="189"/>
+      <c r="D96" s="245"/>
+      <c r="E96" s="160"/>
+      <c r="F96" s="190"/>
+      <c r="G96" s="191"/>
+      <c r="H96" s="174"/>
+      <c r="I96" s="162">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="174"/>
+      <c r="K96" s="162">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="21.75" customHeight="1">
+      <c r="A97" s="242" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="B97" s="189"/>
+      <c r="C97" s="189"/>
+      <c r="D97" s="245"/>
+      <c r="E97" s="160"/>
+      <c r="F97" s="190"/>
+      <c r="G97" s="191"/>
+      <c r="H97" s="174"/>
+      <c r="I97" s="162">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="174"/>
+      <c r="K97" s="162">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="21.75" customHeight="1">
+      <c r="A98" s="242" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="B98" s="189"/>
+      <c r="C98" s="189"/>
+      <c r="D98" s="245"/>
+      <c r="E98" s="160"/>
+      <c r="F98" s="190"/>
+      <c r="G98" s="191"/>
+      <c r="H98" s="174"/>
+      <c r="I98" s="162">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="174"/>
+      <c r="K98" s="162">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="21.75" customHeight="1">
+      <c r="A99" s="242" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="B99" s="189"/>
+      <c r="C99" s="189"/>
+      <c r="D99" s="245"/>
+      <c r="E99" s="160"/>
+      <c r="F99" s="190"/>
+      <c r="G99" s="191"/>
+      <c r="H99" s="174"/>
+      <c r="I99" s="162">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="174"/>
+      <c r="K99" s="162">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="21.75" customHeight="1">
+      <c r="A100" s="242" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="B100" s="189"/>
+      <c r="C100" s="189"/>
+      <c r="D100" s="245"/>
+      <c r="E100" s="160"/>
+      <c r="F100" s="190"/>
+      <c r="G100" s="191"/>
+      <c r="H100" s="174"/>
+      <c r="I100" s="162">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="174"/>
+      <c r="K100" s="162">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="21.75" customHeight="1">
+      <c r="A101" s="242" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="B101" s="189"/>
+      <c r="C101" s="189"/>
+      <c r="D101" s="245"/>
+      <c r="E101" s="160"/>
+      <c r="F101" s="190"/>
+      <c r="G101" s="191"/>
+      <c r="H101" s="174"/>
+      <c r="I101" s="162">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="174"/>
+      <c r="K101" s="162">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="21.75" customHeight="1">
+      <c r="A102" s="242" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="B102" s="189"/>
+      <c r="C102" s="189"/>
+      <c r="D102" s="245"/>
+      <c r="E102" s="160"/>
+      <c r="F102" s="190"/>
+      <c r="G102" s="191"/>
+      <c r="H102" s="174"/>
+      <c r="I102" s="162">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="174"/>
+      <c r="K102" s="162">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="21.75" customHeight="1">
+      <c r="A103" s="242" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="B103" s="189"/>
+      <c r="C103" s="189"/>
+      <c r="D103" s="245"/>
+      <c r="E103" s="160"/>
+      <c r="F103" s="190"/>
+      <c r="G103" s="191"/>
+      <c r="H103" s="174"/>
+      <c r="I103" s="162">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="174"/>
+      <c r="K103" s="162">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="21.75" customHeight="1">
+      <c r="A104" s="242" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="B104" s="189"/>
+      <c r="C104" s="189"/>
+      <c r="D104" s="245"/>
+      <c r="E104" s="160"/>
+      <c r="F104" s="190"/>
+      <c r="G104" s="191"/>
+      <c r="H104" s="174"/>
+      <c r="I104" s="162">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J104" s="174"/>
+      <c r="K104" s="162">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="21.75" customHeight="1">
+      <c r="A105" s="242" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="B105" s="189"/>
+      <c r="C105" s="189"/>
+      <c r="D105" s="245"/>
+      <c r="E105" s="160"/>
+      <c r="F105" s="190"/>
+      <c r="G105" s="191"/>
+      <c r="H105" s="174"/>
+      <c r="I105" s="162">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="174"/>
+      <c r="K105" s="162">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="21.75" customHeight="1">
+      <c r="A106" s="242" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="B106" s="189"/>
+      <c r="C106" s="189"/>
+      <c r="D106" s="245"/>
+      <c r="E106" s="160"/>
+      <c r="F106" s="190"/>
+      <c r="G106" s="191"/>
+      <c r="H106" s="174"/>
+      <c r="I106" s="162">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="174"/>
+      <c r="K106" s="162">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="21.75" customHeight="1">
+      <c r="A107" s="242" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="B107" s="189"/>
+      <c r="C107" s="189"/>
+      <c r="D107" s="245"/>
+      <c r="E107" s="160"/>
+      <c r="F107" s="190"/>
+      <c r="G107" s="191"/>
+      <c r="H107" s="174"/>
+      <c r="I107" s="162">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J107" s="174"/>
+      <c r="K107" s="162">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="21.75" customHeight="1">
+      <c r="A108" s="242" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="B108" s="189"/>
+      <c r="C108" s="189"/>
+      <c r="D108" s="245"/>
+      <c r="E108" s="160"/>
+      <c r="F108" s="190"/>
+      <c r="G108" s="191"/>
+      <c r="H108" s="174"/>
+      <c r="I108" s="162">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="174"/>
+      <c r="K108" s="162">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="21.75" customHeight="1">
+      <c r="A109" s="242" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="B109" s="189"/>
+      <c r="C109" s="189"/>
+      <c r="D109" s="245"/>
+      <c r="E109" s="160"/>
+      <c r="F109" s="190"/>
+      <c r="G109" s="191"/>
+      <c r="H109" s="174"/>
+      <c r="I109" s="162">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="174"/>
+      <c r="K109" s="162">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -8872,20 +9398,20 @@
     <filterColumn colId="5"/>
   </autoFilter>
   <mergeCells count="11">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="G1:G3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E42:E47 E5:E40 E52:E61 E63:E64 E66:E73 E75 E77:E90">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E42:E47 E5:E40 E52:E61 E63:E64 E66:E73 E78:E80 E75:E76 E82:E109">
       <formula1>DSKU</formula1>
     </dataValidation>
   </dataValidations>
@@ -8901,7 +9427,7 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -8932,13 +9458,13 @@
       <c r="C1" s="177"/>
       <c r="H1" s="177"/>
       <c r="I1" s="177"/>
-      <c r="J1" s="279" t="s">
+      <c r="J1" s="286" t="s">
         <v>241</v>
       </c>
-      <c r="K1" s="279"/>
-      <c r="L1" s="279"/>
-      <c r="M1" s="279"/>
-      <c r="N1" s="279"/>
+      <c r="K1" s="286"/>
+      <c r="L1" s="286"/>
+      <c r="M1" s="286"/>
+      <c r="N1" s="286"/>
     </row>
     <row r="2" spans="1:14" s="178" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="176" t="s">
@@ -8948,13 +9474,13 @@
       <c r="C2" s="219"/>
       <c r="H2" s="179"/>
       <c r="I2" s="179"/>
-      <c r="J2" s="280" t="s">
+      <c r="J2" s="287" t="s">
         <v>242</v>
       </c>
-      <c r="K2" s="280"/>
-      <c r="L2" s="280"/>
-      <c r="M2" s="280"/>
-      <c r="N2" s="280"/>
+      <c r="K2" s="287"/>
+      <c r="L2" s="287"/>
+      <c r="M2" s="287"/>
+      <c r="N2" s="287"/>
     </row>
     <row r="3" spans="1:14" s="178" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="219"/>
@@ -8962,11 +9488,11 @@
       <c r="C3" s="219"/>
       <c r="H3" s="179"/>
       <c r="I3" s="179"/>
-      <c r="J3" s="280"/>
-      <c r="K3" s="280"/>
-      <c r="L3" s="280"/>
-      <c r="M3" s="280"/>
-      <c r="N3" s="280"/>
+      <c r="J3" s="287"/>
+      <c r="K3" s="287"/>
+      <c r="L3" s="287"/>
+      <c r="M3" s="287"/>
+      <c r="N3" s="287"/>
     </row>
     <row r="4" spans="1:14" s="178" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="219"/>
@@ -8981,77 +9507,77 @@
       <c r="N4" s="220"/>
     </row>
     <row r="5" spans="1:14" s="180" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="281" t="s">
+      <c r="A5" s="288" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="282"/>
-      <c r="C5" s="282"/>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282"/>
-      <c r="H5" s="282"/>
-      <c r="I5" s="282"/>
-      <c r="J5" s="282"/>
-      <c r="K5" s="282"/>
-      <c r="L5" s="282"/>
-      <c r="M5" s="282"/>
-      <c r="N5" s="282"/>
+      <c r="B5" s="289"/>
+      <c r="C5" s="289"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
+      <c r="I5" s="289"/>
+      <c r="J5" s="289"/>
+      <c r="K5" s="289"/>
+      <c r="L5" s="289"/>
+      <c r="M5" s="289"/>
+      <c r="N5" s="289"/>
     </row>
     <row r="6" spans="1:14" s="180" customFormat="1">
-      <c r="A6" s="278" t="s">
+      <c r="A6" s="280" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="278"/>
-      <c r="C6" s="278"/>
-      <c r="D6" s="278"/>
-      <c r="E6" s="278"/>
-      <c r="F6" s="278"/>
-      <c r="G6" s="278"/>
-      <c r="H6" s="278"/>
-      <c r="I6" s="278"/>
-      <c r="J6" s="278"/>
-      <c r="K6" s="278"/>
-      <c r="L6" s="278"/>
-      <c r="M6" s="278"/>
-      <c r="N6" s="278"/>
+      <c r="B6" s="280"/>
+      <c r="C6" s="280"/>
+      <c r="D6" s="280"/>
+      <c r="E6" s="280"/>
+      <c r="F6" s="280"/>
+      <c r="G6" s="280"/>
+      <c r="H6" s="280"/>
+      <c r="I6" s="280"/>
+      <c r="J6" s="280"/>
+      <c r="K6" s="280"/>
+      <c r="L6" s="280"/>
+      <c r="M6" s="280"/>
+      <c r="N6" s="280"/>
     </row>
     <row r="7" spans="1:14" s="180" customFormat="1">
-      <c r="A7" s="278" t="s">
+      <c r="A7" s="280" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="278"/>
-      <c r="C7" s="278"/>
-      <c r="D7" s="278"/>
-      <c r="E7" s="278"/>
-      <c r="F7" s="278"/>
-      <c r="G7" s="278"/>
-      <c r="H7" s="278"/>
-      <c r="I7" s="278"/>
-      <c r="J7" s="278"/>
-      <c r="K7" s="278"/>
-      <c r="L7" s="278"/>
-      <c r="M7" s="278"/>
-      <c r="N7" s="278"/>
+      <c r="B7" s="280"/>
+      <c r="C7" s="280"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="280"/>
+      <c r="I7" s="280"/>
+      <c r="J7" s="280"/>
+      <c r="K7" s="280"/>
+      <c r="L7" s="280"/>
+      <c r="M7" s="280"/>
+      <c r="N7" s="280"/>
     </row>
     <row r="8" spans="1:14" s="180" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="278" t="str">
+      <c r="A8" s="280" t="str">
         <f>IF(MID($H$9,4,4)="1015","Đối tượng cho vay: NH Eximbank CN Q11","Đối tượng cho vay: NH Eximbank CN Q4")</f>
         <v>Đối tượng cho vay: NH Eximbank CN Q11</v>
       </c>
-      <c r="B8" s="278"/>
-      <c r="C8" s="278"/>
-      <c r="D8" s="278"/>
-      <c r="E8" s="278"/>
-      <c r="F8" s="278"/>
-      <c r="G8" s="278"/>
-      <c r="H8" s="278"/>
-      <c r="I8" s="278"/>
-      <c r="J8" s="278"/>
-      <c r="K8" s="278"/>
-      <c r="L8" s="278"/>
-      <c r="M8" s="278"/>
-      <c r="N8" s="278"/>
+      <c r="B8" s="280"/>
+      <c r="C8" s="280"/>
+      <c r="D8" s="280"/>
+      <c r="E8" s="280"/>
+      <c r="F8" s="280"/>
+      <c r="G8" s="280"/>
+      <c r="H8" s="280"/>
+      <c r="I8" s="280"/>
+      <c r="J8" s="280"/>
+      <c r="K8" s="280"/>
+      <c r="L8" s="280"/>
+      <c r="M8" s="280"/>
+      <c r="N8" s="280"/>
     </row>
     <row r="9" spans="1:14" s="180" customFormat="1">
       <c r="A9" s="218"/>
@@ -9063,10 +9589,10 @@
       <c r="G9" s="234" t="s">
         <v>240</v>
       </c>
-      <c r="H9" s="283" t="s">
+      <c r="H9" s="279" t="s">
         <v>117</v>
       </c>
-      <c r="I9" s="283"/>
+      <c r="I9" s="279"/>
       <c r="J9" s="235" t="str">
         <f>"ngày "&amp; TEXT(VLOOKUP($H$9,'341'!$B$5:$C$49,2,0),"dd/MM/yy")</f>
         <v>ngày 22/01/10</v>
@@ -9077,102 +9603,102 @@
       <c r="N9" s="218"/>
     </row>
     <row r="10" spans="1:14" s="180" customFormat="1">
-      <c r="A10" s="278" t="s">
+      <c r="A10" s="280" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="278"/>
-      <c r="C10" s="278"/>
-      <c r="D10" s="278"/>
-      <c r="E10" s="278"/>
-      <c r="F10" s="278"/>
-      <c r="G10" s="278"/>
-      <c r="H10" s="278"/>
-      <c r="I10" s="278"/>
-      <c r="J10" s="278"/>
-      <c r="K10" s="278"/>
-      <c r="L10" s="278"/>
-      <c r="M10" s="278"/>
-      <c r="N10" s="278"/>
+      <c r="B10" s="280"/>
+      <c r="C10" s="280"/>
+      <c r="D10" s="280"/>
+      <c r="E10" s="280"/>
+      <c r="F10" s="280"/>
+      <c r="G10" s="280"/>
+      <c r="H10" s="280"/>
+      <c r="I10" s="280"/>
+      <c r="J10" s="280"/>
+      <c r="K10" s="280"/>
+      <c r="L10" s="280"/>
+      <c r="M10" s="280"/>
+      <c r="N10" s="280"/>
     </row>
     <row r="11" spans="1:14" s="180" customFormat="1">
-      <c r="C11" s="284"/>
-      <c r="D11" s="284"/>
-      <c r="E11" s="284"/>
-      <c r="F11" s="284"/>
-      <c r="G11" s="284"/>
-      <c r="H11" s="284"/>
-      <c r="I11" s="284"/>
-      <c r="J11" s="284"/>
-      <c r="K11" s="284"/>
-      <c r="L11" s="284"/>
-      <c r="M11" s="284"/>
-      <c r="N11" s="284"/>
+      <c r="C11" s="281"/>
+      <c r="D11" s="281"/>
+      <c r="E11" s="281"/>
+      <c r="F11" s="281"/>
+      <c r="G11" s="281"/>
+      <c r="H11" s="281"/>
+      <c r="I11" s="281"/>
+      <c r="J11" s="281"/>
+      <c r="K11" s="281"/>
+      <c r="L11" s="281"/>
+      <c r="M11" s="281"/>
+      <c r="N11" s="281"/>
     </row>
     <row r="12" spans="1:14" s="180" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A12" s="268" t="s">
+      <c r="A12" s="276" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="271" t="s">
+      <c r="B12" s="269" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="272"/>
-      <c r="D12" s="268" t="s">
+      <c r="C12" s="271"/>
+      <c r="D12" s="276" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="268" t="s">
+      <c r="E12" s="276" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="268" t="s">
+      <c r="F12" s="276" t="s">
         <v>139</v>
       </c>
-      <c r="G12" s="271" t="s">
+      <c r="G12" s="269" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="287"/>
-      <c r="I12" s="287"/>
-      <c r="J12" s="288"/>
-      <c r="K12" s="271" t="s">
+      <c r="H12" s="284"/>
+      <c r="I12" s="284"/>
+      <c r="J12" s="285"/>
+      <c r="K12" s="269" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="287"/>
-      <c r="M12" s="287"/>
-      <c r="N12" s="288"/>
+      <c r="L12" s="284"/>
+      <c r="M12" s="284"/>
+      <c r="N12" s="285"/>
     </row>
     <row r="13" spans="1:14" s="180" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="269"/>
-      <c r="B13" s="274" t="s">
+      <c r="A13" s="277"/>
+      <c r="B13" s="272" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="274" t="s">
+      <c r="C13" s="272" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="269"/>
-      <c r="E13" s="269"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="276" t="s">
+      <c r="D13" s="277"/>
+      <c r="E13" s="277"/>
+      <c r="F13" s="282"/>
+      <c r="G13" s="274" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="288"/>
-      <c r="I13" s="276" t="s">
+      <c r="H13" s="285"/>
+      <c r="I13" s="274" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="288"/>
-      <c r="K13" s="276" t="s">
+      <c r="J13" s="285"/>
+      <c r="K13" s="274" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="288"/>
-      <c r="M13" s="276" t="s">
+      <c r="L13" s="285"/>
+      <c r="M13" s="274" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="288"/>
+      <c r="N13" s="285"/>
     </row>
     <row r="14" spans="1:14" s="180" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A14" s="270"/>
-      <c r="B14" s="275"/>
-      <c r="C14" s="275"/>
-      <c r="D14" s="270"/>
-      <c r="E14" s="270"/>
-      <c r="F14" s="286"/>
+      <c r="A14" s="278"/>
+      <c r="B14" s="273"/>
+      <c r="C14" s="273"/>
+      <c r="D14" s="278"/>
+      <c r="E14" s="278"/>
+      <c r="F14" s="283"/>
       <c r="G14" s="181" t="s">
         <v>115</v>
       </c>
@@ -9345,7 +9871,7 @@
       </c>
       <c r="D18" s="240" t="str">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong4),"",OFFSET('TH-341'!D$1,SMALL(Dong4,ROWS($1:2)),))</f>
-        <v>Chênh lệch tỷ giá vay NH</v>
+        <v>CLTG vay KU 1015LDS201000102 (2015)</v>
       </c>
       <c r="E18" s="189" t="str">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong4),"",OFFSET('TH-341'!F$1,SMALL(Dong4,ROWS($1:2)),))</f>
@@ -9369,7 +9895,7 @@
       </c>
       <c r="J18" s="237">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong4),"",OFFSET('TH-341'!K$1,SMALL(Dong4,ROWS($1:2)),))</f>
-        <v>225979261</v>
+        <v>35047130</v>
       </c>
       <c r="K18" s="161">
         <f t="shared" ref="K18:K19" ca="1" si="5">IF(C18&lt;&gt;"",ROUND(MAX(K17+G18-I18-M17,0),2),0)</f>
@@ -9385,49 +9911,49 @@
       </c>
       <c r="N18" s="162">
         <f t="shared" ref="N18:N19" ca="1" si="8">IF(C18&lt;&gt;"",MAX(N17-L17+J18-H18,0),0)</f>
-        <v>312878775</v>
+        <v>121946644</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="197" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A19" s="188" t="str">
+      <c r="A19" s="188">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>42279</v>
       </c>
       <c r="B19" s="189" t="str">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong4),"",OFFSET('TH-341'!B$1,SMALL(Dong4,ROWS($1:3)),))</f>
-        <v/>
-      </c>
-      <c r="C19" s="189" t="str">
+        <v>BTĐC</v>
+      </c>
+      <c r="C19" s="189">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong4),"",OFFSET('TH-341'!C$1,SMALL(Dong4,ROWS($1:3)),))</f>
-        <v/>
+        <v>42279</v>
       </c>
       <c r="D19" s="240" t="str">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong4),"",OFFSET('TH-341'!D$1,SMALL(Dong4,ROWS($1:3)),))</f>
-        <v/>
+        <v>CLTG vay KU 1015LDS201000102 (2010-2014)</v>
       </c>
       <c r="E19" s="189" t="str">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong4),"",OFFSET('TH-341'!F$1,SMALL(Dong4,ROWS($1:3)),))</f>
-        <v/>
-      </c>
-      <c r="F19" s="237" t="str">
+        <v>4211</v>
+      </c>
+      <c r="F19" s="237">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong4),"",OFFSET('TH-341'!G$1,SMALL(Dong4,ROWS($1:3)),))</f>
-        <v/>
-      </c>
-      <c r="G19" s="238" t="str">
+        <v>0</v>
+      </c>
+      <c r="G19" s="238">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong4),"",OFFSET('TH-341'!H$1,SMALL(Dong4,ROWS($1:3)),))</f>
-        <v/>
-      </c>
-      <c r="H19" s="237" t="str">
+        <v>0</v>
+      </c>
+      <c r="H19" s="237">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong4),"",OFFSET('TH-341'!I$1,SMALL(Dong4,ROWS($1:3)),))</f>
-        <v/>
-      </c>
-      <c r="I19" s="238" t="str">
+        <v>0</v>
+      </c>
+      <c r="I19" s="238">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong4),"",OFFSET('TH-341'!J$1,SMALL(Dong4,ROWS($1:3)),))</f>
-        <v/>
-      </c>
-      <c r="J19" s="237" t="str">
+        <v>0</v>
+      </c>
+      <c r="J19" s="237">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong4),"",OFFSET('TH-341'!K$1,SMALL(Dong4,ROWS($1:3)),))</f>
-        <v/>
+        <v>190932131</v>
       </c>
       <c r="K19" s="161">
         <f t="shared" ca="1" si="5"/>
@@ -9439,11 +9965,11 @@
       </c>
       <c r="M19" s="161">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>13915</v>
       </c>
       <c r="N19" s="162">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>312878775</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="197" customFormat="1" ht="19.5" customHeight="1">
@@ -9673,6 +10199,12 @@
     <row r="44" s="239" customFormat="1"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="J2:N3"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="A7:N7"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="A10:N10"/>
     <mergeCell ref="C11:N11"/>
@@ -9689,12 +10221,6 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="M13:N13"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="J2:N3"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="A7:N7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:I9">
@@ -9748,11 +10274,11 @@
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="299" t="s">
+      <c r="G2" s="300" t="s">
         <v>165</v>
       </c>
-      <c r="H2" s="299"/>
-      <c r="I2" s="299"/>
+      <c r="H2" s="300"/>
+      <c r="I2" s="300"/>
       <c r="O2" s="15" t="s">
         <v>0</v>
       </c>
@@ -9762,11 +10288,11 @@
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="300" t="s">
+      <c r="G3" s="301" t="s">
         <v>166</v>
       </c>
-      <c r="H3" s="300"/>
-      <c r="I3" s="300"/>
+      <c r="H3" s="301"/>
+      <c r="I3" s="301"/>
       <c r="O3" s="15" t="s">
         <v>1</v>
       </c>
@@ -9774,24 +10300,24 @@
     </row>
     <row r="4" spans="1:21">
       <c r="F4" s="3"/>
-      <c r="G4" s="300"/>
-      <c r="H4" s="300"/>
-      <c r="I4" s="300"/>
+      <c r="G4" s="301"/>
+      <c r="H4" s="301"/>
+      <c r="I4" s="301"/>
       <c r="S4" s="3"/>
       <c r="T4" s="29"/>
     </row>
     <row r="5" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A5" s="302" t="s">
+      <c r="A5" s="304" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="302"/>
-      <c r="C5" s="302"/>
-      <c r="D5" s="302"/>
-      <c r="E5" s="302"/>
-      <c r="F5" s="302"/>
-      <c r="G5" s="302"/>
-      <c r="H5" s="302"/>
-      <c r="I5" s="302"/>
+      <c r="B5" s="304"/>
+      <c r="C5" s="304"/>
+      <c r="D5" s="304"/>
+      <c r="E5" s="304"/>
+      <c r="F5" s="304"/>
+      <c r="G5" s="304"/>
+      <c r="H5" s="304"/>
+      <c r="I5" s="304"/>
       <c r="O5" s="29"/>
       <c r="P5" s="29"/>
       <c r="R5" s="29"/>
@@ -9799,17 +10325,17 @@
       <c r="T5" s="29"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="289" t="s">
+      <c r="A6" s="302" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="289"/>
-      <c r="C6" s="289"/>
-      <c r="D6" s="289"/>
-      <c r="E6" s="289"/>
-      <c r="F6" s="289"/>
-      <c r="G6" s="289"/>
-      <c r="H6" s="289"/>
-      <c r="I6" s="289"/>
+      <c r="B6" s="302"/>
+      <c r="C6" s="302"/>
+      <c r="D6" s="302"/>
+      <c r="E6" s="302"/>
+      <c r="F6" s="302"/>
+      <c r="G6" s="302"/>
+      <c r="H6" s="302"/>
+      <c r="I6" s="302"/>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
       <c r="R6" s="29"/>
@@ -9817,17 +10343,17 @@
       <c r="T6" s="29"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="303" t="s">
+      <c r="A7" s="305" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="303"/>
-      <c r="C7" s="303"/>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
-      <c r="F7" s="303"/>
-      <c r="G7" s="303"/>
-      <c r="H7" s="303"/>
-      <c r="I7" s="303"/>
+      <c r="B7" s="305"/>
+      <c r="C7" s="305"/>
+      <c r="D7" s="305"/>
+      <c r="E7" s="305"/>
+      <c r="F7" s="305"/>
+      <c r="G7" s="305"/>
+      <c r="H7" s="305"/>
+      <c r="I7" s="305"/>
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
       <c r="R7" s="29"/>
@@ -9835,17 +10361,17 @@
       <c r="T7" s="29"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="289" t="s">
+      <c r="A8" s="302" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="289"/>
-      <c r="C8" s="289"/>
-      <c r="D8" s="289"/>
-      <c r="E8" s="289"/>
-      <c r="F8" s="289"/>
-      <c r="G8" s="289"/>
-      <c r="H8" s="289"/>
-      <c r="I8" s="289"/>
+      <c r="B8" s="302"/>
+      <c r="C8" s="302"/>
+      <c r="D8" s="302"/>
+      <c r="E8" s="302"/>
+      <c r="F8" s="302"/>
+      <c r="G8" s="302"/>
+      <c r="H8" s="302"/>
+      <c r="I8" s="302"/>
       <c r="O8" s="29"/>
       <c r="P8" s="29"/>
       <c r="R8" s="29"/>
@@ -9853,17 +10379,17 @@
       <c r="T8" s="29"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="289" t="s">
+      <c r="A9" s="302" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="289"/>
-      <c r="C9" s="289"/>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
-      <c r="I9" s="289"/>
+      <c r="B9" s="302"/>
+      <c r="C9" s="302"/>
+      <c r="D9" s="302"/>
+      <c r="E9" s="302"/>
+      <c r="F9" s="302"/>
+      <c r="G9" s="302"/>
+      <c r="H9" s="302"/>
+      <c r="I9" s="302"/>
       <c r="O9" s="29"/>
       <c r="P9" s="29"/>
       <c r="R9" s="29"/>
@@ -9871,15 +10397,15 @@
       <c r="T9" s="29"/>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1">
-      <c r="A10" s="304"/>
-      <c r="B10" s="304"/>
-      <c r="C10" s="304"/>
-      <c r="D10" s="304"/>
-      <c r="E10" s="304"/>
-      <c r="F10" s="304"/>
-      <c r="G10" s="304"/>
-      <c r="H10" s="304"/>
-      <c r="I10" s="304"/>
+      <c r="A10" s="306"/>
+      <c r="B10" s="306"/>
+      <c r="C10" s="306"/>
+      <c r="D10" s="306"/>
+      <c r="E10" s="306"/>
+      <c r="F10" s="306"/>
+      <c r="G10" s="306"/>
+      <c r="H10" s="306"/>
+      <c r="I10" s="306"/>
       <c r="O10" s="29"/>
       <c r="P10" s="29"/>
       <c r="R10" s="29"/>
@@ -9887,17 +10413,17 @@
       <c r="T10" s="29"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A11" s="290" t="s">
+      <c r="A11" s="299" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="291" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="292"/>
-      <c r="D11" s="290" t="s">
+      <c r="D11" s="299" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="290" t="s">
+      <c r="E11" s="299" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="291" t="s">
@@ -9907,17 +10433,17 @@
       <c r="H11" s="291" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="301"/>
-      <c r="O11" s="290" t="s">
+      <c r="I11" s="303"/>
+      <c r="O11" s="299" t="s">
         <v>6</v>
       </c>
       <c r="P11" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="Q11" s="290" t="s">
+      <c r="Q11" s="299" t="s">
         <v>8</v>
       </c>
-      <c r="R11" s="290" t="s">
+      <c r="R11" s="299" t="s">
         <v>9</v>
       </c>
       <c r="S11" s="291" t="s">
@@ -9926,15 +10452,15 @@
       <c r="T11" s="292"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A12" s="290"/>
+      <c r="A12" s="299"/>
       <c r="B12" s="293" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="295" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="290"/>
+      <c r="D12" s="299"/>
+      <c r="E12" s="299"/>
       <c r="F12" s="295" t="s">
         <v>14</v>
       </c>
@@ -9947,12 +10473,12 @@
       <c r="I12" s="295" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="290"/>
+      <c r="O12" s="299"/>
       <c r="P12" s="293" t="s">
         <v>12</v>
       </c>
-      <c r="Q12" s="290"/>
-      <c r="R12" s="290"/>
+      <c r="Q12" s="299"/>
+      <c r="R12" s="299"/>
       <c r="S12" s="295" t="s">
         <v>14</v>
       </c>
@@ -9961,19 +10487,19 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="18" customHeight="1">
-      <c r="A13" s="290"/>
+      <c r="A13" s="299"/>
       <c r="B13" s="294"/>
       <c r="C13" s="296"/>
-      <c r="D13" s="290"/>
-      <c r="E13" s="290"/>
+      <c r="D13" s="299"/>
+      <c r="E13" s="299"/>
       <c r="F13" s="296"/>
       <c r="G13" s="298"/>
       <c r="H13" s="296"/>
       <c r="I13" s="296"/>
-      <c r="O13" s="290"/>
+      <c r="O13" s="299"/>
       <c r="P13" s="294"/>
-      <c r="Q13" s="290"/>
-      <c r="R13" s="290"/>
+      <c r="Q13" s="299"/>
+      <c r="R13" s="299"/>
       <c r="S13" s="296"/>
       <c r="T13" s="298"/>
     </row>
@@ -17316,13 +17842,13 @@
       <c r="B209" s="28"/>
       <c r="C209" s="28"/>
       <c r="D209" s="29"/>
-      <c r="E209" s="289" t="s">
+      <c r="E209" s="302" t="s">
         <v>167</v>
       </c>
-      <c r="F209" s="289"/>
-      <c r="G209" s="289"/>
-      <c r="H209" s="289"/>
-      <c r="I209" s="289"/>
+      <c r="F209" s="302"/>
+      <c r="G209" s="302"/>
+      <c r="H209" s="302"/>
+      <c r="I209" s="302"/>
       <c r="J209" s="61"/>
       <c r="K209" s="118"/>
       <c r="L209" s="61"/>
@@ -17337,58 +17863,58 @@
       <c r="U209" s="148"/>
     </row>
     <row r="210" spans="1:21" s="1" customFormat="1">
-      <c r="A210" s="289" t="s">
+      <c r="A210" s="302" t="s">
         <v>25</v>
       </c>
-      <c r="B210" s="289"/>
-      <c r="C210" s="289"/>
-      <c r="D210" s="289"/>
-      <c r="E210" s="289" t="s">
+      <c r="B210" s="302"/>
+      <c r="C210" s="302"/>
+      <c r="D210" s="302"/>
+      <c r="E210" s="302" t="s">
         <v>26</v>
       </c>
-      <c r="F210" s="289"/>
-      <c r="G210" s="289"/>
-      <c r="H210" s="289"/>
-      <c r="I210" s="289"/>
+      <c r="F210" s="302"/>
+      <c r="G210" s="302"/>
+      <c r="H210" s="302"/>
+      <c r="I210" s="302"/>
       <c r="J210" s="61"/>
       <c r="K210" s="142"/>
       <c r="L210" s="62"/>
       <c r="M210" s="59"/>
       <c r="N210" s="59"/>
-      <c r="O210" s="305" t="s">
+      <c r="O210" s="290" t="s">
         <v>25</v>
       </c>
-      <c r="P210" s="305"/>
-      <c r="Q210" s="305"/>
+      <c r="P210" s="290"/>
+      <c r="Q210" s="290"/>
       <c r="R210" s="59"/>
       <c r="S210" s="59"/>
       <c r="T210" s="59"/>
       <c r="U210" s="148"/>
     </row>
     <row r="211" spans="1:21" s="1" customFormat="1">
-      <c r="A211" s="289" t="s">
+      <c r="A211" s="302" t="s">
         <v>27</v>
       </c>
-      <c r="B211" s="289"/>
-      <c r="C211" s="289"/>
-      <c r="D211" s="289"/>
-      <c r="E211" s="289" t="s">
+      <c r="B211" s="302"/>
+      <c r="C211" s="302"/>
+      <c r="D211" s="302"/>
+      <c r="E211" s="302" t="s">
         <v>27</v>
       </c>
-      <c r="F211" s="289"/>
-      <c r="G211" s="289"/>
-      <c r="H211" s="289"/>
-      <c r="I211" s="289"/>
+      <c r="F211" s="302"/>
+      <c r="G211" s="302"/>
+      <c r="H211" s="302"/>
+      <c r="I211" s="302"/>
       <c r="J211" s="61"/>
       <c r="K211" s="141"/>
       <c r="L211" s="61"/>
       <c r="M211" s="59"/>
       <c r="N211" s="59"/>
-      <c r="O211" s="305" t="s">
+      <c r="O211" s="290" t="s">
         <v>27</v>
       </c>
-      <c r="P211" s="305"/>
-      <c r="Q211" s="305"/>
+      <c r="P211" s="290"/>
+      <c r="Q211" s="290"/>
       <c r="R211" s="59"/>
       <c r="S211" s="59"/>
       <c r="T211" s="59"/>
@@ -18125,15 +18651,15 @@
   </sheetData>
   <autoFilter ref="A14:N205"/>
   <mergeCells count="34">
-    <mergeCell ref="O210:Q210"/>
-    <mergeCell ref="O211:Q211"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="E211:I211"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I4"/>
     <mergeCell ref="A210:D210"/>
@@ -18150,15 +18676,15 @@
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="E211:I211"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="O210:Q210"/>
+    <mergeCell ref="O211:Q211"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R11:R13"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="F35 S53">
@@ -18181,7 +18707,7 @@
   </sheetPr>
   <dimension ref="A1:U165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="90" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K212" sqref="K212"/>
       <selection pane="bottomLeft" activeCell="F121" sqref="F121"/>
@@ -18238,11 +18764,11 @@
       <c r="D2" s="29"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
-      <c r="G2" s="299" t="s">
+      <c r="G2" s="300" t="s">
         <v>165</v>
       </c>
-      <c r="H2" s="299"/>
-      <c r="I2" s="299"/>
+      <c r="H2" s="300"/>
+      <c r="I2" s="300"/>
       <c r="N2" s="28"/>
       <c r="O2" s="28"/>
       <c r="P2" s="29"/>
@@ -18259,11 +18785,11 @@
       <c r="D3" s="29"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
-      <c r="G3" s="300" t="s">
+      <c r="G3" s="301" t="s">
         <v>166</v>
       </c>
-      <c r="H3" s="300"/>
-      <c r="I3" s="300"/>
+      <c r="H3" s="301"/>
+      <c r="I3" s="301"/>
       <c r="N3" s="28"/>
       <c r="O3" s="28"/>
       <c r="P3" s="29"/>
@@ -18278,9 +18804,9 @@
       <c r="D4" s="29"/>
       <c r="E4" s="28"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="300"/>
-      <c r="H4" s="300"/>
-      <c r="I4" s="300"/>
+      <c r="G4" s="301"/>
+      <c r="H4" s="301"/>
+      <c r="I4" s="301"/>
       <c r="N4" s="28"/>
       <c r="O4" s="28"/>
       <c r="P4" s="29"/>
@@ -18289,17 +18815,17 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A5" s="302" t="s">
+      <c r="A5" s="304" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="302"/>
-      <c r="C5" s="302"/>
-      <c r="D5" s="302"/>
-      <c r="E5" s="302"/>
-      <c r="F5" s="302"/>
-      <c r="G5" s="302"/>
-      <c r="H5" s="302"/>
-      <c r="I5" s="302"/>
+      <c r="B5" s="304"/>
+      <c r="C5" s="304"/>
+      <c r="D5" s="304"/>
+      <c r="E5" s="304"/>
+      <c r="F5" s="304"/>
+      <c r="G5" s="304"/>
+      <c r="H5" s="304"/>
+      <c r="I5" s="304"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="Q5" s="1"/>
@@ -18307,17 +18833,17 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="289" t="s">
+      <c r="A6" s="302" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="289"/>
-      <c r="C6" s="289"/>
-      <c r="D6" s="289"/>
-      <c r="E6" s="289"/>
-      <c r="F6" s="289"/>
-      <c r="G6" s="289"/>
-      <c r="H6" s="289"/>
-      <c r="I6" s="289"/>
+      <c r="B6" s="302"/>
+      <c r="C6" s="302"/>
+      <c r="D6" s="302"/>
+      <c r="E6" s="302"/>
+      <c r="F6" s="302"/>
+      <c r="G6" s="302"/>
+      <c r="H6" s="302"/>
+      <c r="I6" s="302"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="Q6" s="1"/>
@@ -18325,17 +18851,17 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="303" t="s">
+      <c r="A7" s="305" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="289"/>
-      <c r="C7" s="289"/>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
-      <c r="I7" s="289"/>
+      <c r="B7" s="302"/>
+      <c r="C7" s="302"/>
+      <c r="D7" s="302"/>
+      <c r="E7" s="302"/>
+      <c r="F7" s="302"/>
+      <c r="G7" s="302"/>
+      <c r="H7" s="302"/>
+      <c r="I7" s="302"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="Q7" s="1"/>
@@ -18343,19 +18869,19 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="289" t="s">
+      <c r="A8" s="302" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="289" t="s">
+      <c r="B8" s="302" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="289"/>
-      <c r="D8" s="289"/>
-      <c r="E8" s="289"/>
-      <c r="F8" s="289"/>
-      <c r="G8" s="289"/>
-      <c r="H8" s="289"/>
-      <c r="I8" s="289"/>
+      <c r="C8" s="302"/>
+      <c r="D8" s="302"/>
+      <c r="E8" s="302"/>
+      <c r="F8" s="302"/>
+      <c r="G8" s="302"/>
+      <c r="H8" s="302"/>
+      <c r="I8" s="302"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="Q8" s="1"/>
@@ -18363,17 +18889,17 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="289" t="s">
+      <c r="A9" s="302" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="303"/>
-      <c r="C9" s="303"/>
-      <c r="D9" s="303"/>
-      <c r="E9" s="303"/>
-      <c r="F9" s="303"/>
-      <c r="G9" s="303"/>
-      <c r="H9" s="303"/>
-      <c r="I9" s="303"/>
+      <c r="B9" s="305"/>
+      <c r="C9" s="305"/>
+      <c r="D9" s="305"/>
+      <c r="E9" s="305"/>
+      <c r="F9" s="305"/>
+      <c r="G9" s="305"/>
+      <c r="H9" s="305"/>
+      <c r="I9" s="305"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="Q9" s="1"/>
@@ -18383,13 +18909,13 @@
     <row r="10" spans="1:20" hidden="1">
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
-      <c r="C10" s="306"/>
-      <c r="D10" s="306"/>
-      <c r="E10" s="306"/>
-      <c r="F10" s="306"/>
-      <c r="G10" s="306"/>
-      <c r="H10" s="306"/>
-      <c r="I10" s="306"/>
+      <c r="C10" s="307"/>
+      <c r="D10" s="307"/>
+      <c r="E10" s="307"/>
+      <c r="F10" s="307"/>
+      <c r="G10" s="307"/>
+      <c r="H10" s="307"/>
+      <c r="I10" s="307"/>
       <c r="N10" s="28"/>
       <c r="O10" s="1"/>
       <c r="Q10" s="1"/>
@@ -18397,17 +18923,17 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A11" s="290" t="s">
+      <c r="A11" s="299" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="291" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="292"/>
-      <c r="D11" s="290" t="s">
+      <c r="D11" s="299" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="290" t="s">
+      <c r="E11" s="299" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="291" t="s">
@@ -18417,15 +18943,15 @@
       <c r="H11" s="291" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="301"/>
+      <c r="I11" s="303"/>
       <c r="N11" s="291" t="s">
         <v>7</v>
       </c>
       <c r="O11" s="292"/>
-      <c r="P11" s="290" t="s">
+      <c r="P11" s="299" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="290" t="s">
+      <c r="Q11" s="299" t="s">
         <v>9</v>
       </c>
       <c r="R11" s="291" t="s">
@@ -18434,15 +18960,15 @@
       <c r="S11" s="292"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A12" s="290"/>
+      <c r="A12" s="299"/>
       <c r="B12" s="295" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="295" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="290"/>
+      <c r="D12" s="299"/>
+      <c r="E12" s="299"/>
       <c r="F12" s="295" t="s">
         <v>14</v>
       </c>
@@ -18461,8 +18987,8 @@
       <c r="O12" s="295" t="s">
         <v>13</v>
       </c>
-      <c r="P12" s="290"/>
-      <c r="Q12" s="290"/>
+      <c r="P12" s="299"/>
+      <c r="Q12" s="299"/>
       <c r="R12" s="295" t="s">
         <v>14</v>
       </c>
@@ -18471,19 +18997,19 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A13" s="290"/>
+      <c r="A13" s="299"/>
       <c r="B13" s="296"/>
       <c r="C13" s="296"/>
-      <c r="D13" s="290"/>
-      <c r="E13" s="290"/>
+      <c r="D13" s="299"/>
+      <c r="E13" s="299"/>
       <c r="F13" s="296"/>
       <c r="G13" s="298"/>
       <c r="H13" s="296"/>
       <c r="I13" s="296"/>
       <c r="N13" s="296"/>
       <c r="O13" s="296"/>
-      <c r="P13" s="290"/>
-      <c r="Q13" s="290"/>
+      <c r="P13" s="299"/>
+      <c r="Q13" s="299"/>
       <c r="R13" s="296"/>
       <c r="S13" s="298"/>
     </row>
@@ -23153,7 +23679,7 @@
       <c r="A108" s="14"/>
       <c r="B108" s="24"/>
       <c r="C108" s="11">
-        <f t="shared" ref="C108:C118" si="20">A108</f>
+        <f t="shared" ref="C108:C117" si="20">A108</f>
         <v>0</v>
       </c>
       <c r="D108" s="17" t="s">
@@ -24403,13 +24929,13 @@
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
       <c r="D145" s="29"/>
-      <c r="E145" s="289" t="s">
+      <c r="E145" s="302" t="s">
         <v>167</v>
       </c>
-      <c r="F145" s="289"/>
-      <c r="G145" s="289"/>
-      <c r="H145" s="289"/>
-      <c r="I145" s="289"/>
+      <c r="F145" s="302"/>
+      <c r="G145" s="302"/>
+      <c r="H145" s="302"/>
+      <c r="I145" s="302"/>
       <c r="J145" s="51"/>
       <c r="L145" s="59"/>
       <c r="M145" s="59"/>
@@ -24421,19 +24947,19 @@
       <c r="S145" s="59"/>
     </row>
     <row r="146" spans="1:19">
-      <c r="A146" s="289" t="s">
+      <c r="A146" s="302" t="s">
         <v>25</v>
       </c>
-      <c r="B146" s="289"/>
-      <c r="C146" s="289"/>
-      <c r="D146" s="289"/>
-      <c r="E146" s="289" t="s">
+      <c r="B146" s="302"/>
+      <c r="C146" s="302"/>
+      <c r="D146" s="302"/>
+      <c r="E146" s="302" t="s">
         <v>26</v>
       </c>
-      <c r="F146" s="289"/>
-      <c r="G146" s="289"/>
-      <c r="H146" s="289"/>
-      <c r="I146" s="289"/>
+      <c r="F146" s="302"/>
+      <c r="G146" s="302"/>
+      <c r="H146" s="302"/>
+      <c r="I146" s="302"/>
       <c r="J146" s="51"/>
       <c r="L146" s="59"/>
       <c r="M146" s="59"/>
@@ -24445,19 +24971,19 @@
       <c r="S146" s="59"/>
     </row>
     <row r="147" spans="1:19">
-      <c r="A147" s="289" t="s">
+      <c r="A147" s="302" t="s">
         <v>27</v>
       </c>
-      <c r="B147" s="289"/>
-      <c r="C147" s="289"/>
-      <c r="D147" s="289"/>
-      <c r="E147" s="289" t="s">
+      <c r="B147" s="302"/>
+      <c r="C147" s="302"/>
+      <c r="D147" s="302"/>
+      <c r="E147" s="302" t="s">
         <v>27</v>
       </c>
-      <c r="F147" s="289"/>
-      <c r="G147" s="289"/>
-      <c r="H147" s="289"/>
-      <c r="I147" s="289"/>
+      <c r="F147" s="302"/>
+      <c r="G147" s="302"/>
+      <c r="H147" s="302"/>
+      <c r="I147" s="302"/>
       <c r="J147" s="61"/>
       <c r="K147" s="208"/>
       <c r="L147" s="61"/>
@@ -24607,6 +25133,23 @@
   </sheetData>
   <autoFilter ref="A14:Q138"/>
   <mergeCells count="33">
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="E147:I147"/>
+    <mergeCell ref="E145:I145"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="E146:I146"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I4"/>
     <mergeCell ref="N11:O11"/>
@@ -24623,23 +25166,6 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="A11:A13"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="E147:I147"/>
-    <mergeCell ref="E145:I145"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="E146:I146"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.13" top="0.16" bottom="0.39" header="0.16" footer="0.15"/>
@@ -24700,38 +25226,38 @@
       <c r="G2" s="125"/>
     </row>
     <row r="3" spans="1:7" ht="24" customHeight="1">
-      <c r="A3" s="307" t="s">
+      <c r="A3" s="308" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="307"/>
+      <c r="B3" s="308"/>
       <c r="D3" s="94">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1">
-      <c r="A4" s="289" t="str">
+      <c r="A4" s="302" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong02),"","Ngày  "&amp;DAY(OFFSET('141-BH'!O$1,SMALL(Dong02,ROWS($1:1)),))&amp;"  tháng  "&amp;MONTH(OFFSET('141-BH'!O$1,SMALL(Dong02,ROWS($1:1)),))&amp;"   năm   "&amp;YEAR(OFFSET('141-BH'!O$1,SMALL(Dong02,ROWS($1:1)),)))</f>
         <v>Ngày  31  tháng  8   năm   2015</v>
       </c>
-      <c r="B4" s="289"/>
+      <c r="B4" s="302"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
     </row>
     <row r="5" spans="1:7" ht="12" customHeight="1">
-      <c r="A5" s="308"/>
+      <c r="A5" s="309"/>
       <c r="B5" s="69" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong02),"","Số:   "&amp;OFFSET('141-BH'!P$1,SMALL(Dong02,ROWS($1:1)),))</f>
         <v>Số:   0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12" customHeight="1">
-      <c r="A6" s="308"/>
+      <c r="A6" s="309"/>
       <c r="B6" s="69" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12" customHeight="1">
-      <c r="A7" s="308"/>
+      <c r="A7" s="309"/>
       <c r="B7" s="69" t="s">
         <v>78</v>
       </c>
@@ -25525,38 +26051,38 @@
       <c r="K2" s="125"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A3" s="307" t="s">
+      <c r="A3" s="308" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="307"/>
+      <c r="B3" s="308"/>
       <c r="D3" s="94">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A4" s="289" t="str">
+      <c r="A4" s="302" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong04),"","Ngày  "&amp;DAY(OFFSET('141-TT'!O$1,SMALL(Dong04,ROWS($1:1)),))&amp;"  tháng  "&amp;MONTH(OFFSET('141-TT'!O$1,SMALL(Dong04,ROWS($1:1)),))&amp;"   năm   "&amp;YEAR(OFFSET('141-TT'!O$1,SMALL(Dong04,ROWS($1:1)),)))</f>
         <v>Ngày  31  tháng  7   năm   2015</v>
       </c>
-      <c r="B4" s="289"/>
+      <c r="B4" s="302"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A5" s="308"/>
+      <c r="A5" s="309"/>
       <c r="B5" s="69" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong04),"","Số:   "&amp;OFFSET('141-TT'!N$1,SMALL(Dong04,ROWS($1:1)),))</f>
         <v>Số:   0</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A6" s="308"/>
+      <c r="A6" s="309"/>
       <c r="B6" s="69" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A7" s="308"/>
+      <c r="A7" s="309"/>
       <c r="B7" s="69" t="s">
         <v>78</v>
       </c>

--- a/SO SACH - LA/SO SACH/2015/141 - 341 - 15.xlsx
+++ b/SO SACH - LA/SO SACH/2015/141 - 341 - 15.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15135" windowHeight="9300" tabRatio="858"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15135" windowHeight="9300" tabRatio="858" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="341" sheetId="20" r:id="rId1"/>
@@ -40,12 +40,12 @@
     <definedName name="fghdfg">IF(Loai01="x",ROW(Loai01)-1,"")</definedName>
     <definedName name="ghf">IF(Loai01="x",ROW(Loai01)-1,"")</definedName>
     <definedName name="kbjgj">IF(Loai01="x",ROW(Loai01)-1,"")</definedName>
-    <definedName name="KUTH">'TH-341'!$E$5:$E$119</definedName>
+    <definedName name="KUTH">'TH-341'!$E$5:$E$122</definedName>
     <definedName name="Loai">OFFSET('141-BH'!$J$15,,,COUNTA('141-BH'!$J$15:$J$40058))</definedName>
     <definedName name="Loai01">OFFSET('141-BH'!$R$16,,,COUNTA('141-BH'!$R$16:$R$40058))</definedName>
     <definedName name="Loai02">OFFSET('141-TT'!$Q$16,,,COUNTA('141-TT'!$Q$16:$R$40061))</definedName>
     <definedName name="Loai1">OFFSET('141-TT'!$J$15,,,COUNTA('141-TT'!$J$15:$J$40060))</definedName>
-    <definedName name="Loai4">OFFSET('TH-341'!$E$5,,,COUNTA('TH-341'!$E$5:$E$40105))</definedName>
+    <definedName name="Loai4">OFFSET('TH-341'!$E$5,,,COUNTA('TH-341'!$E$5:$E$40108))</definedName>
     <definedName name="nbvnvb">IF(Loai01="x",ROW(Loai01)-1,"")</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'341'!$A$1:$O$12</definedName>
   </definedNames>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="367">
   <si>
     <t>Đơn vị: CÔNG TY TNHH HẢI SẢN AN LẠC</t>
   </si>
@@ -1134,6 +1134,30 @@
   </si>
   <si>
     <t>CLTG vay KU 1015LDS201100378 (2015)</t>
+  </si>
+  <si>
+    <t>Trả 1 phần gốc KU 1015LDS201501308</t>
+  </si>
+  <si>
+    <t>Trả gốc KU 1015LDS201501308</t>
+  </si>
+  <si>
+    <t>Vay KU 1015LDS201503206</t>
+  </si>
+  <si>
+    <t>Trả gốc KU 1015LDS201501560</t>
+  </si>
+  <si>
+    <t>Trả gốc KU 1015LDS201501587</t>
+  </si>
+  <si>
+    <t>Vay KU 1015LDS201503420</t>
+  </si>
+  <si>
+    <t>KU 1015LDS201503206</t>
+  </si>
+  <si>
+    <t>KU 1015LDS201503420</t>
   </si>
 </sst>
 </file>
@@ -2852,6 +2876,9 @@
     <xf numFmtId="43" fontId="41" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="29" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2879,15 +2906,24 @@
     <xf numFmtId="0" fontId="40" fillId="21" borderId="26" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="22" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="26" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="30" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -2900,21 +2936,24 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="22" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="26" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="25" borderId="0" xfId="54" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="29" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2930,69 +2969,57 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="21" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="26" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="21" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="26" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="21" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="26" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="21" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="26" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3001,9 +3028,6 @@
     </xf>
     <xf numFmtId="0" fontId="44" fillId="25" borderId="0" xfId="58" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="79">
@@ -3145,6 +3169,11 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="15">
+          <cell r="E15">
+            <v>51400722066</v>
+          </cell>
+        </row>
         <row r="54">
           <cell r="D54">
             <v>23117050188</v>
@@ -3470,11 +3499,11 @@
   </sheetPr>
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P10" sqref="P10:P17"/>
+      <selection pane="bottomRight" activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
@@ -3500,32 +3529,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21.75" customHeight="1">
-      <c r="A1" s="260" t="s">
+      <c r="A1" s="261" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="260"/>
-      <c r="C1" s="260"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="260"/>
-      <c r="F1" s="260"/>
-      <c r="G1" s="260"/>
-      <c r="H1" s="260"/>
-      <c r="I1" s="260"/>
-      <c r="J1" s="260"/>
-      <c r="K1" s="260"/>
-      <c r="L1" s="260"/>
-      <c r="M1" s="260"/>
-      <c r="N1" s="260"/>
-      <c r="O1" s="260"/>
+      <c r="B1" s="261"/>
+      <c r="C1" s="261"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="261"/>
+      <c r="F1" s="261"/>
+      <c r="G1" s="261"/>
+      <c r="H1" s="261"/>
+      <c r="I1" s="261"/>
+      <c r="J1" s="261"/>
+      <c r="K1" s="261"/>
+      <c r="L1" s="261"/>
+      <c r="M1" s="261"/>
+      <c r="N1" s="261"/>
+      <c r="O1" s="261"/>
     </row>
     <row r="2" spans="1:18" s="156" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A2" s="263" t="s">
+      <c r="A2" s="264" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="266" t="s">
+      <c r="B2" s="267" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="266" t="s">
+      <c r="C2" s="267" t="s">
         <v>233</v>
       </c>
       <c r="D2" s="154" t="s">
@@ -3548,38 +3577,38 @@
       <c r="O2" s="155"/>
     </row>
     <row r="3" spans="1:18" s="156" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A3" s="264"/>
-      <c r="B3" s="267"/>
-      <c r="C3" s="267"/>
-      <c r="D3" s="261" t="s">
+      <c r="A3" s="265"/>
+      <c r="B3" s="268"/>
+      <c r="C3" s="268"/>
+      <c r="D3" s="262" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="262"/>
-      <c r="F3" s="261" t="s">
+      <c r="E3" s="263"/>
+      <c r="F3" s="262" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="262"/>
-      <c r="H3" s="261" t="s">
+      <c r="G3" s="263"/>
+      <c r="H3" s="262" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="262"/>
-      <c r="J3" s="261" t="s">
+      <c r="I3" s="263"/>
+      <c r="J3" s="262" t="s">
         <v>114</v>
       </c>
-      <c r="K3" s="262"/>
-      <c r="L3" s="261" t="s">
+      <c r="K3" s="263"/>
+      <c r="L3" s="262" t="s">
         <v>113</v>
       </c>
-      <c r="M3" s="262"/>
-      <c r="N3" s="261" t="s">
+      <c r="M3" s="263"/>
+      <c r="N3" s="262" t="s">
         <v>114</v>
       </c>
-      <c r="O3" s="262"/>
+      <c r="O3" s="263"/>
     </row>
     <row r="4" spans="1:18" s="156" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="265"/>
-      <c r="B4" s="268"/>
-      <c r="C4" s="268"/>
+      <c r="A4" s="266"/>
+      <c r="B4" s="269"/>
+      <c r="C4" s="269"/>
       <c r="D4" s="157" t="s">
         <v>115</v>
       </c>
@@ -3616,10 +3645,10 @@
       <c r="O4" s="158" t="s">
         <v>116</v>
       </c>
-      <c r="P4" s="310">
+      <c r="P4" s="260">
         <v>21230</v>
       </c>
-      <c r="Q4" s="310">
+      <c r="Q4" s="260">
         <v>22485</v>
       </c>
     </row>
@@ -3646,19 +3675,19 @@
         <v>401936849</v>
       </c>
       <c r="H5" s="161">
-        <f t="shared" ref="H5:H43" ca="1" si="0">SUMIF(KUTH,$B5,_TH1)</f>
+        <f t="shared" ref="H5:H46" ca="1" si="0">SUMIF(KUTH,$B5,_TH1)</f>
         <v>14011</v>
       </c>
       <c r="I5" s="162">
-        <f t="shared" ref="I5:I43" ca="1" si="1">SUMIF(KUTH,$B5,_TH2)</f>
+        <f t="shared" ref="I5:I46" ca="1" si="1">SUMIF(KUTH,$B5,_TH2)</f>
         <v>315037335</v>
       </c>
       <c r="J5" s="161">
-        <f t="shared" ref="J5:J42" ca="1" si="2">SUMIF(KUTH,$B5,_TH3)</f>
+        <f t="shared" ref="J5:J46" ca="1" si="2">SUMIF(KUTH,$B5,_TH3)</f>
         <v>0</v>
       </c>
       <c r="K5" s="162">
-        <f t="shared" ref="K5:K43" ca="1" si="3">SUMIF(KUTH,$B5,_TH4)</f>
+        <f t="shared" ref="K5:K46" ca="1" si="3">SUMIF(KUTH,$B5,_TH4)</f>
         <v>225979261</v>
       </c>
       <c r="L5" s="163">
@@ -3677,10 +3706,10 @@
         <f t="shared" ref="O5:O36" ca="1" si="7">ROUND(MAX(G5+K5-E5-I5,0),2)</f>
         <v>312878775</v>
       </c>
-      <c r="P5" s="310">
+      <c r="P5" s="260">
         <v>592868980</v>
       </c>
-      <c r="Q5" s="310">
+      <c r="Q5" s="260">
         <f ca="1">ROUND(N5*$Q$4,0)</f>
         <v>312878775</v>
       </c>
@@ -3743,10 +3772,10 @@
         <f t="shared" ca="1" si="7"/>
         <v>749186484</v>
       </c>
-      <c r="P6" s="310">
+      <c r="P6" s="260">
         <v>1406071180</v>
       </c>
-      <c r="Q6" s="310">
+      <c r="Q6" s="260">
         <f t="shared" ref="Q6:Q8" ca="1" si="8">ROUND(N6*$Q$4,0)</f>
         <v>749186484</v>
       </c>
@@ -3809,10 +3838,10 @@
         <f t="shared" ca="1" si="7"/>
         <v>461301361</v>
       </c>
-      <c r="P7" s="310">
+      <c r="P7" s="260">
         <v>874123171</v>
       </c>
-      <c r="Q7" s="310">
+      <c r="Q7" s="260">
         <f t="shared" ca="1" si="8"/>
         <v>461301361</v>
       </c>
@@ -3875,10 +3904,10 @@
         <f t="shared" ca="1" si="7"/>
         <v>645755259</v>
       </c>
-      <c r="P8" s="310">
+      <c r="P8" s="260">
         <v>1223684037</v>
       </c>
-      <c r="Q8" s="310">
+      <c r="Q8" s="260">
         <f t="shared" ca="1" si="8"/>
         <v>645755259</v>
       </c>
@@ -5176,11 +5205,11 @@
       </c>
       <c r="H32" s="161">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>89500</v>
       </c>
       <c r="I32" s="162">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2012586500</v>
       </c>
       <c r="J32" s="161">
         <f t="shared" ca="1" si="2"/>
@@ -5188,7 +5217,7 @@
       </c>
       <c r="K32" s="162">
         <f t="shared" ca="1" si="3"/>
-        <v>1952442500</v>
+        <v>2012586500</v>
       </c>
       <c r="L32" s="163">
         <f t="shared" ca="1" si="4"/>
@@ -5200,11 +5229,11 @@
       </c>
       <c r="N32" s="163">
         <f t="shared" ca="1" si="6"/>
-        <v>89500</v>
+        <v>0</v>
       </c>
       <c r="O32" s="164">
         <f t="shared" ca="1" si="7"/>
-        <v>1952442500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="156" customFormat="1" ht="18" customHeight="1">
@@ -5231,11 +5260,11 @@
       </c>
       <c r="H33" s="161">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="I33" s="162">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1576190000</v>
       </c>
       <c r="J33" s="161">
         <f t="shared" ca="1" si="2"/>
@@ -5243,7 +5272,7 @@
       </c>
       <c r="K33" s="162">
         <f t="shared" ca="1" si="3"/>
-        <v>1526840000</v>
+        <v>1576190000</v>
       </c>
       <c r="L33" s="163">
         <f t="shared" ca="1" si="4"/>
@@ -5255,11 +5284,11 @@
       </c>
       <c r="N33" s="163">
         <f t="shared" ca="1" si="6"/>
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="O33" s="164">
         <f t="shared" ca="1" si="7"/>
-        <v>1526840000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="156" customFormat="1" ht="18" customHeight="1">
@@ -5286,11 +5315,11 @@
       </c>
       <c r="H34" s="161">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="I34" s="162">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>472857000</v>
       </c>
       <c r="J34" s="161">
         <f t="shared" ca="1" si="2"/>
@@ -5298,7 +5327,7 @@
       </c>
       <c r="K34" s="162">
         <f t="shared" ca="1" si="3"/>
-        <v>458325000</v>
+        <v>472857000</v>
       </c>
       <c r="L34" s="163">
         <f t="shared" ca="1" si="4"/>
@@ -5310,11 +5339,11 @@
       </c>
       <c r="N34" s="163">
         <f t="shared" ca="1" si="6"/>
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="O34" s="164">
         <f t="shared" ca="1" si="7"/>
-        <v>458325000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="156" customFormat="1" ht="18" customHeight="1">
@@ -5599,11 +5628,21 @@
       <c r="B40" s="245" t="s">
         <v>311</v>
       </c>
-      <c r="C40" s="222"/>
-      <c r="D40" s="161"/>
-      <c r="E40" s="161"/>
-      <c r="F40" s="161"/>
-      <c r="G40" s="161"/>
+      <c r="C40" s="222">
+        <v>42248</v>
+      </c>
+      <c r="D40" s="161">
+        <v>0</v>
+      </c>
+      <c r="E40" s="161">
+        <v>0</v>
+      </c>
+      <c r="F40" s="161">
+        <v>0</v>
+      </c>
+      <c r="G40" s="161">
+        <v>0</v>
+      </c>
       <c r="H40" s="161">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
@@ -5621,19 +5660,19 @@
         <v>899520000</v>
       </c>
       <c r="L40" s="163">
-        <f t="shared" ref="L40:L41" ca="1" si="26">ROUND(MAX(D40+H40-F40-J40,0),2)</f>
+        <f t="shared" ref="L40:L46" ca="1" si="26">ROUND(MAX(D40+H40-F40-J40,0),2)</f>
         <v>0</v>
       </c>
       <c r="M40" s="164">
-        <f t="shared" ref="M40:M41" ca="1" si="27">ROUND(MAX(E40+I40-G40-K40,0),2)</f>
+        <f t="shared" ref="M40:M46" ca="1" si="27">ROUND(MAX(E40+I40-G40-K40,0),2)</f>
         <v>0</v>
       </c>
       <c r="N40" s="163">
-        <f t="shared" ref="N40:N41" ca="1" si="28">ROUND(MAX(F40+J40-D40-H40,0),2)</f>
+        <f t="shared" ref="N40:N46" ca="1" si="28">ROUND(MAX(F40+J40-D40-H40,0),2)</f>
         <v>40000</v>
       </c>
       <c r="O40" s="164">
-        <f t="shared" ref="O40:O41" ca="1" si="29">ROUND(MAX(G40+K40-E40-I40,0),2)</f>
+        <f t="shared" ref="O40:O46" ca="1" si="29">ROUND(MAX(G40+K40-E40-I40,0),2)</f>
         <v>899520000</v>
       </c>
     </row>
@@ -5644,11 +5683,21 @@
       <c r="B41" s="245" t="s">
         <v>312</v>
       </c>
-      <c r="C41" s="222"/>
-      <c r="D41" s="161"/>
-      <c r="E41" s="161"/>
-      <c r="F41" s="161"/>
-      <c r="G41" s="161"/>
+      <c r="C41" s="222">
+        <v>42251</v>
+      </c>
+      <c r="D41" s="161">
+        <v>0</v>
+      </c>
+      <c r="E41" s="161">
+        <v>0</v>
+      </c>
+      <c r="F41" s="161">
+        <v>0</v>
+      </c>
+      <c r="G41" s="161">
+        <v>0</v>
+      </c>
       <c r="H41" s="161">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
@@ -5689,11 +5738,21 @@
       <c r="B42" s="231" t="s">
         <v>319</v>
       </c>
-      <c r="C42" s="222"/>
-      <c r="D42" s="161"/>
-      <c r="E42" s="161"/>
-      <c r="F42" s="161"/>
-      <c r="G42" s="161"/>
+      <c r="C42" s="222">
+        <v>42278</v>
+      </c>
+      <c r="D42" s="161">
+        <v>0</v>
+      </c>
+      <c r="E42" s="161">
+        <v>0</v>
+      </c>
+      <c r="F42" s="161">
+        <v>0</v>
+      </c>
+      <c r="G42" s="161">
+        <v>0</v>
+      </c>
       <c r="H42" s="161">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
@@ -5711,19 +5770,19 @@
         <v>2011244000</v>
       </c>
       <c r="L42" s="163">
-        <f t="shared" ref="L42" ca="1" si="30">ROUND(MAX(D42+H42-F42-J42,0),2)</f>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="M42" s="164">
-        <f t="shared" ref="M42" ca="1" si="31">ROUND(MAX(E42+I42-G42-K42,0),2)</f>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="N42" s="163">
-        <f t="shared" ref="N42" ca="1" si="32">ROUND(MAX(F42+J42-D42-H42,0),2)</f>
+        <f t="shared" ca="1" si="28"/>
         <v>89500</v>
       </c>
       <c r="O42" s="164">
-        <f t="shared" ref="O42" ca="1" si="33">ROUND(MAX(G42+K42-E42-I42,0),2)</f>
+        <f t="shared" ca="1" si="29"/>
         <v>2011244000</v>
       </c>
     </row>
@@ -5734,11 +5793,21 @@
       <c r="B43" s="231" t="s">
         <v>320</v>
       </c>
-      <c r="C43" s="222"/>
-      <c r="D43" s="161"/>
-      <c r="E43" s="161"/>
-      <c r="F43" s="161"/>
-      <c r="G43" s="161"/>
+      <c r="C43" s="222">
+        <v>42279</v>
+      </c>
+      <c r="D43" s="161">
+        <v>0</v>
+      </c>
+      <c r="E43" s="161">
+        <v>0</v>
+      </c>
+      <c r="F43" s="161">
+        <v>0</v>
+      </c>
+      <c r="G43" s="161">
+        <v>0</v>
+      </c>
       <c r="H43" s="161">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
@@ -5748,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="161">
-        <f ca="1">SUMIF(KUTH,$B43,_TH3)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>89000</v>
       </c>
       <c r="K43" s="162">
@@ -5756,72 +5825,180 @@
         <v>2001165000</v>
       </c>
       <c r="L43" s="163">
-        <f t="shared" ref="L43" ca="1" si="34">ROUND(MAX(D43+H43-F43-J43,0),2)</f>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="M43" s="164">
-        <f t="shared" ref="M43" ca="1" si="35">ROUND(MAX(E43+I43-G43-K43,0),2)</f>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="N43" s="163">
-        <f t="shared" ref="N43" ca="1" si="36">ROUND(MAX(F43+J43-D43-H43,0),2)</f>
+        <f t="shared" ca="1" si="28"/>
         <v>89000</v>
       </c>
       <c r="O43" s="164">
-        <f t="shared" ref="O43" ca="1" si="37">ROUND(MAX(G43+K43-E43-I43,0),2)</f>
+        <f t="shared" ca="1" si="29"/>
         <v>2001165000</v>
       </c>
     </row>
     <row r="44" spans="1:15" s="156" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="159"/>
-      <c r="B44" s="231"/>
-      <c r="C44" s="222"/>
-      <c r="D44" s="161"/>
-      <c r="E44" s="161"/>
-      <c r="F44" s="161"/>
-      <c r="G44" s="161"/>
-      <c r="H44" s="161"/>
-      <c r="I44" s="162"/>
-      <c r="J44" s="161"/>
-      <c r="K44" s="162"/>
-      <c r="L44" s="163"/>
-      <c r="M44" s="164"/>
-      <c r="N44" s="163"/>
-      <c r="O44" s="164"/>
+      <c r="A44" s="159">
+        <v>39</v>
+      </c>
+      <c r="B44" s="231" t="s">
+        <v>365</v>
+      </c>
+      <c r="C44" s="222">
+        <v>42339</v>
+      </c>
+      <c r="D44" s="161">
+        <v>0</v>
+      </c>
+      <c r="E44" s="161">
+        <v>0</v>
+      </c>
+      <c r="F44" s="161">
+        <v>0</v>
+      </c>
+      <c r="G44" s="161">
+        <v>0</v>
+      </c>
+      <c r="H44" s="161">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="162">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="161">
+        <f t="shared" ca="1" si="2"/>
+        <v>89000</v>
+      </c>
+      <c r="K44" s="162">
+        <f t="shared" ca="1" si="3"/>
+        <v>2001343000</v>
+      </c>
+      <c r="L44" s="163">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="164">
+        <f t="shared" ca="1" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="163">
+        <f t="shared" ca="1" si="28"/>
+        <v>89000</v>
+      </c>
+      <c r="O44" s="164">
+        <f t="shared" ca="1" si="29"/>
+        <v>2001343000</v>
+      </c>
     </row>
     <row r="45" spans="1:15" s="156" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="159"/>
-      <c r="B45" s="231"/>
-      <c r="C45" s="222"/>
-      <c r="D45" s="161"/>
-      <c r="E45" s="161"/>
-      <c r="F45" s="161"/>
-      <c r="G45" s="161"/>
-      <c r="H45" s="161"/>
-      <c r="I45" s="162"/>
-      <c r="J45" s="161"/>
-      <c r="K45" s="162"/>
-      <c r="L45" s="163"/>
-      <c r="M45" s="164"/>
-      <c r="N45" s="163"/>
-      <c r="O45" s="164"/>
+      <c r="A45" s="159">
+        <v>40</v>
+      </c>
+      <c r="B45" s="245" t="s">
+        <v>366</v>
+      </c>
+      <c r="C45" s="222">
+        <v>42360</v>
+      </c>
+      <c r="D45" s="161">
+        <v>0</v>
+      </c>
+      <c r="E45" s="161">
+        <v>0</v>
+      </c>
+      <c r="F45" s="161">
+        <v>0</v>
+      </c>
+      <c r="G45" s="161">
+        <v>0</v>
+      </c>
+      <c r="H45" s="161">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="162">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="161">
+        <f t="shared" ca="1" si="2"/>
+        <v>88000</v>
+      </c>
+      <c r="K45" s="162">
+        <f t="shared" ca="1" si="3"/>
+        <v>1983520000</v>
+      </c>
+      <c r="L45" s="163">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="164">
+        <f t="shared" ca="1" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="163">
+        <f t="shared" ca="1" si="28"/>
+        <v>88000</v>
+      </c>
+      <c r="O45" s="164">
+        <f t="shared" ca="1" si="29"/>
+        <v>1983520000</v>
+      </c>
     </row>
     <row r="46" spans="1:15" s="156" customFormat="1" ht="18" customHeight="1">
       <c r="A46" s="159"/>
       <c r="B46" s="231"/>
       <c r="C46" s="222"/>
-      <c r="D46" s="161"/>
-      <c r="E46" s="161"/>
-      <c r="F46" s="161"/>
-      <c r="G46" s="161"/>
-      <c r="H46" s="161"/>
-      <c r="I46" s="162"/>
-      <c r="J46" s="161"/>
-      <c r="K46" s="162"/>
-      <c r="L46" s="163"/>
-      <c r="M46" s="164"/>
-      <c r="N46" s="163"/>
-      <c r="O46" s="164"/>
+      <c r="D46" s="161">
+        <v>0</v>
+      </c>
+      <c r="E46" s="161">
+        <v>0</v>
+      </c>
+      <c r="F46" s="161">
+        <v>0</v>
+      </c>
+      <c r="G46" s="161">
+        <v>0</v>
+      </c>
+      <c r="H46" s="161">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="162">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="161">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="162">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="163">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="164">
+        <f t="shared" ca="1" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="163">
+        <f t="shared" ca="1" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="164">
+        <f t="shared" ca="1" si="29"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:15" s="156" customFormat="1" ht="18" customHeight="1">
       <c r="A47" s="159"/>
@@ -5881,52 +6058,52 @@
       </c>
       <c r="C50" s="169"/>
       <c r="D50" s="170">
-        <f t="shared" ref="D50:O50" si="38">SUM(D5:D49)</f>
+        <f t="shared" ref="D50:O50" si="30">SUM(D5:D49)</f>
         <v>0</v>
       </c>
       <c r="E50" s="171">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="F50" s="170">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>1099639.73</v>
       </c>
       <c r="G50" s="171">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>23117050188</v>
       </c>
       <c r="H50" s="170">
-        <f t="shared" ca="1" si="38"/>
-        <v>1543470</v>
+        <f t="shared" ca="1" si="30"/>
+        <v>1723970</v>
       </c>
       <c r="I50" s="171">
-        <f t="shared" ca="1" si="38"/>
-        <v>33761738100</v>
+        <f t="shared" ca="1" si="30"/>
+        <v>37823371600</v>
       </c>
       <c r="J50" s="170">
-        <f t="shared" ca="1" si="38"/>
-        <v>1435500</v>
+        <f t="shared" ca="1" si="30"/>
+        <v>1612500</v>
       </c>
       <c r="K50" s="171">
-        <f t="shared" ca="1" si="38"/>
-        <v>32589511291</v>
+        <f t="shared" ca="1" si="30"/>
+        <v>36698400291</v>
       </c>
       <c r="L50" s="170">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="M50" s="171">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="N50" s="170">
-        <f t="shared" ca="1" si="38"/>
-        <v>991669.73</v>
+        <f t="shared" ca="1" si="30"/>
+        <v>988169.73</v>
       </c>
       <c r="O50" s="171">
-        <f t="shared" ca="1" si="38"/>
-        <v>21944823379</v>
+        <f t="shared" ca="1" si="30"/>
+        <v>21992078879</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -5950,13 +6127,13 @@
       </c>
       <c r="H54" s="250"/>
       <c r="I54" s="250">
-        <f t="shared" ref="I54:K54" ca="1" si="39">I50-I52</f>
-        <v>0</v>
+        <f t="shared" ref="I54:K54" ca="1" si="31">I50-I52</f>
+        <v>4061633500</v>
       </c>
       <c r="J54" s="250"/>
       <c r="K54" s="250">
-        <f t="shared" ca="1" si="39"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>4108889000</v>
       </c>
     </row>
   </sheetData>
@@ -5989,11 +6166,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K77" sqref="K77:K84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6012,61 +6189,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="180" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="276" t="s">
+      <c r="A1" s="270" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="269" t="s">
+      <c r="B1" s="273" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="271"/>
-      <c r="D1" s="276" t="s">
+      <c r="C1" s="274"/>
+      <c r="D1" s="270" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="276" t="s">
+      <c r="E1" s="270" t="s">
         <v>239</v>
       </c>
-      <c r="F1" s="276" t="s">
+      <c r="F1" s="270" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="276" t="s">
+      <c r="G1" s="270" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="269" t="s">
+      <c r="H1" s="273" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="271"/>
+      <c r="I1" s="275"/>
+      <c r="J1" s="275"/>
+      <c r="K1" s="274"/>
     </row>
     <row r="2" spans="1:11" s="180" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="277"/>
-      <c r="B2" s="272" t="s">
+      <c r="A2" s="271"/>
+      <c r="B2" s="276" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="272" t="s">
+      <c r="C2" s="276" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="277"/>
-      <c r="E2" s="277"/>
-      <c r="F2" s="277"/>
-      <c r="G2" s="277"/>
-      <c r="H2" s="274" t="s">
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
+      <c r="H2" s="278" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="275"/>
-      <c r="J2" s="274" t="s">
+      <c r="I2" s="279"/>
+      <c r="J2" s="278" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="275"/>
+      <c r="K2" s="279"/>
     </row>
     <row r="3" spans="1:11" s="180" customFormat="1" ht="27" customHeight="1">
-      <c r="A3" s="278"/>
-      <c r="B3" s="273"/>
-      <c r="C3" s="273"/>
-      <c r="D3" s="278"/>
-      <c r="E3" s="278"/>
-      <c r="F3" s="278"/>
-      <c r="G3" s="278"/>
+      <c r="A3" s="272"/>
+      <c r="B3" s="277"/>
+      <c r="C3" s="277"/>
+      <c r="D3" s="272"/>
+      <c r="E3" s="272"/>
+      <c r="F3" s="272"/>
+      <c r="G3" s="272"/>
       <c r="H3" s="181" t="s">
         <v>115</v>
       </c>
@@ -8421,7 +8598,7 @@
     </row>
     <row r="72" spans="1:11" ht="21.75" customHeight="1">
       <c r="A72" s="242">
-        <f t="shared" ref="A72:A109" si="21">IF(C72&lt;&gt;"",MONTH(C72),"")</f>
+        <f t="shared" ref="A72:A85" si="21">IF(C72&lt;&gt;"",MONTH(C72),"")</f>
         <v>10</v>
       </c>
       <c r="B72" s="189" t="s">
@@ -8446,12 +8623,12 @@
         <v>20658</v>
       </c>
       <c r="I72" s="162">
-        <f t="shared" ref="I72:I109" si="22">G72*H72</f>
+        <f t="shared" ref="I72:I85" si="22">G72*H72</f>
         <v>464495130</v>
       </c>
       <c r="J72" s="174"/>
       <c r="K72" s="162">
-        <f t="shared" ref="K72:K109" si="23">G72*J72</f>
+        <f t="shared" ref="K72:K85" si="23">G72*J72</f>
         <v>0</v>
       </c>
     </row>
@@ -8843,20 +9020,34 @@
       </c>
     </row>
     <row r="85" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A85" s="242" t="str">
+      <c r="A85" s="242">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="B85" s="189"/>
-      <c r="C85" s="189"/>
-      <c r="D85" s="245"/>
-      <c r="E85" s="160"/>
-      <c r="F85" s="190"/>
-      <c r="G85" s="191"/>
-      <c r="H85" s="174"/>
+        <v>12</v>
+      </c>
+      <c r="B85" s="244" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" s="243">
+        <v>42339</v>
+      </c>
+      <c r="D85" s="245" t="s">
+        <v>359</v>
+      </c>
+      <c r="E85" s="160" t="s">
+        <v>277</v>
+      </c>
+      <c r="F85" s="190" t="s">
+        <v>147</v>
+      </c>
+      <c r="G85" s="191">
+        <v>22487</v>
+      </c>
+      <c r="H85" s="174">
+        <v>72200</v>
+      </c>
       <c r="I85" s="162">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1623561400</v>
       </c>
       <c r="J85" s="174"/>
       <c r="K85" s="162">
@@ -8865,86 +9056,137 @@
       </c>
     </row>
     <row r="86" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A86" s="242" t="str">
-        <f t="shared" ref="A86:A109" si="24">IF(C86&lt;&gt;"",MONTH(C86),"")</f>
-        <v/>
-      </c>
-      <c r="B86" s="189"/>
-      <c r="C86" s="189"/>
-      <c r="D86" s="245"/>
-      <c r="E86" s="160"/>
-      <c r="F86" s="190"/>
-      <c r="G86" s="191"/>
-      <c r="H86" s="174"/>
+      <c r="A86" s="242">
+        <f t="shared" ref="A86:A112" si="24">IF(C86&lt;&gt;"",MONTH(C86),"")</f>
+        <v>12</v>
+      </c>
+      <c r="B86" s="244" t="s">
+        <v>145</v>
+      </c>
+      <c r="C86" s="243">
+        <v>42339</v>
+      </c>
+      <c r="D86" s="245" t="s">
+        <v>360</v>
+      </c>
+      <c r="E86" s="160" t="s">
+        <v>277</v>
+      </c>
+      <c r="F86" s="190" t="s">
+        <v>147</v>
+      </c>
+      <c r="G86" s="191">
+        <v>22487</v>
+      </c>
+      <c r="H86" s="174">
+        <v>17300</v>
+      </c>
       <c r="I86" s="162">
-        <f t="shared" ref="I86:I109" si="25">G86*H86</f>
-        <v>0</v>
+        <f t="shared" ref="I86:I112" si="25">G86*H86</f>
+        <v>389025100</v>
       </c>
       <c r="J86" s="174"/>
       <c r="K86" s="162">
-        <f t="shared" ref="K86:K109" si="26">G86*J86</f>
+        <f t="shared" ref="K86:K112" si="26">G86*J86</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A87" s="242" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="B87" s="189"/>
-      <c r="C87" s="189"/>
-      <c r="D87" s="245"/>
-      <c r="E87" s="160"/>
-      <c r="F87" s="190"/>
+      <c r="A87" s="242">
+        <f t="shared" ref="A87" si="27">IF(C87&lt;&gt;"",MONTH(C87),"")</f>
+        <v>12</v>
+      </c>
+      <c r="B87" s="244" t="s">
+        <v>148</v>
+      </c>
+      <c r="C87" s="243">
+        <v>42339</v>
+      </c>
+      <c r="D87" s="245" t="s">
+        <v>149</v>
+      </c>
+      <c r="E87" s="160" t="s">
+        <v>277</v>
+      </c>
+      <c r="F87" s="190" t="s">
+        <v>150</v>
+      </c>
       <c r="G87" s="191"/>
       <c r="H87" s="174"/>
       <c r="I87" s="162">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="I87" si="28">G87*H87</f>
         <v>0</v>
       </c>
       <c r="J87" s="174"/>
       <c r="K87" s="162">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <v>60144000</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A88" s="242" t="str">
+      <c r="A88" s="242">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="B88" s="189"/>
-      <c r="C88" s="189"/>
-      <c r="D88" s="245"/>
-      <c r="E88" s="160"/>
-      <c r="F88" s="190"/>
-      <c r="G88" s="191"/>
+        <v>12</v>
+      </c>
+      <c r="B88" s="244" t="s">
+        <v>156</v>
+      </c>
+      <c r="C88" s="243">
+        <v>42339</v>
+      </c>
+      <c r="D88" s="245" t="s">
+        <v>361</v>
+      </c>
+      <c r="E88" s="160" t="s">
+        <v>365</v>
+      </c>
+      <c r="F88" s="190" t="s">
+        <v>147</v>
+      </c>
+      <c r="G88" s="191">
+        <v>22487</v>
+      </c>
       <c r="H88" s="174"/>
       <c r="I88" s="162">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="J88" s="174"/>
+      <c r="J88" s="174">
+        <v>89000</v>
+      </c>
       <c r="K88" s="162">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2001343000</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A89" s="242" t="str">
+      <c r="A89" s="242">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="B89" s="189"/>
-      <c r="C89" s="189"/>
-      <c r="D89" s="245"/>
-      <c r="E89" s="160"/>
-      <c r="F89" s="190"/>
-      <c r="G89" s="191"/>
-      <c r="H89" s="174"/>
+        <v>12</v>
+      </c>
+      <c r="B89" s="244" t="s">
+        <v>145</v>
+      </c>
+      <c r="C89" s="243">
+        <v>42359</v>
+      </c>
+      <c r="D89" s="245" t="s">
+        <v>362</v>
+      </c>
+      <c r="E89" s="160" t="s">
+        <v>278</v>
+      </c>
+      <c r="F89" s="190" t="s">
+        <v>147</v>
+      </c>
+      <c r="G89" s="191">
+        <v>22517</v>
+      </c>
+      <c r="H89" s="174">
+        <v>70000</v>
+      </c>
       <c r="I89" s="162">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1576190000</v>
       </c>
       <c r="J89" s="174"/>
       <c r="K89" s="162">
@@ -8953,42 +9195,65 @@
       </c>
     </row>
     <row r="90" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A90" s="242" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="B90" s="189"/>
-      <c r="C90" s="189"/>
-      <c r="D90" s="245"/>
-      <c r="E90" s="160"/>
-      <c r="F90" s="190"/>
+      <c r="A90" s="242">
+        <f t="shared" ref="A90" si="29">IF(C90&lt;&gt;"",MONTH(C90),"")</f>
+        <v>12</v>
+      </c>
+      <c r="B90" s="244" t="s">
+        <v>148</v>
+      </c>
+      <c r="C90" s="243">
+        <v>42339</v>
+      </c>
+      <c r="D90" s="245" t="s">
+        <v>149</v>
+      </c>
+      <c r="E90" s="160" t="s">
+        <v>278</v>
+      </c>
+      <c r="F90" s="190" t="s">
+        <v>150</v>
+      </c>
       <c r="G90" s="191"/>
       <c r="H90" s="174"/>
       <c r="I90" s="162">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="I90" si="30">G90*H90</f>
         <v>0</v>
       </c>
       <c r="J90" s="174"/>
       <c r="K90" s="162">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <v>49350000</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A91" s="242" t="str">
+      <c r="A91" s="242">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="B91" s="189"/>
-      <c r="C91" s="189"/>
-      <c r="D91" s="245"/>
-      <c r="E91" s="160"/>
-      <c r="F91" s="190"/>
-      <c r="G91" s="191"/>
-      <c r="H91" s="174"/>
+        <v>12</v>
+      </c>
+      <c r="B91" s="244" t="s">
+        <v>145</v>
+      </c>
+      <c r="C91" s="243">
+        <v>42359</v>
+      </c>
+      <c r="D91" s="245" t="s">
+        <v>363</v>
+      </c>
+      <c r="E91" s="160" t="s">
+        <v>279</v>
+      </c>
+      <c r="F91" s="190" t="s">
+        <v>147</v>
+      </c>
+      <c r="G91" s="191">
+        <v>22517</v>
+      </c>
+      <c r="H91" s="174">
+        <v>21000</v>
+      </c>
       <c r="I91" s="162">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>472857000</v>
       </c>
       <c r="J91" s="174"/>
       <c r="K91" s="162">
@@ -8997,47 +9262,70 @@
       </c>
     </row>
     <row r="92" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A92" s="242" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="B92" s="189"/>
-      <c r="C92" s="189"/>
-      <c r="D92" s="245"/>
-      <c r="E92" s="160"/>
-      <c r="F92" s="190"/>
+      <c r="A92" s="242">
+        <f t="shared" ref="A92" si="31">IF(C92&lt;&gt;"",MONTH(C92),"")</f>
+        <v>12</v>
+      </c>
+      <c r="B92" s="244" t="s">
+        <v>148</v>
+      </c>
+      <c r="C92" s="243">
+        <v>42359</v>
+      </c>
+      <c r="D92" s="245" t="s">
+        <v>149</v>
+      </c>
+      <c r="E92" s="160" t="s">
+        <v>279</v>
+      </c>
+      <c r="F92" s="190" t="s">
+        <v>150</v>
+      </c>
       <c r="G92" s="191"/>
       <c r="H92" s="174"/>
       <c r="I92" s="162">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="I92" si="32">G92*H92</f>
         <v>0</v>
       </c>
       <c r="J92" s="174"/>
       <c r="K92" s="162">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <v>14532000</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A93" s="242" t="str">
+      <c r="A93" s="242">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="B93" s="189"/>
-      <c r="C93" s="189"/>
-      <c r="D93" s="245"/>
-      <c r="E93" s="160"/>
-      <c r="F93" s="190"/>
-      <c r="G93" s="191"/>
+        <v>12</v>
+      </c>
+      <c r="B93" s="244" t="s">
+        <v>156</v>
+      </c>
+      <c r="C93" s="243">
+        <v>42360</v>
+      </c>
+      <c r="D93" s="245" t="s">
+        <v>364</v>
+      </c>
+      <c r="E93" s="160" t="s">
+        <v>366</v>
+      </c>
+      <c r="F93" s="190" t="s">
+        <v>147</v>
+      </c>
+      <c r="G93" s="191">
+        <v>22540</v>
+      </c>
       <c r="H93" s="174"/>
       <c r="I93" s="162">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="J93" s="174"/>
+      <c r="J93" s="174">
+        <v>88000</v>
+      </c>
       <c r="K93" s="162">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1983520000</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="21.75" customHeight="1">
@@ -9392,26 +9680,92 @@
         <v>0</v>
       </c>
     </row>
+    <row r="110" spans="1:11" ht="21.75" customHeight="1">
+      <c r="A110" s="242" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="B110" s="189"/>
+      <c r="C110" s="189"/>
+      <c r="D110" s="245"/>
+      <c r="E110" s="160"/>
+      <c r="F110" s="190"/>
+      <c r="G110" s="191"/>
+      <c r="H110" s="174"/>
+      <c r="I110" s="162">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="174"/>
+      <c r="K110" s="162">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="21.75" customHeight="1">
+      <c r="A111" s="242" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="B111" s="189"/>
+      <c r="C111" s="189"/>
+      <c r="D111" s="245"/>
+      <c r="E111" s="160"/>
+      <c r="F111" s="190"/>
+      <c r="G111" s="191"/>
+      <c r="H111" s="174"/>
+      <c r="I111" s="162">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="174"/>
+      <c r="K111" s="162">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="21.75" customHeight="1">
+      <c r="A112" s="242" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="B112" s="189"/>
+      <c r="C112" s="189"/>
+      <c r="D112" s="245"/>
+      <c r="E112" s="160"/>
+      <c r="F112" s="190"/>
+      <c r="G112" s="191"/>
+      <c r="H112" s="174"/>
+      <c r="I112" s="162">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="174"/>
+      <c r="K112" s="162">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A4:K71">
     <filterColumn colId="0"/>
     <filterColumn colId="5"/>
   </autoFilter>
   <mergeCells count="11">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="G1:G3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E42:E47 E5:E40 E52:E61 E63:E64 E66:E73 E78:E80 E75:E76 E82:E109">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E42:E47 E5:E40 E52:E61 E63:E64 E66:E73 E78:E80 E75:E76 E82:E112">
       <formula1>DSKU</formula1>
     </dataValidation>
   </dataValidations>
@@ -9428,7 +9782,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H9" sqref="H9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9458,13 +9812,13 @@
       <c r="C1" s="177"/>
       <c r="H1" s="177"/>
       <c r="I1" s="177"/>
-      <c r="J1" s="286" t="s">
+      <c r="J1" s="281" t="s">
         <v>241</v>
       </c>
-      <c r="K1" s="286"/>
-      <c r="L1" s="286"/>
-      <c r="M1" s="286"/>
-      <c r="N1" s="286"/>
+      <c r="K1" s="281"/>
+      <c r="L1" s="281"/>
+      <c r="M1" s="281"/>
+      <c r="N1" s="281"/>
     </row>
     <row r="2" spans="1:14" s="178" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="176" t="s">
@@ -9474,13 +9828,13 @@
       <c r="C2" s="219"/>
       <c r="H2" s="179"/>
       <c r="I2" s="179"/>
-      <c r="J2" s="287" t="s">
+      <c r="J2" s="282" t="s">
         <v>242</v>
       </c>
-      <c r="K2" s="287"/>
-      <c r="L2" s="287"/>
-      <c r="M2" s="287"/>
-      <c r="N2" s="287"/>
+      <c r="K2" s="282"/>
+      <c r="L2" s="282"/>
+      <c r="M2" s="282"/>
+      <c r="N2" s="282"/>
     </row>
     <row r="3" spans="1:14" s="178" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="219"/>
@@ -9488,11 +9842,11 @@
       <c r="C3" s="219"/>
       <c r="H3" s="179"/>
       <c r="I3" s="179"/>
-      <c r="J3" s="287"/>
-      <c r="K3" s="287"/>
-      <c r="L3" s="287"/>
-      <c r="M3" s="287"/>
-      <c r="N3" s="287"/>
+      <c r="J3" s="282"/>
+      <c r="K3" s="282"/>
+      <c r="L3" s="282"/>
+      <c r="M3" s="282"/>
+      <c r="N3" s="282"/>
     </row>
     <row r="4" spans="1:14" s="178" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="219"/>
@@ -9507,22 +9861,22 @@
       <c r="N4" s="220"/>
     </row>
     <row r="5" spans="1:14" s="180" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="288" t="s">
+      <c r="A5" s="283" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="289"/>
-      <c r="C5" s="289"/>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
-      <c r="I5" s="289"/>
-      <c r="J5" s="289"/>
-      <c r="K5" s="289"/>
-      <c r="L5" s="289"/>
-      <c r="M5" s="289"/>
-      <c r="N5" s="289"/>
+      <c r="B5" s="284"/>
+      <c r="C5" s="284"/>
+      <c r="D5" s="284"/>
+      <c r="E5" s="284"/>
+      <c r="F5" s="284"/>
+      <c r="G5" s="284"/>
+      <c r="H5" s="284"/>
+      <c r="I5" s="284"/>
+      <c r="J5" s="284"/>
+      <c r="K5" s="284"/>
+      <c r="L5" s="284"/>
+      <c r="M5" s="284"/>
+      <c r="N5" s="284"/>
     </row>
     <row r="6" spans="1:14" s="180" customFormat="1">
       <c r="A6" s="280" t="s">
@@ -9589,13 +9943,13 @@
       <c r="G9" s="234" t="s">
         <v>240</v>
       </c>
-      <c r="H9" s="279" t="s">
-        <v>117</v>
-      </c>
-      <c r="I9" s="279"/>
+      <c r="H9" s="285" t="s">
+        <v>279</v>
+      </c>
+      <c r="I9" s="285"/>
       <c r="J9" s="235" t="str">
         <f>"ngày "&amp; TEXT(VLOOKUP($H$9,'341'!$B$5:$C$49,2,0),"dd/MM/yy")</f>
-        <v>ngày 22/01/10</v>
+        <v>ngày 29/06/15</v>
       </c>
       <c r="K9" s="218"/>
       <c r="L9" s="218"/>
@@ -9621,84 +9975,84 @@
       <c r="N10" s="280"/>
     </row>
     <row r="11" spans="1:14" s="180" customFormat="1">
-      <c r="C11" s="281"/>
-      <c r="D11" s="281"/>
-      <c r="E11" s="281"/>
-      <c r="F11" s="281"/>
-      <c r="G11" s="281"/>
-      <c r="H11" s="281"/>
-      <c r="I11" s="281"/>
-      <c r="J11" s="281"/>
-      <c r="K11" s="281"/>
-      <c r="L11" s="281"/>
-      <c r="M11" s="281"/>
-      <c r="N11" s="281"/>
+      <c r="C11" s="286"/>
+      <c r="D11" s="286"/>
+      <c r="E11" s="286"/>
+      <c r="F11" s="286"/>
+      <c r="G11" s="286"/>
+      <c r="H11" s="286"/>
+      <c r="I11" s="286"/>
+      <c r="J11" s="286"/>
+      <c r="K11" s="286"/>
+      <c r="L11" s="286"/>
+      <c r="M11" s="286"/>
+      <c r="N11" s="286"/>
     </row>
     <row r="12" spans="1:14" s="180" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A12" s="276" t="s">
+      <c r="A12" s="270" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="269" t="s">
+      <c r="B12" s="273" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="271"/>
-      <c r="D12" s="276" t="s">
+      <c r="C12" s="274"/>
+      <c r="D12" s="270" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="276" t="s">
+      <c r="E12" s="270" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="276" t="s">
+      <c r="F12" s="270" t="s">
         <v>139</v>
       </c>
-      <c r="G12" s="269" t="s">
+      <c r="G12" s="273" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="284"/>
-      <c r="I12" s="284"/>
-      <c r="J12" s="285"/>
-      <c r="K12" s="269" t="s">
+      <c r="H12" s="289"/>
+      <c r="I12" s="289"/>
+      <c r="J12" s="290"/>
+      <c r="K12" s="273" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="284"/>
-      <c r="M12" s="284"/>
-      <c r="N12" s="285"/>
+      <c r="L12" s="289"/>
+      <c r="M12" s="289"/>
+      <c r="N12" s="290"/>
     </row>
     <row r="13" spans="1:14" s="180" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="277"/>
-      <c r="B13" s="272" t="s">
+      <c r="A13" s="271"/>
+      <c r="B13" s="276" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="272" t="s">
+      <c r="C13" s="276" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="277"/>
-      <c r="E13" s="277"/>
-      <c r="F13" s="282"/>
-      <c r="G13" s="274" t="s">
+      <c r="D13" s="271"/>
+      <c r="E13" s="271"/>
+      <c r="F13" s="287"/>
+      <c r="G13" s="278" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="285"/>
-      <c r="I13" s="274" t="s">
+      <c r="H13" s="290"/>
+      <c r="I13" s="278" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="285"/>
-      <c r="K13" s="274" t="s">
+      <c r="J13" s="290"/>
+      <c r="K13" s="278" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="285"/>
-      <c r="M13" s="274" t="s">
+      <c r="L13" s="290"/>
+      <c r="M13" s="278" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="285"/>
+      <c r="N13" s="290"/>
     </row>
     <row r="14" spans="1:14" s="180" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A14" s="278"/>
-      <c r="B14" s="273"/>
-      <c r="C14" s="273"/>
-      <c r="D14" s="278"/>
-      <c r="E14" s="278"/>
-      <c r="F14" s="283"/>
+      <c r="A14" s="272"/>
+      <c r="B14" s="277"/>
+      <c r="C14" s="277"/>
+      <c r="D14" s="272"/>
+      <c r="E14" s="272"/>
+      <c r="F14" s="288"/>
       <c r="G14" s="181" t="s">
         <v>115</v>
       </c>
@@ -9791,29 +10145,29 @@
       </c>
       <c r="M16" s="186">
         <f>VLOOKUP($H$9,'341'!$B$5:$G$49,5,0)</f>
-        <v>27926</v>
+        <v>0</v>
       </c>
       <c r="N16" s="187">
         <f>VLOOKUP($H$9,'341'!$B$5:$G$49,6,0)</f>
-        <v>401936849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="180" customFormat="1" ht="19.5" customHeight="1">
       <c r="A17" s="188">
         <f ca="1">IF(D17&lt;&gt;"",C17,"")</f>
-        <v>42279</v>
+        <v>42184</v>
       </c>
       <c r="B17" s="189" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong4),"",OFFSET('TH-341'!B$1,SMALL(Dong4,ROWS($1:1)),))</f>
-        <v>GBN</v>
+        <v>GBC</v>
       </c>
       <c r="C17" s="189">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong4),"",OFFSET('TH-341'!C$1,SMALL(Dong4,ROWS($1:1)),))</f>
-        <v>42279</v>
+        <v>42184</v>
       </c>
       <c r="D17" s="240" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong4),"",OFFSET('TH-341'!D$1,SMALL(Dong4,ROWS($1:1)),))</f>
-        <v>Trả gốc KU 1015LDS201000102</v>
+        <v>Q11 - Vay KU 1015LD201501587</v>
       </c>
       <c r="E17" s="189" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong4),"",OFFSET('TH-341'!F$1,SMALL(Dong4,ROWS($1:1)),))</f>
@@ -9821,23 +10175,23 @@
       </c>
       <c r="F17" s="237">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong4),"",OFFSET('TH-341'!G$1,SMALL(Dong4,ROWS($1:1)),))</f>
-        <v>22485</v>
+        <v>21825</v>
       </c>
       <c r="G17" s="238">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong4),"",OFFSET('TH-341'!H$1,SMALL(Dong4,ROWS($1:1)),))</f>
-        <v>14011</v>
+        <v>0</v>
       </c>
       <c r="H17" s="237">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong4),"",OFFSET('TH-341'!I$1,SMALL(Dong4,ROWS($1:1)),))</f>
-        <v>315037335</v>
+        <v>0</v>
       </c>
       <c r="I17" s="238">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong4),"",OFFSET('TH-341'!J$1,SMALL(Dong4,ROWS($1:1)),))</f>
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="J17" s="237">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong4),"",OFFSET('TH-341'!K$1,SMALL(Dong4,ROWS($1:1)),))</f>
-        <v>0</v>
+        <v>458325000</v>
       </c>
       <c r="K17" s="161">
         <f t="shared" ref="K17" ca="1" si="0">IF(C17&lt;&gt;"",ROUND(MAX(K16+G17-I17-M16,0),2),0)</f>
@@ -9849,45 +10203,45 @@
       </c>
       <c r="M17" s="161">
         <f t="shared" ref="M17" ca="1" si="2">IF(C17&lt;&gt;"",ROUND(MAX(M16+I17-G17-K16,0),2),0)</f>
-        <v>13915</v>
+        <v>21000</v>
       </c>
       <c r="N17" s="162">
         <f t="shared" ref="N17" ca="1" si="3">IF(C17&lt;&gt;"",MAX(N16-L16+J17-H17,0),0)</f>
-        <v>86899514</v>
+        <v>458325000</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="197" customFormat="1" ht="19.5" customHeight="1">
       <c r="A18" s="188">
         <f t="shared" ref="A18:A19" ca="1" si="4">IF(D18&lt;&gt;"",C18,"")</f>
-        <v>42279</v>
+        <v>42359</v>
       </c>
       <c r="B18" s="189" t="str">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong4),"",OFFSET('TH-341'!B$1,SMALL(Dong4,ROWS($1:2)),))</f>
-        <v>CTGS</v>
+        <v>GBN</v>
       </c>
       <c r="C18" s="189">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong4),"",OFFSET('TH-341'!C$1,SMALL(Dong4,ROWS($1:2)),))</f>
-        <v>42279</v>
+        <v>42359</v>
       </c>
       <c r="D18" s="240" t="str">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong4),"",OFFSET('TH-341'!D$1,SMALL(Dong4,ROWS($1:2)),))</f>
-        <v>CLTG vay KU 1015LDS201000102 (2015)</v>
+        <v>Trả gốc KU 1015LDS201501587</v>
       </c>
       <c r="E18" s="189" t="str">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong4),"",OFFSET('TH-341'!F$1,SMALL(Dong4,ROWS($1:2)),))</f>
-        <v>635</v>
+        <v>1122</v>
       </c>
       <c r="F18" s="237">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong4),"",OFFSET('TH-341'!G$1,SMALL(Dong4,ROWS($1:2)),))</f>
-        <v>0</v>
+        <v>22517</v>
       </c>
       <c r="G18" s="238">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong4),"",OFFSET('TH-341'!H$1,SMALL(Dong4,ROWS($1:2)),))</f>
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="H18" s="237">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong4),"",OFFSET('TH-341'!I$1,SMALL(Dong4,ROWS($1:2)),))</f>
-        <v>0</v>
+        <v>472857000</v>
       </c>
       <c r="I18" s="238">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong4),"",OFFSET('TH-341'!J$1,SMALL(Dong4,ROWS($1:2)),))</f>
@@ -9895,7 +10249,7 @@
       </c>
       <c r="J18" s="237">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong4),"",OFFSET('TH-341'!K$1,SMALL(Dong4,ROWS($1:2)),))</f>
-        <v>35047130</v>
+        <v>0</v>
       </c>
       <c r="K18" s="161">
         <f t="shared" ref="K18:K19" ca="1" si="5">IF(C18&lt;&gt;"",ROUND(MAX(K17+G18-I18-M17,0),2),0)</f>
@@ -9903,37 +10257,37 @@
       </c>
       <c r="L18" s="162">
         <f t="shared" ref="L18:L19" ca="1" si="6">IF(C18&lt;&gt;"",MAX(L17-N17+H18-J18,0),0)</f>
-        <v>0</v>
+        <v>14532000</v>
       </c>
       <c r="M18" s="161">
         <f t="shared" ref="M18:M19" ca="1" si="7">IF(C18&lt;&gt;"",ROUND(MAX(M17+I18-G18-K17,0),2),0)</f>
-        <v>13915</v>
+        <v>0</v>
       </c>
       <c r="N18" s="162">
         <f t="shared" ref="N18:N19" ca="1" si="8">IF(C18&lt;&gt;"",MAX(N17-L17+J18-H18,0),0)</f>
-        <v>121946644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="197" customFormat="1" ht="19.5" customHeight="1">
       <c r="A19" s="188">
         <f t="shared" ca="1" si="4"/>
-        <v>42279</v>
+        <v>42359</v>
       </c>
       <c r="B19" s="189" t="str">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong4),"",OFFSET('TH-341'!B$1,SMALL(Dong4,ROWS($1:3)),))</f>
-        <v>BTĐC</v>
+        <v>CTGS</v>
       </c>
       <c r="C19" s="189">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong4),"",OFFSET('TH-341'!C$1,SMALL(Dong4,ROWS($1:3)),))</f>
-        <v>42279</v>
+        <v>42359</v>
       </c>
       <c r="D19" s="240" t="str">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong4),"",OFFSET('TH-341'!D$1,SMALL(Dong4,ROWS($1:3)),))</f>
-        <v>CLTG vay KU 1015LDS201000102 (2010-2014)</v>
+        <v>Chênh lệch tỷ giá vay NH</v>
       </c>
       <c r="E19" s="189" t="str">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong4),"",OFFSET('TH-341'!F$1,SMALL(Dong4,ROWS($1:3)),))</f>
-        <v>4211</v>
+        <v>635</v>
       </c>
       <c r="F19" s="237">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong4),"",OFFSET('TH-341'!G$1,SMALL(Dong4,ROWS($1:3)),))</f>
@@ -9953,7 +10307,7 @@
       </c>
       <c r="J19" s="237">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong4),"",OFFSET('TH-341'!K$1,SMALL(Dong4,ROWS($1:3)),))</f>
-        <v>190932131</v>
+        <v>14532000</v>
       </c>
       <c r="K19" s="161">
         <f t="shared" ca="1" si="5"/>
@@ -9965,11 +10319,11 @@
       </c>
       <c r="M19" s="161">
         <f t="shared" ca="1" si="7"/>
-        <v>13915</v>
+        <v>0</v>
       </c>
       <c r="N19" s="162">
         <f t="shared" ca="1" si="8"/>
-        <v>312878775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="197" customFormat="1" ht="19.5" customHeight="1">
@@ -10061,19 +10415,19 @@
       </c>
       <c r="G22" s="252">
         <f t="shared" ref="G22:I22" ca="1" si="14">SUM(G17:G20)</f>
-        <v>14011</v>
+        <v>21000</v>
       </c>
       <c r="H22" s="200">
         <f t="shared" ca="1" si="14"/>
-        <v>315037335</v>
+        <v>472857000</v>
       </c>
       <c r="I22" s="252">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="J22" s="200">
         <f ca="1">SUM(J17:J20)</f>
-        <v>225979261</v>
+        <v>472857000</v>
       </c>
       <c r="K22" s="200" t="s">
         <v>23</v>
@@ -10123,11 +10477,11 @@
       </c>
       <c r="M23" s="204">
         <f ca="1">MAX(M16+I22-K16-G22,0)</f>
-        <v>13915</v>
+        <v>0</v>
       </c>
       <c r="N23" s="205">
         <f ca="1">MAX(N16+J22-L16-H22,0)</f>
-        <v>312878775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="180" customFormat="1">
@@ -10144,7 +10498,7 @@
     <row r="26" spans="1:14" s="180" customFormat="1">
       <c r="C26" s="206" t="str">
         <f>"- Ngày mở sổ: "&amp;TEXT(VLOOKUP($H$9,'341'!$B$5:$C$49,2,0),"dd/MM/yy")</f>
-        <v>- Ngày mở sổ: 22/01/10</v>
+        <v>- Ngày mở sổ: 29/06/15</v>
       </c>
       <c r="E26" s="218"/>
       <c r="F26" s="218"/>
@@ -10199,12 +10553,6 @@
     <row r="44" s="239" customFormat="1"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="J2:N3"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="A7:N7"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="A10:N10"/>
     <mergeCell ref="C11:N11"/>
@@ -10221,6 +10569,12 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="M13:N13"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="J2:N3"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="A7:N7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:I9">
@@ -10274,11 +10628,11 @@
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="300" t="s">
+      <c r="G2" s="301" t="s">
         <v>165</v>
       </c>
-      <c r="H2" s="300"/>
-      <c r="I2" s="300"/>
+      <c r="H2" s="301"/>
+      <c r="I2" s="301"/>
       <c r="O2" s="15" t="s">
         <v>0</v>
       </c>
@@ -10288,11 +10642,11 @@
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="301" t="s">
+      <c r="G3" s="302" t="s">
         <v>166</v>
       </c>
-      <c r="H3" s="301"/>
-      <c r="I3" s="301"/>
+      <c r="H3" s="302"/>
+      <c r="I3" s="302"/>
       <c r="O3" s="15" t="s">
         <v>1</v>
       </c>
@@ -10300,9 +10654,9 @@
     </row>
     <row r="4" spans="1:21">
       <c r="F4" s="3"/>
-      <c r="G4" s="301"/>
-      <c r="H4" s="301"/>
-      <c r="I4" s="301"/>
+      <c r="G4" s="302"/>
+      <c r="H4" s="302"/>
+      <c r="I4" s="302"/>
       <c r="S4" s="3"/>
       <c r="T4" s="29"/>
     </row>
@@ -10325,17 +10679,17 @@
       <c r="T5" s="29"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="302" t="s">
+      <c r="A6" s="291" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="302"/>
-      <c r="C6" s="302"/>
-      <c r="D6" s="302"/>
-      <c r="E6" s="302"/>
-      <c r="F6" s="302"/>
-      <c r="G6" s="302"/>
-      <c r="H6" s="302"/>
-      <c r="I6" s="302"/>
+      <c r="B6" s="291"/>
+      <c r="C6" s="291"/>
+      <c r="D6" s="291"/>
+      <c r="E6" s="291"/>
+      <c r="F6" s="291"/>
+      <c r="G6" s="291"/>
+      <c r="H6" s="291"/>
+      <c r="I6" s="291"/>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
       <c r="R6" s="29"/>
@@ -10361,17 +10715,17 @@
       <c r="T7" s="29"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="302" t="s">
+      <c r="A8" s="291" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="302"/>
-      <c r="C8" s="302"/>
-      <c r="D8" s="302"/>
-      <c r="E8" s="302"/>
-      <c r="F8" s="302"/>
-      <c r="G8" s="302"/>
-      <c r="H8" s="302"/>
-      <c r="I8" s="302"/>
+      <c r="B8" s="291"/>
+      <c r="C8" s="291"/>
+      <c r="D8" s="291"/>
+      <c r="E8" s="291"/>
+      <c r="F8" s="291"/>
+      <c r="G8" s="291"/>
+      <c r="H8" s="291"/>
+      <c r="I8" s="291"/>
       <c r="O8" s="29"/>
       <c r="P8" s="29"/>
       <c r="R8" s="29"/>
@@ -10379,17 +10733,17 @@
       <c r="T8" s="29"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="302" t="s">
+      <c r="A9" s="291" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="302"/>
-      <c r="C9" s="302"/>
-      <c r="D9" s="302"/>
-      <c r="E9" s="302"/>
-      <c r="F9" s="302"/>
-      <c r="G9" s="302"/>
-      <c r="H9" s="302"/>
-      <c r="I9" s="302"/>
+      <c r="B9" s="291"/>
+      <c r="C9" s="291"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="291"/>
       <c r="O9" s="29"/>
       <c r="P9" s="29"/>
       <c r="R9" s="29"/>
@@ -10413,95 +10767,95 @@
       <c r="T10" s="29"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A11" s="299" t="s">
+      <c r="A11" s="292" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="291" t="s">
+      <c r="B11" s="293" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="292"/>
-      <c r="D11" s="299" t="s">
+      <c r="C11" s="294"/>
+      <c r="D11" s="292" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="299" t="s">
+      <c r="E11" s="292" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="291" t="s">
+      <c r="F11" s="293" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="292"/>
-      <c r="H11" s="291" t="s">
+      <c r="G11" s="294"/>
+      <c r="H11" s="293" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="303"/>
-      <c r="O11" s="299" t="s">
+      <c r="O11" s="292" t="s">
         <v>6</v>
       </c>
       <c r="P11" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="Q11" s="299" t="s">
+      <c r="Q11" s="292" t="s">
         <v>8</v>
       </c>
-      <c r="R11" s="299" t="s">
+      <c r="R11" s="292" t="s">
         <v>9</v>
       </c>
-      <c r="S11" s="291" t="s">
+      <c r="S11" s="293" t="s">
         <v>10</v>
       </c>
-      <c r="T11" s="292"/>
+      <c r="T11" s="294"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A12" s="299"/>
-      <c r="B12" s="293" t="s">
+      <c r="A12" s="292"/>
+      <c r="B12" s="295" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="295" t="s">
+      <c r="C12" s="297" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="299"/>
-      <c r="E12" s="299"/>
-      <c r="F12" s="295" t="s">
+      <c r="D12" s="292"/>
+      <c r="E12" s="292"/>
+      <c r="F12" s="297" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="297" t="s">
+      <c r="G12" s="299" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="295" t="s">
+      <c r="H12" s="297" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="295" t="s">
+      <c r="I12" s="297" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="299"/>
-      <c r="P12" s="293" t="s">
+      <c r="O12" s="292"/>
+      <c r="P12" s="295" t="s">
         <v>12</v>
       </c>
-      <c r="Q12" s="299"/>
-      <c r="R12" s="299"/>
-      <c r="S12" s="295" t="s">
+      <c r="Q12" s="292"/>
+      <c r="R12" s="292"/>
+      <c r="S12" s="297" t="s">
         <v>14</v>
       </c>
-      <c r="T12" s="297" t="s">
+      <c r="T12" s="299" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="18" customHeight="1">
-      <c r="A13" s="299"/>
-      <c r="B13" s="294"/>
-      <c r="C13" s="296"/>
-      <c r="D13" s="299"/>
-      <c r="E13" s="299"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="298"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="O13" s="299"/>
-      <c r="P13" s="294"/>
-      <c r="Q13" s="299"/>
-      <c r="R13" s="299"/>
-      <c r="S13" s="296"/>
-      <c r="T13" s="298"/>
+      <c r="A13" s="292"/>
+      <c r="B13" s="296"/>
+      <c r="C13" s="298"/>
+      <c r="D13" s="292"/>
+      <c r="E13" s="292"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="300"/>
+      <c r="H13" s="298"/>
+      <c r="I13" s="298"/>
+      <c r="O13" s="292"/>
+      <c r="P13" s="296"/>
+      <c r="Q13" s="292"/>
+      <c r="R13" s="292"/>
+      <c r="S13" s="298"/>
+      <c r="T13" s="300"/>
     </row>
     <row r="14" spans="1:21" s="28" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="30" t="s">
@@ -17842,13 +18196,13 @@
       <c r="B209" s="28"/>
       <c r="C209" s="28"/>
       <c r="D209" s="29"/>
-      <c r="E209" s="302" t="s">
+      <c r="E209" s="291" t="s">
         <v>167</v>
       </c>
-      <c r="F209" s="302"/>
-      <c r="G209" s="302"/>
-      <c r="H209" s="302"/>
-      <c r="I209" s="302"/>
+      <c r="F209" s="291"/>
+      <c r="G209" s="291"/>
+      <c r="H209" s="291"/>
+      <c r="I209" s="291"/>
       <c r="J209" s="61"/>
       <c r="K209" s="118"/>
       <c r="L209" s="61"/>
@@ -17863,58 +18217,58 @@
       <c r="U209" s="148"/>
     </row>
     <row r="210" spans="1:21" s="1" customFormat="1">
-      <c r="A210" s="302" t="s">
+      <c r="A210" s="291" t="s">
         <v>25</v>
       </c>
-      <c r="B210" s="302"/>
-      <c r="C210" s="302"/>
-      <c r="D210" s="302"/>
-      <c r="E210" s="302" t="s">
+      <c r="B210" s="291"/>
+      <c r="C210" s="291"/>
+      <c r="D210" s="291"/>
+      <c r="E210" s="291" t="s">
         <v>26</v>
       </c>
-      <c r="F210" s="302"/>
-      <c r="G210" s="302"/>
-      <c r="H210" s="302"/>
-      <c r="I210" s="302"/>
+      <c r="F210" s="291"/>
+      <c r="G210" s="291"/>
+      <c r="H210" s="291"/>
+      <c r="I210" s="291"/>
       <c r="J210" s="61"/>
       <c r="K210" s="142"/>
       <c r="L210" s="62"/>
       <c r="M210" s="59"/>
       <c r="N210" s="59"/>
-      <c r="O210" s="290" t="s">
+      <c r="O210" s="307" t="s">
         <v>25</v>
       </c>
-      <c r="P210" s="290"/>
-      <c r="Q210" s="290"/>
+      <c r="P210" s="307"/>
+      <c r="Q210" s="307"/>
       <c r="R210" s="59"/>
       <c r="S210" s="59"/>
       <c r="T210" s="59"/>
       <c r="U210" s="148"/>
     </row>
     <row r="211" spans="1:21" s="1" customFormat="1">
-      <c r="A211" s="302" t="s">
+      <c r="A211" s="291" t="s">
         <v>27</v>
       </c>
-      <c r="B211" s="302"/>
-      <c r="C211" s="302"/>
-      <c r="D211" s="302"/>
-      <c r="E211" s="302" t="s">
+      <c r="B211" s="291"/>
+      <c r="C211" s="291"/>
+      <c r="D211" s="291"/>
+      <c r="E211" s="291" t="s">
         <v>27</v>
       </c>
-      <c r="F211" s="302"/>
-      <c r="G211" s="302"/>
-      <c r="H211" s="302"/>
-      <c r="I211" s="302"/>
+      <c r="F211" s="291"/>
+      <c r="G211" s="291"/>
+      <c r="H211" s="291"/>
+      <c r="I211" s="291"/>
       <c r="J211" s="61"/>
       <c r="K211" s="141"/>
       <c r="L211" s="61"/>
       <c r="M211" s="59"/>
       <c r="N211" s="59"/>
-      <c r="O211" s="290" t="s">
+      <c r="O211" s="307" t="s">
         <v>27</v>
       </c>
-      <c r="P211" s="290"/>
-      <c r="Q211" s="290"/>
+      <c r="P211" s="307"/>
+      <c r="Q211" s="307"/>
       <c r="R211" s="59"/>
       <c r="S211" s="59"/>
       <c r="T211" s="59"/>
@@ -18651,15 +19005,15 @@
   </sheetData>
   <autoFilter ref="A14:N205"/>
   <mergeCells count="34">
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="E211:I211"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="O210:Q210"/>
+    <mergeCell ref="O211:Q211"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R11:R13"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I4"/>
     <mergeCell ref="A210:D210"/>
@@ -18676,15 +19030,15 @@
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A6:I6"/>
-    <mergeCell ref="O210:Q210"/>
-    <mergeCell ref="O211:Q211"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="E211:I211"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="F35 S53">
@@ -18764,11 +19118,11 @@
       <c r="D2" s="29"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
-      <c r="G2" s="300" t="s">
+      <c r="G2" s="301" t="s">
         <v>165</v>
       </c>
-      <c r="H2" s="300"/>
-      <c r="I2" s="300"/>
+      <c r="H2" s="301"/>
+      <c r="I2" s="301"/>
       <c r="N2" s="28"/>
       <c r="O2" s="28"/>
       <c r="P2" s="29"/>
@@ -18785,11 +19139,11 @@
       <c r="D3" s="29"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
-      <c r="G3" s="301" t="s">
+      <c r="G3" s="302" t="s">
         <v>166</v>
       </c>
-      <c r="H3" s="301"/>
-      <c r="I3" s="301"/>
+      <c r="H3" s="302"/>
+      <c r="I3" s="302"/>
       <c r="N3" s="28"/>
       <c r="O3" s="28"/>
       <c r="P3" s="29"/>
@@ -18804,9 +19158,9 @@
       <c r="D4" s="29"/>
       <c r="E4" s="28"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="301"/>
-      <c r="H4" s="301"/>
-      <c r="I4" s="301"/>
+      <c r="G4" s="302"/>
+      <c r="H4" s="302"/>
+      <c r="I4" s="302"/>
       <c r="N4" s="28"/>
       <c r="O4" s="28"/>
       <c r="P4" s="29"/>
@@ -18833,17 +19187,17 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="302" t="s">
+      <c r="A6" s="291" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="302"/>
-      <c r="C6" s="302"/>
-      <c r="D6" s="302"/>
-      <c r="E6" s="302"/>
-      <c r="F6" s="302"/>
-      <c r="G6" s="302"/>
-      <c r="H6" s="302"/>
-      <c r="I6" s="302"/>
+      <c r="B6" s="291"/>
+      <c r="C6" s="291"/>
+      <c r="D6" s="291"/>
+      <c r="E6" s="291"/>
+      <c r="F6" s="291"/>
+      <c r="G6" s="291"/>
+      <c r="H6" s="291"/>
+      <c r="I6" s="291"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="Q6" s="1"/>
@@ -18854,14 +19208,14 @@
       <c r="A7" s="305" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="302"/>
-      <c r="C7" s="302"/>
-      <c r="D7" s="302"/>
-      <c r="E7" s="302"/>
-      <c r="F7" s="302"/>
-      <c r="G7" s="302"/>
-      <c r="H7" s="302"/>
-      <c r="I7" s="302"/>
+      <c r="B7" s="291"/>
+      <c r="C7" s="291"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="291"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="Q7" s="1"/>
@@ -18869,19 +19223,19 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="302" t="s">
+      <c r="A8" s="291" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="302" t="s">
+      <c r="B8" s="291" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="302"/>
-      <c r="D8" s="302"/>
-      <c r="E8" s="302"/>
-      <c r="F8" s="302"/>
-      <c r="G8" s="302"/>
-      <c r="H8" s="302"/>
-      <c r="I8" s="302"/>
+      <c r="C8" s="291"/>
+      <c r="D8" s="291"/>
+      <c r="E8" s="291"/>
+      <c r="F8" s="291"/>
+      <c r="G8" s="291"/>
+      <c r="H8" s="291"/>
+      <c r="I8" s="291"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="Q8" s="1"/>
@@ -18889,7 +19243,7 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="302" t="s">
+      <c r="A9" s="291" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="305"/>
@@ -18909,13 +19263,13 @@
     <row r="10" spans="1:20" hidden="1">
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
-      <c r="C10" s="307"/>
-      <c r="D10" s="307"/>
-      <c r="E10" s="307"/>
-      <c r="F10" s="307"/>
-      <c r="G10" s="307"/>
-      <c r="H10" s="307"/>
-      <c r="I10" s="307"/>
+      <c r="C10" s="308"/>
+      <c r="D10" s="308"/>
+      <c r="E10" s="308"/>
+      <c r="F10" s="308"/>
+      <c r="G10" s="308"/>
+      <c r="H10" s="308"/>
+      <c r="I10" s="308"/>
       <c r="N10" s="28"/>
       <c r="O10" s="1"/>
       <c r="Q10" s="1"/>
@@ -18923,95 +19277,95 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A11" s="299" t="s">
+      <c r="A11" s="292" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="291" t="s">
+      <c r="B11" s="293" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="292"/>
-      <c r="D11" s="299" t="s">
+      <c r="C11" s="294"/>
+      <c r="D11" s="292" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="299" t="s">
+      <c r="E11" s="292" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="291" t="s">
+      <c r="F11" s="293" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="292"/>
-      <c r="H11" s="291" t="s">
+      <c r="G11" s="294"/>
+      <c r="H11" s="293" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="303"/>
-      <c r="N11" s="291" t="s">
+      <c r="N11" s="293" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="292"/>
-      <c r="P11" s="299" t="s">
+      <c r="O11" s="294"/>
+      <c r="P11" s="292" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="299" t="s">
+      <c r="Q11" s="292" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="291" t="s">
+      <c r="R11" s="293" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="292"/>
+      <c r="S11" s="294"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A12" s="299"/>
-      <c r="B12" s="295" t="s">
+      <c r="A12" s="292"/>
+      <c r="B12" s="297" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="295" t="s">
+      <c r="C12" s="297" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="299"/>
-      <c r="E12" s="299"/>
-      <c r="F12" s="295" t="s">
+      <c r="D12" s="292"/>
+      <c r="E12" s="292"/>
+      <c r="F12" s="297" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="297" t="s">
+      <c r="G12" s="299" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="295" t="s">
+      <c r="H12" s="297" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="295" t="s">
+      <c r="I12" s="297" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="295" t="s">
+      <c r="N12" s="297" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="295" t="s">
+      <c r="O12" s="297" t="s">
         <v>13</v>
       </c>
-      <c r="P12" s="299"/>
-      <c r="Q12" s="299"/>
-      <c r="R12" s="295" t="s">
+      <c r="P12" s="292"/>
+      <c r="Q12" s="292"/>
+      <c r="R12" s="297" t="s">
         <v>14</v>
       </c>
-      <c r="S12" s="297" t="s">
+      <c r="S12" s="299" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A13" s="299"/>
-      <c r="B13" s="296"/>
-      <c r="C13" s="296"/>
-      <c r="D13" s="299"/>
-      <c r="E13" s="299"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="298"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="N13" s="296"/>
-      <c r="O13" s="296"/>
-      <c r="P13" s="299"/>
-      <c r="Q13" s="299"/>
-      <c r="R13" s="296"/>
-      <c r="S13" s="298"/>
+      <c r="A13" s="292"/>
+      <c r="B13" s="298"/>
+      <c r="C13" s="298"/>
+      <c r="D13" s="292"/>
+      <c r="E13" s="292"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="300"/>
+      <c r="H13" s="298"/>
+      <c r="I13" s="298"/>
+      <c r="N13" s="298"/>
+      <c r="O13" s="298"/>
+      <c r="P13" s="292"/>
+      <c r="Q13" s="292"/>
+      <c r="R13" s="298"/>
+      <c r="S13" s="300"/>
     </row>
     <row r="14" spans="1:20" s="2" customFormat="1" ht="9.75" customHeight="1">
       <c r="A14" s="30" t="s">
@@ -24929,13 +25283,13 @@
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
       <c r="D145" s="29"/>
-      <c r="E145" s="302" t="s">
+      <c r="E145" s="291" t="s">
         <v>167</v>
       </c>
-      <c r="F145" s="302"/>
-      <c r="G145" s="302"/>
-      <c r="H145" s="302"/>
-      <c r="I145" s="302"/>
+      <c r="F145" s="291"/>
+      <c r="G145" s="291"/>
+      <c r="H145" s="291"/>
+      <c r="I145" s="291"/>
       <c r="J145" s="51"/>
       <c r="L145" s="59"/>
       <c r="M145" s="59"/>
@@ -24947,19 +25301,19 @@
       <c r="S145" s="59"/>
     </row>
     <row r="146" spans="1:19">
-      <c r="A146" s="302" t="s">
+      <c r="A146" s="291" t="s">
         <v>25</v>
       </c>
-      <c r="B146" s="302"/>
-      <c r="C146" s="302"/>
-      <c r="D146" s="302"/>
-      <c r="E146" s="302" t="s">
+      <c r="B146" s="291"/>
+      <c r="C146" s="291"/>
+      <c r="D146" s="291"/>
+      <c r="E146" s="291" t="s">
         <v>26</v>
       </c>
-      <c r="F146" s="302"/>
-      <c r="G146" s="302"/>
-      <c r="H146" s="302"/>
-      <c r="I146" s="302"/>
+      <c r="F146" s="291"/>
+      <c r="G146" s="291"/>
+      <c r="H146" s="291"/>
+      <c r="I146" s="291"/>
       <c r="J146" s="51"/>
       <c r="L146" s="59"/>
       <c r="M146" s="59"/>
@@ -24971,19 +25325,19 @@
       <c r="S146" s="59"/>
     </row>
     <row r="147" spans="1:19">
-      <c r="A147" s="302" t="s">
+      <c r="A147" s="291" t="s">
         <v>27</v>
       </c>
-      <c r="B147" s="302"/>
-      <c r="C147" s="302"/>
-      <c r="D147" s="302"/>
-      <c r="E147" s="302" t="s">
+      <c r="B147" s="291"/>
+      <c r="C147" s="291"/>
+      <c r="D147" s="291"/>
+      <c r="E147" s="291" t="s">
         <v>27</v>
       </c>
-      <c r="F147" s="302"/>
-      <c r="G147" s="302"/>
-      <c r="H147" s="302"/>
-      <c r="I147" s="302"/>
+      <c r="F147" s="291"/>
+      <c r="G147" s="291"/>
+      <c r="H147" s="291"/>
+      <c r="I147" s="291"/>
       <c r="J147" s="61"/>
       <c r="K147" s="208"/>
       <c r="L147" s="61"/>
@@ -25133,23 +25487,6 @@
   </sheetData>
   <autoFilter ref="A14:Q138"/>
   <mergeCells count="33">
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="E147:I147"/>
-    <mergeCell ref="E145:I145"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="E146:I146"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I4"/>
     <mergeCell ref="N11:O11"/>
@@ -25166,6 +25503,23 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="A11:A13"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="E147:I147"/>
+    <mergeCell ref="E145:I145"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="E146:I146"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.13" top="0.16" bottom="0.39" header="0.16" footer="0.15"/>
@@ -25226,38 +25580,38 @@
       <c r="G2" s="125"/>
     </row>
     <row r="3" spans="1:7" ht="24" customHeight="1">
-      <c r="A3" s="308" t="s">
+      <c r="A3" s="309" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="308"/>
+      <c r="B3" s="309"/>
       <c r="D3" s="94">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1">
-      <c r="A4" s="302" t="str">
+      <c r="A4" s="291" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong02),"","Ngày  "&amp;DAY(OFFSET('141-BH'!O$1,SMALL(Dong02,ROWS($1:1)),))&amp;"  tháng  "&amp;MONTH(OFFSET('141-BH'!O$1,SMALL(Dong02,ROWS($1:1)),))&amp;"   năm   "&amp;YEAR(OFFSET('141-BH'!O$1,SMALL(Dong02,ROWS($1:1)),)))</f>
         <v>Ngày  31  tháng  8   năm   2015</v>
       </c>
-      <c r="B4" s="302"/>
+      <c r="B4" s="291"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
     </row>
     <row r="5" spans="1:7" ht="12" customHeight="1">
-      <c r="A5" s="309"/>
+      <c r="A5" s="310"/>
       <c r="B5" s="69" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong02),"","Số:   "&amp;OFFSET('141-BH'!P$1,SMALL(Dong02,ROWS($1:1)),))</f>
         <v>Số:   0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12" customHeight="1">
-      <c r="A6" s="309"/>
+      <c r="A6" s="310"/>
       <c r="B6" s="69" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12" customHeight="1">
-      <c r="A7" s="309"/>
+      <c r="A7" s="310"/>
       <c r="B7" s="69" t="s">
         <v>78</v>
       </c>
@@ -26051,38 +26405,38 @@
       <c r="K2" s="125"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A3" s="308" t="s">
+      <c r="A3" s="309" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="308"/>
+      <c r="B3" s="309"/>
       <c r="D3" s="94">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A4" s="302" t="str">
+      <c r="A4" s="291" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong04),"","Ngày  "&amp;DAY(OFFSET('141-TT'!O$1,SMALL(Dong04,ROWS($1:1)),))&amp;"  tháng  "&amp;MONTH(OFFSET('141-TT'!O$1,SMALL(Dong04,ROWS($1:1)),))&amp;"   năm   "&amp;YEAR(OFFSET('141-TT'!O$1,SMALL(Dong04,ROWS($1:1)),)))</f>
         <v>Ngày  31  tháng  7   năm   2015</v>
       </c>
-      <c r="B4" s="302"/>
+      <c r="B4" s="291"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A5" s="309"/>
+      <c r="A5" s="310"/>
       <c r="B5" s="69" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong04),"","Số:   "&amp;OFFSET('141-TT'!N$1,SMALL(Dong04,ROWS($1:1)),))</f>
         <v>Số:   0</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A6" s="309"/>
+      <c r="A6" s="310"/>
       <c r="B6" s="69" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A7" s="309"/>
+      <c r="A7" s="310"/>
       <c r="B7" s="69" t="s">
         <v>78</v>
       </c>
